--- a/resultados_tabela_hash.xlsx
+++ b/resultados_tabela_hash.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0007127002172637731</v>
+        <v>0.0002905998844653368</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.003549400018528104</v>
+        <v>0.00180449997424148</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06578579990309663</v>
+        <v>0.0429407998744864</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1151005001447629</v>
+        <v>0.06392559979576617</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +549,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[(32054, 'PKKWF'), (36351, 'VKHYX'), (89270, 'BPORN'), (90747, 'FHSHS'), (62180, 'JJNIH'), (67756, 'ADKQM'), (80711, 'KSPTF'), (78819, 'KFTIG'), (57567, 'YLWID'), (42954, 'YSQKM'), (58738, 'UWFJE'), (96558, 'FNGFN'), (71495, 'OBQUS'), (38828, 'NMTSU'), (33414, 'BGTBU'), (17477, 'AJHKA'), (71954, 'TXBDA'), (99153, 'UYUKQ'), (37144, 'ODZQB'), (84288, 'YKHEZ'), (21855, 'DLDWB'), (30891, 'GKTRJ'), (41936, 'PDZGN'), (70243, 'USZAH'), (75036, 'TMRZC'), (85549, 'KSUGL'), (58981, 'OVNCS'), (75549, 'FPVFE'), (83864, 'OGCQK'), (18558, 'UHEOF'), (21936, 'JCBZM'), (27315, 'ISZLN'), (12504, 'KWZDJ'), (99882, 'UUAMX'), (98531, 'WIPQI'), (41576, 'NHRCP'), (39549, 'EHGZF'), (44963, 'BCQEL'), (69576, 'CUBAZ'), (21738, 'MKUBZ'), (41747, 'NOLZW'), (84081, 'PGJIA'), (34684, 'DWCXX'), (60486, 'OFUKW'), (75558, 'AUKAQ'), (71774, 'BNJUJ'), (79936, 'ACPLD'), (17486, 'FOUWE'), (45657, 'TPQJG'), (89720, 'MWFHL'), (82729, 'AHOWM'), (63495, 'RFREI'), (50198, 'XHMYH'), (67738, 'LSTFM'), (88954, 'BVCWJ'), (28504, 'JUJYV'), (23963, 'OSEWP'), (51396, 'LXNWH'), (78747, 'EYLUU'), (67108, 'FNNMS'), (54558, 'PWDSI'), (31261, 'DGEQV'), (39117, 'RCYLO'), (31585, 'EECXY'), (44990, 'MRDZT'), (67405, 'LYNQB'), (94900, 'OKKFT'), (39243, 'XSGRG'), (57954, 'VUZXJ'), (38666, 'VLSKY'), (80441, 'QHCIT'), (67405, 'LCJTN'), (52873, 'PUGWI'), (21063, 'FRJVF'), (56117, 'JPIFA'), (63747, 'CFEDJ'), (87531, 'AHLVC'), (84279, 'BLQZI'), (75900, 'YXYZB'), (58567, 'UKOVB'), (13153, 'GWQIU'), (97045, 'SPZUU'), (28549, 'LODYU'), (91846, 'XKOLZ'), (87720, 'DMUYT'), (39882, 'ITDKQ'), (49954, 'NBIXA'), (18540, 'EZALP'), (71684, 'DSTGG'), (32297, 'OFSLI'), (53459, 'GZDMA'), (89882, 'TYSPX'), (30090, 'RTVJJ'), (10675, 'PXPVC'), (99828, 'YQWCT'), (56720, 'DDAVP'), (93054, 'SOYUH'), (69864, 'PRFFA'), (54072, 'GMAPD'), (54495, 'SEETE'), (49333, 'IYSJV'), (28711, 'BUFUB'), (31414, 'RMJWV'), (60990, 'GWWLW'), (79711, 'ABULI'), (61963, 'WSDBE'), (56531, 'WHTKA'), (85954, 'ZQXNJ'), (49225, 'TXVSP'), (26990, 'QMDWY'), (48549, 'TNFRG')]</t>
+          <t>[(50054, 'UGPWH'), (61855, 'LOPJD'), (40333, 'POGOI'), (43261, 'AJZNU'), (31036, 'VBMVV'), (68693, 'EMTDK'), (38648, 'DGNLX'), (86162, 'XTTJV'), (52324, 'KBFPN'), (30387, 'KGDQK'), (29198, 'CCDCH'), (83936, 'LYFTZ'), (23243, 'TAXLP'), (49072, 'ZTEUV'), (60270, 'YGNSK'), (76540, 'HLMUL'), (61657, 'QWNIN'), (58297, 'OFYNY'), (16873, 'WORTT'), (59198, 'OYGTL'), (13054, 'AIHIT'), (77432, 'GAEXZ'), (73594, 'DIGHX'), (76306, 'BIOAS'), (73117, 'JONPI'), (91576, 'NSKAR'), (37639, 'FJHTK'), (16792, 'MCHAU'), (44360, 'QXKXL'), (84441, 'PZPZW'), (54972, 'AMMLF'), (71603, 'PAQIZ'), (80423, 'VZCKC'), (63207, 'KOMIG'), (90630, 'CHCVH'), (31288, 'ZVEKK'), (98423, 'FHKFL'), (45855, 'FBXUN'), (34153, 'CGDEM'), (55450, 'NXSVK'), (63954, 'GNONF'), (64270, 'TCCDQ'), (42576, 'ZSCEF'), (55504, 'NIAVT'), (77387, 'ZDTJM'), (26441, 'APQVC'), (26234, 'WMOUC'), (51603, 'VRJMP'), (99378, 'YIAHC'), (33333, 'TDDFD'), (17765, 'OBNCA'), (85423, 'KCBRL'), (59693, 'UJGID'), (10576, 'UOZRL'), (49018, 'VXENC'), (69306, 'NGZNV'), (30450, 'ZQRSN'), (52594, 'ECQAR'), (57063, 'NVNKW'), (46621, 'ZOXRM'), (79000, 'QOCXF'), (54279, 'VSVZX'), (25666, 'VYSQH'), (99801, 'OGDRU'), (55729, 'DMKUU'), (52675, 'WBUAO'), (42873, 'UZMRB'), (90522, 'RTKWC'), (64612, 'SSQYF'), (56855, 'JJWXQ'), (22828, 'EQITL'), (64837, 'GVQRZ'), (67126, 'CVFJJ'), (60612, 'HAHZV'), (95234, 'HLCZW'), (19495, 'YWHCS'), (91747, 'EDULY'), (34855, 'DBAPU'), (11594, 'PLYWJ'), (96720, 'NWSYH'), (10810, 'DNRQB'), (30162, 'CJQHT'), (65459, 'WECEC'), (43999, 'TDVAZ'), (74900, 'WQOAC'), (17900, 'MDTEC'), (57522, 'ZLPRB'), (71594, 'RTGZA'), (79981, 'CQKHC'), (38873, 'LOTLI'), (81846, 'PNLJT'), (82630, 'XPAAH'), (59486, 'LVFST'), (78936, 'ATXMJ'), (99729, 'ODXNK'), (43198, 'WXWPF'), (84144, 'EUYND'), (83450, 'KKQGW'), (71819, 'GNWLE'), (49531, 'IMEWF'), (92963, 'RFDHH'), (18009, 'PIRZL'), (84000, 'ZHOCJ'), (26936, 'HAARO'), (51027, 'UREOL'), (51522, 'RDJYK'), (66918, 'UIXYC'), (48900, 'UTKKA'), (14495, 'URQPS'), (14936, 'NSNSY'), (57882, 'FXWCU'), (61855, 'UPRRB'), (96351, 'VQXLM'), (24585, 'DIHNI'), (64351, 'OXSXR'), (83702, 'MXNON'), (47207, 'IJSAI'), (68360, 'VSGTF'), (51765, 'HBPYW'), (79252, 'ZKJJN')]</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[(13613, 'ZQNCQ'), (94631, 'UYTYN'), (69685, 'DCIYB'), (25964, 'JIXLE'), (38361, 'XYXYI'), (20811, 'VYUFP'), (97460, 'YGBQZ'), (73505, 'JZAGI'), (74010, 'RWLIB'), (61460, 'FYGUR'), (64613, 'HXHEF'), (25037, 'GCCFV'), (19424, 'OTIKT'), (40352, 'FDEQO'), (28001, 'RFENS'), (62001, 'JCGSI'), (65145, 'KHFIY'), (72118, 'WFNXM'), (21118, 'XNYTB'), (88910, 'FDCAX'), (40604, 'VKZAH'), (45856, 'JITLJ'), (11370, 'SCOOY'), (61289, 'PDMBA'), (44892, 'WXCEF'), (75028, 'JTDGF'), (28397, 'IPRLX'), (71055, 'EZCFC'), (90586, 'VSMVY'), (25703, 'YBWYH'), (31082, 'AOKYZ'), (15658, 'UBIJE'), (85415, 'GMCFC'), (99919, 'PXYUY'), (19316, 'WDZZG'), (53406, 'ZKAQV'), (24217, 'JWFNN'), (39289, 'MBOTW'), (50640, 'YGYSL'), (84028, 'MOIYN'), (24703, 'FLFVG'), (87316, 'ADOVD'), (30325, 'TQDVS'), (91568, 'RRJAI'), (98163, 'YBBRS'), (57271, 'JGMIB'), (73856, 'RZTNJ'), (90928, 'ZFCSW'), (51784, 'XOODO'), (94190, 'JLXYH'), (73127, 'WHUFM'), (73037, 'XINCL'), (71559, 'WBIDF'), (96244, 'BHTKA'), (58748, 'KIRND'), (13469, 'HQQSC'), (84757, 'RJJLT'), (75982, 'JJMZY'), (83118, 'NICVS'), (28082, 'CAAFE'), (11874, 'DLETY'), (48244, 'TGFBL'), (49946, 'BBTGM'), (59046, 'FLJCT'), (17766, 'WFDVM'), (49874, 'CREJZ'), (77118, 'SLLBN'), (99451, 'QQHAZ'), (14055, 'RKCHL'), (41919, 'WBFWN'), (69019, 'PYLKT'), (43532, 'FMMJH'), (45586, 'KZEVH'), (84082, 'AUUNS'), (98946, 'CGUFP'), (72379, 'UCDNK'), (77604, 'WUUGM'), (49424, 'AKWSX'), (66829, 'ORCPP'), (43469, 'WDACN'), (66982, 'HYJMJ'), (82883, 'XEXGE'), (11730, 'JVOYT'), (39316, 'XNCMM'), (11307, 'ISGQX'), (47784, 'WYZWV'), (74928, 'RHCJL'), (37820, 'LWYPQ'), (16604, 'SIDJJ'), (67622, 'BQBJF'), (57523, 'LDEPF'), (85289, 'DGQBT'), (18505, 'FBYLA'), (86487, 'XQAHK'), (88091, 'UIADT'), (11568, 'HVMGK'), (10667, 'DORUO'), (65424, 'LWIJX'), (90550, 'CIFQU'), (14622, 'PFLRM'), (11730, 'JHDFI'), (75064, 'SNSVN'), (43721, 'UUOVK'), (55667, 'ACRMN'), (91505, 'VDFMF'), (79082, 'BNFEM'), (74100, 'QIDGD'), (71352, 'DELNA'), (36748, 'XHOJW'), (93424, 'HTZCK'), (34145, 'JHGFF'), (34109, 'YPEKW'), (26136, 'UAWDX'), (58730, 'SCYGD'), (32577, 'RVJFD'), (98847, 'JQZMC'), (47973, 'JJGJN'), (42946, 'YFFQM'), (20478, 'PMZJP'), (44217, 'DSOMN'), (67631, 'WDEIE')]</t>
+          <t>[(27604, 'TRWDS'), (40451, 'RJSAH'), (42181, 'JZTJH'), (25316, 'QUXUE'), (73640, 'SWHQV'), (89037, 'XMXMK'), (53820, 'QMHTJ'), (68703, 'OTZMI'), (22100, 'YVTGH'), (70109, 'OMHJN'), (48496, 'MIBDX'), (41181, 'FOMCD'), (50253, 'GUFLV'), (20307, 'MUSMK'), (50217, 'HWXGR'), (33757, 'ZTZIU'), (47424, 'KLOML'), (85703, 'SPUVD'), (18856, 'NRKWH'), (54730, 'NJOUA'), (39298, 'AQPVQ'), (13856, 'UFNDO'), (52847, 'ZPPFD'), (17217, 'ESFYI'), (58613, 'MHWVW'), (49865, 'KNOFK'), (38757, 'LGLBD'), (91820, 'ULMLK'), (51478, 'WFFRC'), (67892, 'OKIXP'), (96379, 'WCXUP'), (11901, 'VORBF'), (93289, 'EPHIA'), (78928, 'TGTFF'), (10640, 'ZIXKK'), (87550, 'TOIXC'), (62253, 'SKZJD'), (55055, 'RNVLE'), (17550, 'OONGS'), (55217, 'CVBBD'), (61559, 'BDRZM'), (62262, 'IJSKB'), (85370, 'YITYO'), (62460, 'LGZBE'), (83073, 'TPYLC'), (36793, 'PGCQG'), (59631, 'UUVTR'), (64289, 'PJRSG'), (49532, 'DKPUY'), (91397, 'NJXCK'), (55919, 'QUNVC'), (61757, 'NIFER'), (97928, 'GDKDS'), (66316, 'TJYUO'), (35820, 'SHCAG'), (50424, 'OHEOK'), (99631, 'BFRUO'), (48541, 'NKAWG'), (70505, 'HMOGK'), (14991, 'IHGOT'), (23568, 'IZMJA'), (79424, 'UDORB'), (48685, 'LBXMR'), (58460, 'FEAJZ'), (43181, 'TSIRB'), (41262, 'SAFMT'), (48568, 'PVABO'), (90460, 'XLTQL'), (17181, 'NEPZA'), (98829, 'FSRFR'), (62055, 'JLAKA'), (32469, 'JCMGU'), (35190, 'HKAXR'), (79820, 'XSQDF'), (93100, 'EWFYK'), (31865, 'BGXQV'), (27406, 'UOQSP'), (49181, 'LYSCU'), (33496, 'OGLPB'), (52262, 'DNUYZ'), (45712, 'TJVUO'), (25442, 'XOBGD'), (76964, 'NLXWL'), (49739, 'OEOKG'), (46748, 'EHEJP'), (14730, 'OAWJQ'), (66289, 'GJAXJ'), (24154, 'BVRYC'), (25766, 'NUUFD'), (44163, 'TLJGZ'), (87622, 'KJNEB'), (25685, 'UGJZI'), (29757, 'JTMLQ'), (94721, 'QBHFH'), (98253, 'NUQKR'), (27640, 'WVWFQ'), (82442, 'CFCEW'), (95730, 'NJFVB'), (77307, 'ZSTBU'), (31937, 'QMLUI'), (60910, 'GNPUY'), (28415, 'BGGFK'), (10361, 'WMGRG'), (36685, 'KFDSN'), (91586, 'NXNMR'), (15433, 'SGOVA')]</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[(50965, 'AVDPW'), (66227, 'SVCPZ'), (60749, 'WUTUA'), (30344, 'ZXNYA'), (25893, 'MELXJ'), (60776, 'TBYZP'), (75641, 'XENLU'), (47713, 'DFESG'), (55668, 'NUIFE'), (12308, 'NVNSX'), (55614, 'MWOEK'), (39506, 'CHREB'), (97596, 'MUOYJ'), (88893, 'QGQSY'), (92497, 'VBOQE'), (33083, 'CFZKU'), (72371, 'ZJBBQ'), (22785, 'UQSSV'), (39812, 'PGUSY'), (82335, 'ZNJTO'), (59218, 'RKQJA'), (69632, 'JRNGT'), (40722, 'XRRKH'), (35632, 'PXEMS'), (93839, 'BWIRS'), (18362, 'JRUMK'), (27947, 'IIMCK'), (31785, 'AKHRF'), (88263, 'VFFKZ'), (13533, 'ADTUR'), (28272, 'LKPPF'), (68371, 'PHOLQ'), (37713, 'CIWQN'), (76731, 'NNCRR'), (16155, 'FZGJF'), (22668, 'KBURJ'), (37092, 'YIZPE'), (52956, 'JFZRU'), (77866, 'YEJSM'), (22209, 'VPMRX'), (31506, 'UUBTC'), (15011, 'CHHMG'), (73299, 'PERTV'), (80695, 'MAKQK'), (35119, 'AFHXF'), (29398, 'SSQRA'), (12785, 'SJFYW'), (22992, 'MLZDJ'), (98515, 'LUPYY'), (26920, 'GSMAY'), (32218, 'DIUZR'), (44578, 'ZLHCN'), (95425, 'SCRJU'), (83551, 'YSNIH'), (82083, 'QNPWE'), (58443, 'EILIG'), (38506, 'GRMUO'), (18155, 'MGCQM'), (65938, 'BZIDE'), (33398, 'OUTMX'), (59677, 'CZRXC'), (39533, 'ZUVDM'), (55911, 'CDLSC'), (61272, 'IJJKQ'), (44668, 'LXZRY'), (17020, 'BTLPY'), (72677, 'UYPHC'), (34137, 'WUMDN'), (47074, 'OSEOZ'), (63461, 'XLTXA'), (27146, 'UGZXH'), (83884, 'WVRIO'), (27029, 'MMBZO'), (91677, 'FZNFM'), (20281, 'RVVBF'), (21074, 'PWLPR'), (28749, 'TEIHO'), (97515, 'UEPXG'), (41929, 'ZNPQT'), (45659, 'PGSGZ'), (92281, 'WEGKM'), (44146, 'TIGGD'), (55218, 'JLOKC'), (34857, 'ATVYG'), (18434, 'HPBEX'), (30110, 'TOJMS'), (57668, 'GWHXQ'), (67794, 'NOLTM'), (49524, 'QRAWD'), (21317, 'DIJIF'), (63632, 'APFER'), (38227, 'PCVKJ'), (55578, 'OSLGF'), (23641, 'JETXM'), (45218, 'FYSXL'), (98587, 'HVHVZ'), (42407, 'MTWOC'), (56659, 'KPNSG'), (89182, 'IPXHG'), (68569, 'TTPVH'), (69137, 'QTXQL'), (90848, 'HKTNE'), (83956, 'HHPVL'), (12335, 'MROUJ'), (60119, 'EVFUA'), (76038, 'ESAHF'), (51686, 'VRKNY'), (42659, 'VERVI'), (35542, 'FJEGZ'), (27776, 'FDKNS'), (21074, 'XTAIN'), (76551, 'TKRAJ'), (42731, 'MKFYQ'), (30074, 'RLCLL'), (33335, 'UGIFA'), (50245, 'TMZOU')]</t>
+          <t>[(30443, 'UMEAX'), (64191, 'OSLJZ'), (47182, 'YDMBQ'), (62848, 'XLMZF'), (83002, 'LDLEO'), (52614, 'NABAZ'), (33974, 'AKLDF'), (46839, 'AJTRX'), (24272, 'APPQS'), (30956, 'KNRKG'), (25686, 'ZNANX'), (66956, 'VFYBP'), (27488, 'QVPZT'), (62011, 'MRQAS'), (48173, 'XWTGK'), (59902, 'QNCVJ'), (79695, 'CYWCB'), (89578, 'WUXML'), (33623, 'RMUZA'), (30479, 'ITZSS'), (71956, 'ZQNSY'), (11893, 'KIJZM'), (63956, 'GSOQH'), (30191, 'EMRFR'), (94398, 'HFOSJ'), (87101, 'UVOJK'), (79182, 'EPTIV'), (60677, 'OGGRI'), (70299, 'ASCCF'), (27074, 'ROENC'), (36344, 'UEGCV'), (54524, 'IMUEC'), (49119, 'HVQXA'), (60614, 'ILYVO'), (61821, 'OWRQS'), (69902, 'PDWRV'), (89794, 'UTTVH'), (78569, 'ANYRA'), (14632, 'PNAHQ'), (31434, 'TPQEY'), (22605, 'IVWXW'), (89074, 'PBYIL'), (47695, 'PHAPG'), (82569, 'SCKGE'), (99209, 'SLBWE'), (71893, 'FPGFI'), (44200, 'COFGZ'), (27434, 'TBLUA'), (72650, 'LFIYS'), (70407, 'CSAOQ'), (70686, 'HZICC'), (86074, 'VBAYH'), (43353, 'UGWRQ'), (55524, 'QJUVY'), (15623, 'ZDYCR'), (94506, 'AYWNH'), (11929, 'MOKPT'), (17704, 'LXIWQ'), (44650, 'YDHDP'), (49236, 'PDAGT'), (50767, 'TKZFC'), (69650, 'UMPPW'), (87335, 'RPGOE'), (29848, 'BOTAV'), (50929, 'GMHGY'), (17227, 'PVYJT'), (28434, 'WDAIR'), (52011, 'TAHKS'), (32731, 'JQNQD'), (36650, 'BVHGJ'), (48065, 'PINZZ'), (43893, 'VNQVH'), (12605, 'BFVED'), (26956, 'SUJYV'), (99569, 'RTXZS'), (89002, 'XFLFM'), (77956, 'ITKIE'), (72731, 'XOWCU'), (66353, 'HMRZU'), (63632, 'MFZAS'), (85461, 'VBLRR'), (82578, 'RZNJN'), (35830, 'WUWWO'), (63758, 'CZZNL'), (17542, 'PKCUF'), (82227, 'TOWAP'), (44569, 'EOJJF'), (26029, 'DLMHG'), (51506, 'LMWZR'), (95416, 'PWVHM'), (26074, 'FFBPE'), (43254, 'IWCVP'), (21695, 'RGFCY'), (73461, 'JOFQZ'), (50380, 'NFKFJ'), (38758, 'DXPKH'), (73281, 'NHLHP'), (83479, 'JUAMA'), (24254, 'PDDRU'), (53002, 'AVPTS'), (84749, 'IWBMS'), (89614, 'BISJN'), (96884, 'AZONO'), (74605, 'AQQRN'), (35353, 'ZDAUT'), (42533, 'URQMZ'), (45020, 'CJUTO'), (87479, 'SQHKF'), (39443, 'RABOZ'), (27362, 'KWBVL'), (15488, 'IZYXX'), (33542, 'DTWYA'), (71911, 'PPDHO'), (52362, 'QBATW'), (33497, 'OGDAL'), (50686, 'RKYFT'), (39146, 'YHSDC'), (67335, 'VCQLP')]</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[(40732, 'UBBAP'), (90255, 'IKIZQ'), (79273, 'VRUBO'), (25147, 'NVJGV'), (34057, 'YOWFK'), (49714, 'RPFIA'), (14219, 'YZIMX'), (52660, 'KHMNY'), (56624, 'LEOXJ'), (30867, 'UTGZF'), (49435, 'UZKTO'), (79309, 'WNOUY'), (98039, 'TOOXC'), (40660, 'ZHWIL'), (52975, 'KUVOT'), (59903, 'FRJSQ'), (90894, 'RMESR'), (95741, 'LZNZS'), (89255, 'YZUZW'), (41948, 'AGGTG'), (44948, 'UGZZM'), (82804, 'WUYAI'), (71354, 'RCLEX'), (72804, 'LAINI'), (27831, 'LEONO'), (15966, 'LGCRM'), (14453, 'FLTZA'), (99273, 'IMVLT'), (42777, 'MHBCL'), (49183, 'ZHUCU'), (59615, 'NDHHX'), (15417, 'YHZYL'), (44966, 'GFFCQ'), (29678, 'PHQZO'), (84300, 'DTEUS'), (91102, 'ATHAN'), (78462, 'XRXHP'), (48597, 'FMUAM'), (50579, 'RJWXW'), (66624, 'AGKIA'), (83327, 'RBVWS'), (40057, 'GEVQI'), (27876, 'TMGNS'), (57615, 'GIRHV'), (66840, 'TPRTC'), (14372, 'SVYPI'), (96390, 'SYQKG'), (96984, 'ZGJUH'), (26696, 'BSZNK'), (26003, 'BRCOW'), (63102, 'ZLOYD'), (79678, 'IVTCY'), (27867, 'RCYTR'), (72669, 'NRZWV'), (26543, 'HVAAT'), (71615, 'OIXDG'), (84849, 'MPSXY'), (66633, 'PYJOS'), (70129, 'VJRRK'), (93876, 'GJJNS'), (91282, 'JHQCW'), (49705, 'TBSYR'), (25345, 'UIQET'), (78300, 'OWGMK'), (10102, 'BFSYJ'), (76750, 'NYBDY'), (85840, 'NQKHM'), (64138, 'INYEN'), (37309, 'DEFCU'), (54624, 'EXKHO'), (39507, 'MVBRJ'), (91354, 'TCFYJ'), (91939, 'HBAAD'), (31552, 'GRGAY'), (59921, 'LILCU'), (19867, 'FHXRA'), (27966, 'UUKKL'), (28723, 'PHMNJ'), (75021, 'CLMSW'), (53633, 'HHURM'), (26939, 'BTOWH'), (85804, 'WQPRQ'), (89705, 'BPUSQ'), (73093, 'GQQVC'), (47804, 'ZESZM'), (65201, 'OXPQF'), (32021, 'ZNDYT'), (28858, 'ZJRXG'), (25471, 'TJRQF'), (80525, 'YOBJN'), (87048, 'FFFNW'), (86444, 'WKZOV'), (12705, 'ZCUCH'), (13408, 'ZKXXJ'), (37156, 'ROEWM'), (17210, 'UHYTM'), (18057, 'EFYAI'), (84219, 'ZJPEV'), (27534, 'DNORH'), (96120, 'XLWDB'), (67021, 'CALTA'), (68435, 'DDCPA'), (19192, 'JWQDH'), (89453, 'GAEEK'), (44219, 'HZZPV'), (50813, 'QCNGC'), (13489, 'LFTZT'), (87651, 'VIIBT'), (93480, 'TVOAP'), (18120, 'OIRAN'), (36129, 'DIUXY'), (32318, 'NDXOS'), (97102, 'KKQEF'), (87372, 'HTAHA'), (10093, 'VLMAK'), (60426, 'ORVKT'), (10480, 'DJCMJ'), (19264, 'QGKEB')]</t>
+          <t>[(44615, 'DTMMF'), (17363, 'IVDTK'), (19192, 'CLXCQ'), (58786, 'XIYHR'), (56534, 'CWJKJ'), (69156, 'AWIXL'), (94390, 'QOEDZ'), (31822, 'YYRYL'), (81696, 'NQVPX'), (71651, 'SCFPK'), (84111, 'QKIEH'), (73534, 'JVYPT'), (17822, 'CHZYF'), (74696, 'DQAIT'), (37210, 'PAVMB'), (87588, 'FUQPC'), (47759, 'SUFWJ'), (56381, 'BSVWL'), (21849, 'FPUIY'), (45246, 'AXAYJ'), (31723, 'TDKGD'), (91930, 'EWSFP'), (31075, 'VTMRX'), (13336, 'FKIKD'), (20732, 'OWYZL'), (22381, 'ANOSB'), (72984, 'KNEID'), (50696, 'PADBK'), (74993, 'BZIPX'), (35723, 'XWMBK'), (61084, 'FXXLH'), (81903, 'BNCOZ'), (72381, 'LFIZG'), (89939, 'QJDVX'), (49093, 'DIDOG'), (65840, 'AVRWA'), (73048, 'WPUYQ'), (95768, 'WZPAF'), (95192, 'HJFGT'), (17768, 'CINKW'), (57426, 'WAEZZ'), (45111, 'JBSTI'), (41534, 'CMVFE'), (87975, 'BMQWJ'), (90111, 'POSOA'), (36534, 'KLLKP'), (44300, 'SSXDZ'), (91534, 'IURFF'), (18264, 'MPCAJ'), (77867, 'OLHJR'), (15921, 'NZGVH'), (32084, 'MQUFO'), (56021, 'WBWBP'), (49723, 'FQJIP'), (59723, 'UTOLB'), (24102, 'LURSD'), (64975, 'XQNWE'), (18984, 'UJQQW'), (36219, 'RMHZQ'), (70336, 'QJSCO'), (27039, 'GYHKK'), (25318, 'XABCY'), (97750, 'UVWFF'), (47246, 'PCDWT'), (19030, 'VYAVI'), (92723, 'EQAFD'), (52660, 'HYGSG'), (83093, 'OBVNG'), (36255, 'LZELD'), (37165, 'VMGTU'), (87516, 'YMKYL'), (75129, 'VDPLV'), (50282, 'TNTDH'), (39174, 'NQVWX'), (38543, 'YIGBM'), (14012, 'IEKUZ'), (74543, 'UIBLV'), (99489, 'IHIXZ'), (12228, 'KQPFJ'), (43075, 'CLRVD'), (86813, 'VTKJY'), (11048, 'RFFXT'), (15246, 'VCHAU'), (40561, 'KVGPD'), (22381, 'ESVXK'), (25516, 'VMOKW'), (72435, 'RGKRP'), (64534, 'LWQZN'), (31777, 'XQFRQ'), (49930, 'PZCWB'), (80219, 'YLUIB'), (58669, 'WRJQM'), (17795, 'KHJGT'), (57462, 'ARKVW'), (43714, 'EMNVX'), (89498, 'WUNIV'), (97345, 'LQQCB'), (70372, 'QBKCA'), (39237, 'CEPMA'), (15786, 'NIPGO'), (72282, 'IEPEG'), (57894, 'ZFSCJ'), (57408, 'SXASF'), (64102, 'KTDJY'), (59399, 'HEOWL'), (19795, 'WPOOP'), (82111, 'UFBVD'), (33561, 'GHSJM'), (49867, 'PBTWG'), (70867, 'RGELN'), (72507, 'GWPQH'), (57327, 'JWRPN'), (19651, 'JSOEI'), (96651, 'EBICK'), (27300, 'JEKTV'), (36066, 'YCCDN'), (46471, 'FYOES')]</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[(91310, 'TFPHW'), (26715, 'AQGJC'), (67634, 'JVXMN'), (41247, 'HAHDQ'), (63112, 'KXGNA'), (14031, 'QIGST'), (12832, 'GZOQF'), (33769, 'AJORB'), (23175, 'RQMDY'), (18535, 'XMHRP'), (26067, 'IZIDR'), (37751, 'CUTJM'), (55724, 'NRAIM'), (99202, 'XAXGV'), (71148, 'XSVYR'), (28274, 'FHLBF'), (88013, 'UMOKT'), (97148, 'REJXE'), (85679, 'DXXKF'), (56859, 'RKWDX'), (13175, 'AUWVE'), (54166, 'ERZMW'), (64256, 'XGFIZ'), (16760, 'CVPLY'), (40355, 'UNHEG'), (74040, 'IURQU'), (82373, 'TIOOB'), (26715, 'DAPAS'), (12211, 'IJJOJ'), (57958, 'QOMUR'), (68517, 'PABFL'), (98418, 'CQKWP'), (27616, 'FPMYP'), (71616, 'IDUCP'), (59661, 'QWHPP'), (86967, 'LDYJN'), (82256, 'DOZNX'), (94274, 'BGETK'), (31463, 'CIRZY'), (18571, 'FMWYR'), (10436, 'SYIPE'), (13967, 'SITWK'), (93238, 'AXGBX'), (41976, 'ZONXO'), (17130, 'XWFNU'), (31634, 'TKEBC'), (32976, 'CFQMY'), (66598, 'BSZSX'), (85445, 'DNEZD'), (53076, 'MLNXD'), (15751, 'EVPNI'), (72031, 'SBGKQ'), (13616, 'POBAM'), (22967, 'TMJNO'), (58823, 'CZZSN'), (17346, 'TTXKI'), (39481, 'BFZUP'), (13049, 'QNFZU'), (83121, 'HNDRH'), (60634, 'DAVCE'), (91157, 'ILBJM'), (36967, 'DJCNT'), (39211, 'NXTSZ'), (77733, 'XDNHJ'), (45787, 'NZHKT'), (86184, 'MIDJP'), (43391, 'WNFFM'), (89904, 'SIUEM'), (11211, 'WPNEA'), (59490, 'MBWTO'), (59661, 'MGNJM'), (37796, 'QYDWF'), (59949, 'GSTCG'), (18778, 'AIHWE'), (64157, 'CWWXN'), (93283, 'POFXK'), (25661, 'HJMWG'), (10094, 'WCCGP'), (18706, 'LQOCF'), (69067, 'TZMCL'), (68814, 'KITKF'), (86373, 'FZJKQ'), (10247, 'ZRAFY'), (72751, 'IDFNX'), (42724, 'LIOMH'), (45751, 'DFJDB'), (72409, 'SSEYS'), (23886, 'PZRTY'), (68859, 'FSFJR'), (42004, 'XHXVL'), (49229, 'ZMEHJ'), (30274, 'XGXIJ'), (78589, 'JLQMM'), (62994, 'WKSGI'), (73067, 'KDKXB'), (56184, 'FEGUJ'), (84220, 'YDLPZ'), (83076, 'VXZRP'), (23841, 'PGSBL'), (12454, 'SGOHK'), (95400, 'PLOES')]</t>
+          <t>[(85670, 'VPLEU'), (63328, 'CYRUL'), (77319, 'QKKKT'), (14094, 'LKMCP'), (17454, 'AKVJU'), (62535, 'CFJBL'), (44760, 'OWAFR'), (71238, 'PUGDG'), (38139, 'XGLKK'), (74778, 'CAOEL'), (24121, 'TVSGE'), (95760, 'VBQVX'), (65445, 'PIPTW'), (86202, 'GPLZZ'), (43697, 'MQJPO'), (57958, 'ZDBHX'), (25958, 'AUWAK'), (16616, 'TPMRZ'), (91499, 'KRGXI'), (43004, 'CZDDO'), (52472, 'TDMGD'), (10922, 'LXYMG'), (84436, 'LITKM'), (58886, 'ERCAU'), (55238, 'FNTRB'), (19337, 'MOFND'), (62895, 'KNYLE'), (93283, 'QVEHQ'), (21220, 'GSLBJ'), (97472, 'LJCDO'), (10418, 'WDJEE'), (30148, 'HNLMQ'), (97814, 'WLIMA'), (93886, 'HTOZZ'), (41796, 'HMGII'), (24472, 'CCPYZ'), (30679, 'BNVQF'), (59130, 'JMRKQ'), (53382, 'TAUNP'), (77238, 'PCDTI'), (91796, 'MEFFD'), (12202, 'UZFDC'), (91553, 'QZKXN'), (73454, 'YFDHX'), (46499, 'BTSIZ'), (91229, 'PSUCS'), (47130, 'XXJYB'), (66121, 'MFQVF'), (26670, 'EQJZG'), (70688, 'TSTFX'), (78616, 'BJXCL'), (58220, 'BEKCU'), (85445, 'NJLVN'), (19319, 'JXUSQ'), (73256, 'OHLLH'), (67985, 'WGYQK'), (89013, 'XMIZO'), (45481, 'ZTQCB'), (50688, 'NNOBM'), (75094, 'ZFKOG'), (96589, 'MYKXB'), (14049, 'ELICS'), (16310, 'OQFKJ'), (84895, 'PQWSY'), (95328, 'PNRCJ'), (16706, 'HFIOB'), (68004, 'BMOPW'), (69049, 'KNCWH'), (46661, 'IQFRZ'), (26733, 'ULTBR'), (12382, 'GMAAE'), (13292, 'SSZMB'), (23643, 'UQSJS'), (40391, 'DCIRS'), (85607, 'EBKVQ'), (20463, 'LJGLS'), (94976, 'KNCFK'), (22634, 'JPIAH'), (85733, 'VWACV'), (24364, 'VEHHY'), (72040, 'YCPQE'), (22103, 'SLNMN'), (44076, 'NVFZE'), (57193, 'SVILD'), (36571, 'YMJPL'), (17076, 'CHYWT'), (54283, 'MGGGT'), (91688, 'PSUDL'), (30877, 'NZTMD'), (71175, 'HAGWR'), (78229, 'QOQLW'), (93535, 'ZXQAK'), (25076, 'TRCRW'), (88463, 'HPBII'), (15400, 'RVZBW'), (71139, 'QHCWR'), (36931, 'AAZVW'), (53670, 'UKIRQ'), (64094, 'BKWHM'), (73706, 'EZNAW'), (47346, 'JWKIT'), (69022, 'UCAFR'), (86868, 'PWAFP'), (45598, 'JZZIB'), (91292, 'VXHSI'), (80472, 'AHEEE'), (44310, 'HHVQT'), (29670, 'HGQXF'), (98778, 'DGUYA'), (52301, 'WXGLL'), (14166, 'IOABG'), (26868, 'GFOAL'), (26463, 'GGFMY'), (14346, 'QWLDP'), (41463, 'LTEYN'), (66013, 'TAZRK'), (38337, 'MXCYK'), (96004, 'CYJOK'), (33895, 'DDXNA'), (90112, 'ZDSAX'), (79247, 'ZVWKJ'), (42175, 'FWDRU')]</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[(61230, 'TRJZE'), (99995, 'LVLHK'), (62977, 'YAFOM'), (64671, 'KDSXU'), (42185, 'QZHAQ'), (99536, 'DPORF'), (43410, 'OSKGX'), (27554, 'JHBIR'), (73149, 'JQVQR'), (53347, 'TEFLZ'), (61122, 'SUFMR'), (81014, 'UDRCJ'), (45383, 'AXDOX'), (34131, 'HQYAC'), (33131, 'NWCAG'), (31563, 'XIKMN'), (38554, 'DMVVT'), (24572, 'KHHRY'), (77896, 'YBQXD'), (70761, 'XXJVJ'), (43770, 'ZOEJU'), (54833, 'QKPLR'), (50842, 'YXJYN'), (44239, 'VNXIY'), (15878, 'FKBBI'), (71257, 'HSFBT'), (81401, 'CMWZN'), (79518, 'EBPCC'), (81122, 'ZYQKV'), (48653, 'HPZDI'), (85248, 'BDOUV'), (69293, 'GOVTO'), (15545, 'COWSG'), (52860, 'NBJAX'), (72635, 'CAFSK'), (19851, 'BIXEZ'), (43527, 'LJRGH'), (52788, 'MSVAB'), (69797, 'QZGCN'), (58266, 'WKCVZ'), (37446, 'XLWDC'), (29005, 'YVWUU'), (16815, 'XBUEJ'), (27464, 'PEVTT'), (19140, 'UJUJK'), (90014, 'AIVQY'), (94464, 'KLLHC'), (39050, 'VKIPK'), (58905, 'RDPJW'), (72815, 'ZTCQZ'), (11041, 'JWLQJ'), (85545, 'SNDMO'), (23176, 'NSIJX'), (78635, 'RWHSO'), (81527, 'MGMJN'), (50824, 'URKPO'), (50770, 'INNGW'), (21770, 'CYRNB'), (13842, 'GJKKV'), (47257, 'MTIUG'), (40149, 'EFCYO'), (67275, 'GZFTL'), (84212, 'YQYFI'), (32392, 'WYSQP'), (20986, 'GFOQZ'), (91473, 'MCYJE'), (20581, 'UKTBC'), (47734, 'VBROE'), (70437, 'DBZPT'), (84338, 'JVJJO'), (58554, 'HKAHZ'), (11392, 'KWCEC'), (78311, 'JFNRD'), (36878, 'UZGGE'), (45644, 'OYOOT'), (75572, 'LZPLZ'), (75968, 'CHKWX'), (65383, 'KLIAP'), (10707, 'AVMVF'), (59923, 'OALMP'), (60869, 'LGTLX'), (16131, 'VAPNO'), (15536, 'MUDVA'), (36671, 'FBYXC'), (65662, 'JAQIM'), (46968, 'CRVKN'), (61212, 'PESUB'), (20050, 'LXECX'), (19140, 'DVEBT'), (10797, 'FYWDR'), (72986, 'QZCDZ'), (25491, 'KXVYC'), (25194, 'OTKOZ'), (84959, 'PXNHM'), (99392, 'QMKDM'), (61392, 'TMHDS'), (46068, 'QUAXI'), (85689, 'XSBPF'), (26113, 'EMOXC'), (16599, 'ZDHUI'), (34617, 'AGVCW'), (52365, 'QSEVH'), (86563, 'BWQEB'), (66032, 'XXWPN'), (66986, 'QWBFJ'), (40644, 'TBDUL'), (68887, 'PRDGG'), (76014, 'NNZMM'), (49077, 'NWULJ'), (77239, 'ZGSZA')]</t>
+          <t>[(11554, 'DSUFZ'), (24221, 'EJHNC'), (67815, 'KATBN'), (79680, 'CBFCB'), (36698, 'EMIXM'), (66914, 'HWABD'), (68059, 'GVOSZ'), (32707, 'QPXWH'), (52428, 'GYUFB'), (28815, 'AIRJZ'), (83203, 'ZFIQH'), (45257, 'BIGTD'), (19122, 'NYBFC'), (92014, 'KKGFR'), (12329, 'DPMMK'), (61824, 'LLIJW'), (28311, 'MFZHI'), (25257, 'HDWTJ'), (22617, 'BRRPU'), (38599, 'BBAPM'), (11230, 'XHBWB'), (93662, 'LMXBY'), (37104, 'FFDFM'), (16095, 'UNIZQ'), (29536, 'HQHGR'), (63752, 'AJGWE'), (38680, 'IKRFY'), (65707, 'EGGPA'), (29617, 'DOQZT'), (26959, 'OQMZJ'), (91041, 'QLXBH'), (64797, 'HPKLI'), (43932, 'LWIVH'), (77185, 'NPAVG'), (68770, 'LUIJZ'), (98707, 'WVYGM'), (73941, 'MORBN'), (75248, 'YGKOB'), (81626, 'XAQYT'), (44248, 'JFUGJ'), (43617, 'VQYIX'), (96401, 'XJGJG'), (82248, 'VZKCS'), (70311, 'LUAMT'), (92941, 'QIPDE'), (21482, 'ITPPZ'), (48482, 'JQWHW'), (55788, 'GAIPO'), (27176, 'GJSFM'), (49626, 'KZGXW'), (96761, 'PDELU'), (81824, 'DHFGK'), (19059, 'PJCOE'), (54797, 'LXSBR'), (54977, 'KGRXV'), (74257, 'NSEMK'), (42293, 'SXYHX'), (48203, 'CTOGW'), (87104, 'XOJEU'), (63329, 'RZRPA'), (31374, 'LXHJB'), (25590, 'HJYJS'), (58509, 'BMZMZ'), (78806, 'KGJVK'), (40248, 'GXPDI'), (14752, 'RBHTX'), (34167, 'YWWTE'), (86212, 'ODBFH'), (83266, 'QKCAG'), (51194, 'VGVEU'), (83968, 'KJVUO'), (45455, 'PLHKU'), (16572, 'GAKEU'), (29941, 'UXMLX'), (62014, 'VCJBZ'), (89167, 'IJIKO'), (50635, 'SWGPH'), (66023, 'LUMKS'), (85149, 'VBIOI'), (90860, 'MKXJX'), (75914, 'MPTCU'), (58248, 'SMNPD'), (36680, 'VWJUY'), (84608, 'AGEDY'), (89626, 'BDIPF'), (36446, 'BBBGN'), (66347, 'OHLZD'), (36995, 'NJTSA'), (65356, 'GNVQE'), (45851, 'SJTJQ'), (80356, 'VGOVM'), (74248, 'LIIIN'), (48473, 'VOAJM'), (33680, 'GGCVW'), (76653, 'LWBZX'), (22491, 'LMZYO'), (14428, 'JSRMK'), (53338, 'BTQEZ')]</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[(25096, 'SXFXM'), (20042, 'NESKI'), (53348, 'ESKHH'), (96213, 'SBBUB'), (30735, 'NEYTJ'), (10195, 'COMPE'), (62465, 'UPEOM'), (19600, 'OESHQ'), (39213, 'QOSRV'), (53501, 'XPEAN'), (36699, 'QDVOG'), (49501, 'GWQKN'), (11762, 'UKSQS'), (67411, 'LRIIF'), (94726, 'ENLSX'), (64987, 'RZVUH'), (40789, 'WOGBZ'), (70492, 'QRHWP'), (21456, 'GJUSM'), (87969, 'FBYTJ'), (64087, 'ABYBI'), (89447, 'BUMSQ'), (66060, 'PUJGP'), (72726, 'JSFTQ'), (53339, 'OXHBH'), (32879, 'UJNOW'), (69852, 'CAVMH'), (62060, 'URYKH'), (10006, 'VOBHR'), (38267, 'WBYKC'), (42825, 'HQQTX'), (48312, 'YDQPX'), (19492, 'UKUMX'), (11879, 'RPSVO'), (56699, 'VHZNB'), (69996, 'EYMLJ'), (98537, 'RSOYI'), (61375, 'HEHOK'), (17978, 'ASBLP'), (39195, 'JQURM'), (77528, 'BVVJV'), (62798, 'GHCHQ'), (25726, 'ZZQTF'), (49708, 'LENXP'), (76051, 'OHDKS'), (31915, 'YBTXI'), (56015, 'SIJDO'), (73510, 'TPOSR'), (72141, 'ZLWYS'), (17123, 'ICUZP'), (70168, 'EFMWI'), (49915, 'ZZSGA'), (73501, 'WICZV'), (22240, 'IKVLN'), (40600, 'NVQRG'), (59600, 'AOBVG'), (56960, 'VPTHQ'), (42807, 'TEWLW'), (18348, 'BVSFG'), (38186, 'RWXTN'), (25870, 'IEKKP'), (89168, 'YBHYN'), (74033, 'YHEBR'), (55483, 'YSBQN'), (97618, 'HJWRJ'), (76384, 'EGDRH'), (87744, 'TFJRX'), (38384, 'GDOHA'), (80366, 'LBGLT'), (43150, 'CWFNV'), (68105, 'UDSXE'), (71672, 'KUHZA'), (75726, 'WOTJA'), (50150, 'VAGTB'), (11699, 'NPCMX'), (63888, 'KVPGN'), (55168, 'OYKBL'), (16105, 'CYNZT'), (54213, 'YFVQK'), (93951, 'EBJXR'), (67348, 'CPXCO'), (87888, 'MLDEG'), (88879, 'BVDEV'), (99726, 'PUSAM'), (76546, 'VEOOH'), (65528, 'AJKIE'), (44744, 'PETQN'), (24213, 'OIGDU'), (96258, 'IXMHZ'), (41807, 'CPCQI'), (45195, 'RXHBU'), (23447, 'GPBZW'), (53015, 'NVPTS'), (82654, 'UMVFA'), (26276, 'WHCFV'), (68708, 'JWSQX'), (97636, 'JCYUN'), (36123, 'VVNOK'), (26852, 'HKITE'), (29609, 'ZFZKJ'), (56717, 'DBILR'), (23393, 'XDPSF'), (38204, 'QFRJW'), (35465, 'FERXE')]</t>
+          <t>[(19870, 'QRFAJ'), (86897, 'SIFSQ'), (85816, 'HPBFV'), (64366, 'RAKTN'), (22987, 'PFWNO'), (99645, 'XUFIO'), (32096, 'SWITN'), (54240, 'KRIIH'), (70186, 'PREKV'), (49726, 'VPYDY'), (91681, 'WBSAB'), (73726, 'HGIDQ'), (34600, 'JSVYE'), (64852, 'FOMSI'), (22312, 'TOPDT'), (58312, 'MZANA'), (52879, 'LQJKR'), (80105, 'OXCIF'), (60051, 'CDRWX'), (39141, 'ZTWSF'), (93222, 'CRYBH'), (90303, 'FWZHU'), (64051, 'RDUFQ'), (99204, 'CZWGR'), (35150, 'ULTWD'), (70087, 'JBIDB'), (77996, 'TTTBY'), (13501, 'DPGKP'), (36996, 'CGXQV'), (87384, 'TGMVH'), (89159, 'TBNTM'), (47564, 'DHUDC'), (28429, 'LZCSL'), (26249, 'GQWZO'), (39105, 'QNMFE'), (27384, 'UVABL'), (92087, 'JDWHL'), (86510, 'DMOFF'), (21528, 'LZAGD'), (75483, 'RFYDH'), (26348, 'UJZEU'), (16951, 'VUUTB'), (53141, 'ICDUN'), (93690, 'KUDAD'), (42420, 'QMBBT'), (76483, 'OWCFS'), (65249, 'ZJNAK'), (28438, 'IUFTP'), (72780, 'KWXEY'), (64663, 'WPXZD'), (13492, 'KFMGL'), (97438, 'RGNUP'), (10204, 'LJYOR'), (56429, 'ZBJNC'), (84825, 'JROEC'), (88870, 'LAULU'), (88177, 'RWFPM'), (69879, 'VKZQA'), (11744, 'OEWFH'), (57069, 'LVAOD'), (58087, 'YNLPG'), (89132, 'SFHAZ'), (91843, 'PSEWX'), (40708, 'MUOYU'), (77159, 'VKQGN'), (25996, 'XVDBE'), (56276, 'XWYQB'), (62501, 'MSMWH'), (52951, 'NLOAY'), (91960, 'WMATH'), (69078, 'GGKFT'), (99672, 'YFCVJ'), (77600, 'MDBZB'), (66339, 'QSIPJ'), (78654, 'ECLEU'), (31780, 'IGMCD'), (33726, 'HMMVK'), (84717, 'OPIFK'), (96132, 'NMBZV'), (84600, 'XPIDB'), (37591, 'AOVWU'), (69150, 'JHZBP'), (22492, 'IXBNC'), (57708, 'YQLFC'), (70690, 'AGGNR'), (41816, 'YDUJN'), (25051, 'ZLKEM'), (10528, 'HXTQR'), (90492, 'VWQIJ'), (69438, 'HMAVB'), (12321, 'UKTND'), (44402, 'IALYN'), (28006, 'SZCKF'), (73411, 'FDWTJ'), (66285, 'QOGUA'), (28789, 'PVPCA'), (94546, 'SVFVP'), (22663, 'CNVYD'), (70942, 'FEVBB'), (88762, 'WZREH'), (56591, 'HJFIG'), (13618, 'TOVKD'), (53798, 'XFIUR'), (14672, 'DULNA'), (18366, 'MKLUB'), (18555, 'JZXLI'), (22933, 'NEGKU'), (35366, 'LQEAL'), (59573, 'CRBQJ'), (74492, 'SILXL'), (82960, 'XDFIA')]</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[(27754, 'PLLJF'), (79268, 'LVYEZ'), (64205, 'XGZCF'), (62340, 'WDAJB'), (52277, 'YLYFC'), (67511, 'ZDYUX'), (98241, 'MGVNU'), (67133, 'KYQYB'), (25124, 'CYBFN'), (95151, 'XMUIM'), (15124, 'YNTBD'), (45961, 'BWFYU'), (68358, 'ZGGQZ'), (37277, 'KWUNS'), (99907, 'GYGDR'), (12853, 'AMZDZ'), (34502, 'STKPH'), (95043, 'KUYPC'), (31637, 'EQEHG'), (22430, 'KBIPK'), (18376, 'XPCWC'), (91502, 'OPBMX'), (69916, 'DGILE'), (75088, 'XPDSG'), (53196, 'XDZHF'), (19871, 'YDTAH'), (78061, 'BPJJA'), (80358, 'KQRUJ'), (29907, 'FILLB'), (49646, 'DFBBY'), (51439, 'OKEOQ'), (51448, 'KGZRW'), (65277, 'LTTRU'), (84214, 'WVHCK'), (44448, 'AJHWS'), (49430, 'WWESM'), (30511, 'TOWDV'), (73574, 'NWTIT'), (96691, 'HFZPX'), (45079, 'EUHFH'), (27880, 'XVEDA'), (55835, 'VJEYH'), (13592, 'IOSGC'), (22745, 'LFNHI'), (48691, 'THIQA'), (54349, 'EWAEX'), (20448, 'YZYHI'), (70988, 'YMXMV'), (31619, 'ZKXLG'), (38754, 'CRMWU'), (49484, 'MOQIF'), (33115, 'RMXEC'), (13601, 'LISTO'), (79007, 'VTYLR'), (11142, 'ARWSL'), (86970, 'DSDPG'), (71448, 'DWOOL'), (59223, 'DSFUL'), (87862, 'GTCAQ'), (22151, 'ZEUHY'), (78556, 'YOWIR'), (12160, 'QZFWS'), (20250, 'WTLXC'), (11475, 'HZZTJ'), (24187, 'TPXTE'), (71700, 'SQMTD'), (64727, 'EOTRI'), (77223, 'XEQHU'), (42358, 'EEMTF'), (22898, 'SPZPU'), (58349, 'OLIET'), (12097, 'IEQQG'), (28187, 'HIITH'), (36115, 'MWKNG'), (82052, 'JARIL'), (85790, 'HMJNG'), (10367, 'YWQRZ'), (52025, 'VQCGB'), (38817, 'ARZXT'), (16016, 'JXYFN'), (45970, 'TKIUB'), (38115, 'UIIGP'), (30286, 'CCHNZ'), (51331, 'XRKAZ'), (96601, 'SYNLG'), (70691, 'QWITW'), (73817, 'JOQSO'), (68610, 'NHMOZ'), (57484, 'CPNAD'), (28331, 'GDEVU'), (13952, 'YBKNR'), (69349, 'UZXSA'), (29817, 'HWUNM'), (86637, 'IXSXP'), (89034, 'PBUKX'), (75394, 'JFUOT'), (48016, 'OCRMY'), (59376, 'PLVFM'), (35781, 'ISXFL'), (24772, 'UKOAK'), (32610, 'QKHCB'), (91997, 'JYQSE'), (79313, 'GKFVC'), (34790, 'FLLVR'), (54574, 'TKVOP'), (32808, 'DKVLO'), (89583, 'LAZQL'), (80160, 'MACTM'), (69637, 'BSBZG'), (55646, 'XQDSJ'), (97502, 'WOXXP'), (75061, 'VBYDM'), (39664, 'MMZAO'), (22583, 'KZFZH'), (34232, 'XTVGG'), (85295, 'BVUAS'), (45853, 'LPTPV'), (89862, 'QSSXU'), (44223, 'FCEEG'), (89862, 'YTKUI'), (88655, 'RWEJW'), (59925, 'DCDYZ'), (53952, 'RPLAK'), (32097, 'XAXFV'), (90925, 'GTVRM'), (82178, 'WZBIA')]</t>
+          <t>[(52241, 'CAHUD'), (24943, 'LHAUA'), (10763, 'QTRME'), (69961, 'ICNBW'), (51592, 'TUUZB'), (22403, 'UYPND'), (52862, 'LRHBL'), (66988, 'OZBTT'), (63502, 'HADTM'), (72268, 'OMLNH'), (73889, 'UYYHQ'), (32133, 'YIWVA'), (17673, 'ODHVW'), (54763, 'XNLAZ'), (46052, 'HLZIT'), (50952, 'TWXWN'), (78763, 'JBUYT'), (10241, 'VWHRE'), (72808, 'BFRBM'), (78430, 'PGQZN'), (68142, 'ZLRHW'), (91691, 'WXSHU'), (62790, 'RIIHV'), (19736, 'JNBKG'), (99943, 'PSLXA'), (21232, 'MTDZU'), (73529, 'OTDQP'), (78988, 'TCTHE'), (65358, 'PAEIA'), (79232, 'ARNOC'), (72493, 'TPLQU'), (95034, 'ZHEEW'), (33232, 'OKJPI'), (44862, 'HSHWY'), (67169, 'PYEAF'), (40088, 'BWWZP'), (51745, 'SJHVZ'), (44655, 'NUXEQ'), (75286, 'HWBYB'), (23556, 'RLKUT'), (33016, 'WXLAE'), (66610, 'YRCQT'), (79718, 'LJSOU'), (90799, 'VAOKZ'), (85502, 'IVUZS'), (67097, 'XJSKR'), (33484, 'IPNRC'), (24655, 'QKHMS'), (21961, 'QTVBQ'), (86988, 'KFBOY'), (52646, 'SKVHP'), (82808, 'FNREP'), (92817, 'OWXFD'), (84034, 'XKTUD'), (82538, 'DWNJJ'), (23259, 'CCPZO'), (70187, 'EGSFU'), (88754, 'CRNKX'), (40385, 'GQHMM'), (71196, 'ILDGY'), (54088, 'DWAXB'), (76853, 'FQDJO'), (72484, 'OLHFQ'), (49142, 'UCRTB'), (60907, 'QEVOT'), (99331, 'ISJJG'), (89412, 'NDVRB'), (94106, 'IAWSY'), (26907, 'BQNBR'), (77322, 'SIZBX'), (11304, 'GABKP'), (37808, 'OKNEX'), (91286, 'DLCLM'), (77205, 'AADLB'), (97835, 'VHYGZ'), (93853, 'JKQTN'), (80799, 'XETES'), (34484, 'KQCBX'), (53106, 'NQJZL'), (43142, 'PXDUC'), (43376, 'MIXGD'), (47871, 'NRKXR'), (60196, 'CIJRJ'), (26835, 'WOCXB'), (83637, 'WERVV'), (76043, 'UCNUQ'), (60988, 'YFBKQ'), (81844, 'MEGBH'), (85232, 'TBCLL'), (34961, 'KITAA'), (34952, 'COORK'), (62043, 'XNTUD'), (21547, 'JINMX'), (44484, 'HIZHE'), (82691, 'PFVLG'), (73448, 'MSTKD'), (56781, 'WDQNF'), (31322, 'AKICK'), (78745, 'ICAUH'), (19502, 'VLYPQ'), (37493, 'WPEAX'), (77241, 'ECMPO'), (78484, 'ZOTOQ'), (73241, 'YCCVX'), (14610, 'OFHHN'), (32511, 'GIXVI'), (34610, 'EPHLL'), (99160, 'PNGRO')]</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[(36575, 'FDWRP'), (32251, 'INVFA'), (58296, 'EGXIQ'), (99710, 'XCNFH'), (64836, 'OVKCG'), (48161, 'DORUT'), (55638, 'VLCVP'), (79836, 'PMTBE'), (24296, 'HFMBG'), (73485, 'NACOX'), (77350, 'QPWWD'), (51332, 'QTIHK'), (74917, 'ZCAQE'), (96296, 'BKPEW'), (36818, 'ZGOLY'), (61269, 'OCGVL'), (62629, 'JXTSI'), (64818, 'GDGGK'), (80242, 'FIKOL'), (28647, 'VUYRH'), (27530, 'NTUZV'), (43566, 'IXHOA'), (27935, 'KHYFP'), (92791, 'BKABM'), (59719, 'PKVSP'), (17665, 'KVFVE'), (49962, 'EXPTF'), (57917, 'DSDAU'), (45206, 'IXKKZ'), (91809, 'KUKXI'), (54125, 'YTUPL'), (89017, 'CJZEU'), (54233, 'QEMJD'), (25845, 'GURGI'), (78962, 'JUHUB'), (97782, 'ZXWYU'), (24449, 'GKXFL'), (48089, 'QMGZI'), (33323, 'YRMSW'), (39188, 'MYWUE'), (91422, 'PHSXJ'), (50872, 'LXFYS'), (91080, 'OZLZR'), (96170, 'XCTEH'), (64836, 'QFHRF'), (26539, 'FTWTA'), (62440, 'RYAXN'), (68305, 'DVJTG'), (44431, 'FIDGI'), (32179, 'RUUKI'), (67125, 'BWTLD'), (11638, 'SKOEQ'), (85728, 'SDCQI'), (90503, 'GSNBH'), (98512, 'PNWYR'), (83935, 'YIHYF'), (78647, 'RTGJD'), (99584, 'RNYOJ'), (38350, 'NSGHE'), (30143, 'XBSBF'), (68611, 'NVSNP'), (75791, 'VXGCE'), (67512, 'QXPAU'), (34638, 'WJGWN'), (45458, 'RTNHY'), (92368, 'WKAUC'), (12161, 'HXOAL'), (46773, 'BTDMZ'), (78296, 'ISKEI'), (48539, 'VJVCL'), (35251, 'TSHAG'), (46458, 'LLJYG'), (86899, 'LFAKP'), (65557, 'ANRQQ'), (86305, 'MTYYC'), (68539, 'QDPKN'), (91278, 'BTRVD'), (62629, 'GZQBG'), (62125, 'RUGSZ'), (25530, 'HUZAR'), (61827, 'HQHLY'), (73314, 'LGSFU'), (23728, 'OJCQA'), (23485, 'CFWPW'), (92467, 'QZLOR'), (23503, 'IHDBU'), (45305, 'ZRKGJ'), (98773, 'TRRSC'), (27197, 'EYZOC'), (66701, 'IKQNI'), (99737, 'KXLMX'), (33512, 'UKTYR'), (91260, 'OWJOL')]</t>
+          <t>[(93944, 'RRDYY'), (84989, 'XTXQO'), (17719, 'WOPPH'), (16116, 'TCISZ'), (48845, 'WTBEG'), (54449, 'FPAJY'), (58971, 'GNJEA'), (56683, 'FUYCL'), (77125, 'DBGHA'), (12782, 'LAYHS'), (95089, 'CETJE'), (71458, 'TDJEW'), (66755, 'JJVNP'), (99197, 'MLRNR'), (41737, 'LDLEF'), (91179, 'JOUGS'), (29458, 'WXWDN'), (20863, 'MUJAW'), (81008, 'NCZMW'), (76845, 'OTERZ'), (44053, 'QPNGO'), (95611, 'CAQDD'), (92530, 'XGNKZ'), (60899, 'EYRDG'), (28242, 'GLYVT'), (49152, 'TFJAP'), (60890, 'PNVPA'), (82872, 'HICGD'), (43836, 'COIBI'), (20161, 'SQNXP'), (46656, 'VWERZ'), (79161, 'NATTP'), (73989, 'KDFUO'), (71287, 'HOHDC'), (55791, 'RKKOB'), (15755, 'AVMDL'), (50143, 'TUTKW'), (97017, 'HKCQG'), (88395, 'BPRUL'), (38674, 'RXJJY'), (66350, 'WZRZX'), (21557, 'HKBMW'), (84287, 'XCXZQ'), (74287, 'DBGLX'), (41431, 'ADMQJ'), (38863, 'GNDNS'), (58260, 'PAILJ'), (62305, 'FCZFG'), (59197, 'GKPYS'), (58908, 'OYMXV'), (21044, 'HNMEB'), (66458, 'EXQRZ'), (16935, 'HEXHG'), (60854, 'XVUDL'), (70062, 'AAFUP'), (17881, 'RIBNX'), (17278, 'HKPYJ'), (20728, 'VVIUD'), (46431, 'ZDHZJ'), (21773, 'CWRKJ'), (19359, 'PGGCX'), (41773, 'PNNKC'), (88287, 'MLPHJ'), (92908, 'LBKTY'), (23431, 'PWFIA'), (30143, 'VRKTL'), (98251, 'DFVXF'), (59557, 'RFOYI'), (35485, 'FICKV'), (35611, 'IDJDR'), (83566, 'VOFGM'), (50080, 'ARXMC'), (78926, 'MDQUZ'), (52305, 'BVYQZ'), (84152, 'AMLZP'), (31494, 'ZKGBW'), (39512, 'XRQFG'), (53584, 'THMIQ'), (70215, 'XJUUN'), (34044, 'IEIDE'), (56278, 'HHALE'), (63602, 'TYWDM'), (96827, 'FOOFI'), (18017, 'CWISY'), (83341, 'JWSVQ'), (25350, 'NOHGT'), (46620, 'TQMJV'), (82224, 'CJTZR'), (91845, 'TIJMV'), (89827, 'EHWQE'), (18260, 'VOKHQ'), (44215, 'GOVPO'), (30467, 'HWQAY'), (26314, 'ZPRKK'), (72359, 'QKRVT'), (27854, 'PWYMU'), (16647, 'JWTHZ'), (92692, 'KBDVI'), (63818, 'EWBPO'), (26863, 'DCDPV')]</t>
         </is>
       </c>
     </row>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(32054, 'PKKWF')</t>
+          <t>(50054, 'UGPWH')</t>
         </is>
       </c>
     </row>
@@ -20590,7 +20590,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(13613, 'ZQNCQ')</t>
+          <t>(61855, 'LOPJD')</t>
         </is>
       </c>
     </row>
@@ -20600,7 +20600,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(50965, 'AVDPW')</t>
+          <t>(40333, 'POGOI')</t>
         </is>
       </c>
     </row>
@@ -20610,7 +20610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(66227, 'SVCPZ')</t>
+          <t>(30443, 'UMEAX')</t>
         </is>
       </c>
     </row>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(60749, 'WUTUA')</t>
+          <t>(64191, 'OSLJZ')</t>
         </is>
       </c>
     </row>
@@ -20630,7 +20630,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(30344, 'ZXNYA')</t>
+          <t>(11554, 'DSUFZ')</t>
         </is>
       </c>
     </row>
@@ -20640,7 +20640,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(25096, 'SXFXM')</t>
+          <t>(19870, 'QRFAJ')</t>
         </is>
       </c>
     </row>
@@ -20650,7 +20650,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(20042, 'NESKI')</t>
+          <t>(52241, 'CAHUD')</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(36575, 'FDWRP')</t>
+          <t>(27604, 'TRWDS')</t>
         </is>
       </c>
     </row>
@@ -20670,7 +20670,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(91310, 'TFPHW')</t>
+          <t>(24221, 'EJHNC')</t>
         </is>
       </c>
     </row>
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(25893, 'MELXJ')</t>
+          <t>(47182, 'YDMBQ')</t>
         </is>
       </c>
     </row>
@@ -20690,7 +20690,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(36351, 'VKHYX')</t>
+          <t>(93944, 'RRDYY')</t>
         </is>
       </c>
     </row>
@@ -20700,7 +20700,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(32251, 'INVFA')</t>
+          <t>(40451, 'RJSAH')</t>
         </is>
       </c>
     </row>
@@ -20710,7 +20710,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(58296, 'EGXIQ')</t>
+          <t>(62848, 'XLMZF')</t>
         </is>
       </c>
     </row>
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(89270, 'BPORN')</t>
+          <t>(86897, 'SIFSQ')</t>
         </is>
       </c>
     </row>
@@ -20730,7 +20730,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(40732, 'UBBAP')</t>
+          <t>(42181, 'JZTJH')</t>
         </is>
       </c>
     </row>
@@ -20740,7 +20740,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(53348, 'ESKHH')</t>
+          <t>(85670, 'VPLEU')</t>
         </is>
       </c>
     </row>
@@ -20750,7 +20750,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(61230, 'TRJZE')</t>
+          <t>(63328, 'CYRUL')</t>
         </is>
       </c>
     </row>
@@ -20760,7 +20760,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(99995, 'LVLHK')</t>
+          <t>(77319, 'QKKKT')</t>
         </is>
       </c>
     </row>
@@ -20770,7 +20770,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(27754, 'PLLJF')</t>
+          <t>(24943, 'LHAUA')</t>
         </is>
       </c>
     </row>
@@ -20780,7 +20780,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(90255, 'IKIZQ')</t>
+          <t>(14094, 'LKMCP')</t>
         </is>
       </c>
     </row>
@@ -20790,7 +20790,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(94631, 'UYTYN')</t>
+          <t>(85816, 'HPBFV')</t>
         </is>
       </c>
     </row>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(90747, 'FHSHS')</t>
+          <t>(17454, 'AKVJU')</t>
         </is>
       </c>
     </row>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(99710, 'XCNFH')</t>
+          <t>(67815, 'KATBN')</t>
         </is>
       </c>
     </row>
@@ -20820,7 +20820,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>(79273, 'VRUBO')</t>
+          <t>(62535, 'CFJBL')</t>
         </is>
       </c>
     </row>
@@ -20830,7 +20830,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(96213, 'SBBUB')</t>
+          <t>(25316, 'QUXUE')</t>
         </is>
       </c>
     </row>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(30735, 'NEYTJ')</t>
+          <t>(44760, 'OWAFR')</t>
         </is>
       </c>
     </row>
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(26715, 'AQGJC')</t>
+          <t>(64366, 'RAKTN')</t>
         </is>
       </c>
     </row>
@@ -20860,7 +20860,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(64836, 'OVKCG')</t>
+          <t>(10763, 'QTRME')</t>
         </is>
       </c>
     </row>
@@ -20870,7 +20870,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(69685, 'DCIYB')</t>
+          <t>(73640, 'SWHQV')</t>
         </is>
       </c>
     </row>
@@ -20880,7 +20880,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>(25147, 'NVJGV')</t>
+          <t>(43261, 'AJZNU')</t>
         </is>
       </c>
     </row>
@@ -20890,7 +20890,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(67634, 'JVXMN')</t>
+          <t>(44615, 'DTMMF')</t>
         </is>
       </c>
     </row>
@@ -20900,7 +20900,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(60776, 'TBYZP')</t>
+          <t>(22987, 'PFWNO')</t>
         </is>
       </c>
     </row>
@@ -20910,7 +20910,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(75641, 'XENLU')</t>
+          <t>(31036, 'VBMVV')</t>
         </is>
       </c>
     </row>
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>(48161, 'DORUT')</t>
+          <t>(83002, 'LDLEO')</t>
         </is>
       </c>
     </row>
@@ -20930,7 +20930,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(47713, 'DFESG')</t>
+          <t>(68693, 'EMTDK')</t>
         </is>
       </c>
     </row>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(34057, 'YOWFK')</t>
+          <t>(84989, 'XTXQO')</t>
         </is>
       </c>
     </row>
@@ -20950,7 +20950,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>(25964, 'JIXLE')</t>
+          <t>(17719, 'WOPPH')</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(55638, 'VLCVP')</t>
+          <t>(71238, 'PUGDG')</t>
         </is>
       </c>
     </row>
@@ -20970,7 +20970,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(55668, 'NUIFE')</t>
+          <t>(17363, 'IVDTK')</t>
         </is>
       </c>
     </row>
@@ -20980,7 +20980,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(41247, 'HAHDQ')</t>
+          <t>(38648, 'DGNLX')</t>
         </is>
       </c>
     </row>
@@ -20990,7 +20990,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>(38361, 'XYXYI')</t>
+          <t>(86162, 'XTTJV')</t>
         </is>
       </c>
     </row>
@@ -21000,7 +21000,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>(10195, 'COMPE')</t>
+          <t>(89037, 'XMXMK')</t>
         </is>
       </c>
     </row>
@@ -21010,7 +21010,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>(12308, 'NVNSX')</t>
+          <t>(69961, 'ICNBW')</t>
         </is>
       </c>
     </row>
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(20811, 'VYUFP')</t>
+          <t>(52614, 'NABAZ')</t>
         </is>
       </c>
     </row>
@@ -21030,7 +21030,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(79836, 'PMTBE')</t>
+          <t>(53820, 'QMHTJ')</t>
         </is>
       </c>
     </row>
@@ -21040,7 +21040,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(24296, 'HFMBG')</t>
+          <t>(16116, 'TCISZ')</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>(49714, 'RPFIA')</t>
+          <t>(52324, 'KBFPN')</t>
         </is>
       </c>
     </row>
@@ -21060,7 +21060,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>(97460, 'YGBQZ')</t>
+          <t>(30387, 'KGDQK')</t>
         </is>
       </c>
     </row>
@@ -21070,7 +21070,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>(63112, 'KXGNA')</t>
+          <t>(29198, 'CCDCH')</t>
         </is>
       </c>
     </row>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>(62180, 'JJNIH')</t>
+          <t>(38139, 'XGLKK')</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>(55614, 'MWOEK')</t>
+          <t>(33974, 'AKLDF')</t>
         </is>
       </c>
     </row>
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>(14219, 'YZIMX')</t>
+          <t>(68703, 'OTZMI')</t>
         </is>
       </c>
     </row>
@@ -21110,7 +21110,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(62977, 'YAFOM')</t>
+          <t>(79680, 'CBFCB')</t>
         </is>
       </c>
     </row>
@@ -21120,7 +21120,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(73485, 'NACOX')</t>
+          <t>(19192, 'CLXCQ')</t>
         </is>
       </c>
     </row>
@@ -21130,7 +21130,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>(79268, 'LVYEZ')</t>
+          <t>(48845, 'WTBEG')</t>
         </is>
       </c>
     </row>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(64671, 'KDSXU')</t>
+          <t>(54449, 'FPAJY')</t>
         </is>
       </c>
     </row>
@@ -21150,7 +21150,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>(62465, 'UPEOM')</t>
+          <t>(83936, 'LYFTZ')</t>
         </is>
       </c>
     </row>
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(77350, 'QPWWD')</t>
+          <t>(74778, 'CAOEL')</t>
         </is>
       </c>
     </row>
@@ -21170,7 +21170,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(52660, 'KHMNY')</t>
+          <t>(36698, 'EMIXM')</t>
         </is>
       </c>
     </row>
@@ -21180,7 +21180,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>(14031, 'QIGST')</t>
+          <t>(23243, 'TAXLP')</t>
         </is>
       </c>
     </row>
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(73505, 'JZAGI')</t>
+          <t>(99645, 'XUFIO')</t>
         </is>
       </c>
     </row>
@@ -21200,7 +21200,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>(67756, 'ADKQM')</t>
+          <t>(58786, 'XIYHR')</t>
         </is>
       </c>
     </row>
@@ -21210,7 +21210,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(19600, 'OESHQ')</t>
+          <t>(24121, 'TVSGE')</t>
         </is>
       </c>
     </row>
@@ -21220,7 +21220,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>(42185, 'QZHAQ')</t>
+          <t>(22100, 'YVTGH')</t>
         </is>
       </c>
     </row>
@@ -21230,7 +21230,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>(39506, 'CHREB')</t>
+          <t>(56534, 'CWJKJ')</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(39213, 'QOSRV')</t>
+          <t>(32096, 'SWITN')</t>
         </is>
       </c>
     </row>
@@ -21250,7 +21250,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>(97596, 'MUOYJ')</t>
+          <t>(49072, 'ZTEUV')</t>
         </is>
       </c>
     </row>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>(12832, 'GZOQF')</t>
+          <t>(54240, 'KRIIH')</t>
         </is>
       </c>
     </row>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>(74010, 'RWLIB')</t>
+          <t>(58971, 'GNJEA')</t>
         </is>
       </c>
     </row>
@@ -21280,7 +21280,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>(53501, 'XPEAN')</t>
+          <t>(69156, 'AWIXL')</t>
         </is>
       </c>
     </row>
@@ -21290,7 +21290,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>(36699, 'QDVOG')</t>
+          <t>(94390, 'QOEDZ')</t>
         </is>
       </c>
     </row>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(56624, 'LEOXJ')</t>
+          <t>(31822, 'YYRYL')</t>
         </is>
       </c>
     </row>
@@ -21310,7 +21310,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>(30867, 'UTGZF')</t>
+          <t>(66914, 'HWABD')</t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>(64205, 'XGZCF')</t>
+          <t>(81696, 'NQVPX')</t>
         </is>
       </c>
     </row>
@@ -21330,7 +21330,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(49435, 'UZKTO')</t>
+          <t>(71651, 'SCFPK')</t>
         </is>
       </c>
     </row>
@@ -21340,7 +21340,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>(51332, 'QTIHK')</t>
+          <t>(46839, 'AJTRX')</t>
         </is>
       </c>
     </row>
@@ -21350,7 +21350,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>(99536, 'DPORF')</t>
+          <t>(60270, 'YGNSK')</t>
         </is>
       </c>
     </row>
@@ -21360,7 +21360,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>(80711, 'KSPTF')</t>
+          <t>(76540, 'HLMUL')</t>
         </is>
       </c>
     </row>
@@ -21370,7 +21370,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>(74917, 'ZCAQE')</t>
+          <t>(24272, 'APPQS')</t>
         </is>
       </c>
     </row>
@@ -21380,7 +21380,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(88893, 'QGQSY')</t>
+          <t>(95760, 'VBQVX')</t>
         </is>
       </c>
     </row>
@@ -21390,7 +21390,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>(62340, 'WDAJB')</t>
+          <t>(84111, 'QKIEH')</t>
         </is>
       </c>
     </row>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>(79309, 'WNOUY')</t>
+          <t>(51592, 'TUUZB')</t>
         </is>
       </c>
     </row>
@@ -21410,7 +21410,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>(33769, 'AJORB')</t>
+          <t>(70109, 'OMHJN')</t>
         </is>
       </c>
     </row>
@@ -21420,7 +21420,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>(98039, 'TOOXC')</t>
+          <t>(22403, 'UYPND')</t>
         </is>
       </c>
     </row>
@@ -21430,7 +21430,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>(23175, 'RQMDY')</t>
+          <t>(61657, 'QWNIN')</t>
         </is>
       </c>
     </row>
@@ -21440,7 +21440,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>(92497, 'VBOQE')</t>
+          <t>(73534, 'JVYPT')</t>
         </is>
       </c>
     </row>
@@ -21450,7 +21450,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>(61460, 'FYGUR')</t>
+          <t>(70186, 'PREKV')</t>
         </is>
       </c>
     </row>
@@ -21460,7 +21460,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>(96296, 'BKPEW')</t>
+          <t>(17822, 'CHZYF')</t>
         </is>
       </c>
     </row>
@@ -21470,7 +21470,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>(18535, 'XMHRP')</t>
+          <t>(58297, 'OFYNY')</t>
         </is>
       </c>
     </row>
@@ -21480,7 +21480,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>(36818, 'ZGOLY')</t>
+          <t>(74696, 'DQAIT')</t>
         </is>
       </c>
     </row>
@@ -21490,7 +21490,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>(49501, 'GWQKN')</t>
+          <t>(52862, 'LRHBL')</t>
         </is>
       </c>
     </row>
@@ -21500,7 +21500,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>(78819, 'KFTIG')</t>
+          <t>(65445, 'PIPTW')</t>
         </is>
       </c>
     </row>
@@ -21510,7 +21510,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>(40660, 'ZHWIL')</t>
+          <t>(56683, 'FUYCL')</t>
         </is>
       </c>
     </row>
@@ -21520,7 +21520,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>(26067, 'IZIDR')</t>
+          <t>(49726, 'VPYDY')</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>(52277, 'YLYFC')</t>
+          <t>(30956, 'KNRKG')</t>
         </is>
       </c>
     </row>
@@ -21540,7 +21540,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>(61269, 'OCGVL')</t>
+          <t>(16873, 'WORTT')</t>
         </is>
       </c>
     </row>
@@ -21550,7 +21550,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>(52975, 'KUVOT')</t>
+          <t>(86202, 'GPLZZ')</t>
         </is>
       </c>
     </row>
@@ -21560,7 +21560,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>(33083, 'CFZKU')</t>
+          <t>(91681, 'WBSAB')</t>
         </is>
       </c>
     </row>
@@ -21570,7 +21570,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>(59903, 'FRJSQ')</t>
+          <t>(77125, 'DBGHA')</t>
         </is>
       </c>
     </row>
@@ -21580,7 +21580,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>(90894, 'RMESR')</t>
+          <t>(43697, 'MQJPO')</t>
         </is>
       </c>
     </row>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>(62629, 'JXTSI')</t>
+          <t>(37210, 'PAVMB')</t>
         </is>
       </c>
     </row>
@@ -21600,7 +21600,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>(43410, 'OSKGX')</t>
+          <t>(48496, 'MIBDX')</t>
         </is>
       </c>
     </row>
@@ -21610,7 +21610,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>(11762, 'UKSQS')</t>
+          <t>(57958, 'ZDBHX')</t>
         </is>
       </c>
     </row>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>(72371, 'ZJBBQ')</t>
+          <t>(59198, 'OYGTL')</t>
         </is>
       </c>
     </row>
@@ -21630,7 +21630,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>(67411, 'LRIIF')</t>
+          <t>(66988, 'OZBTT')</t>
         </is>
       </c>
     </row>
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>(57567, 'YLWID')</t>
+          <t>(73726, 'HGIDQ')</t>
         </is>
       </c>
     </row>
@@ -21650,7 +21650,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>(67511, 'ZDYUX')</t>
+          <t>(34600, 'JSVYE')</t>
         </is>
       </c>
     </row>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>(22785, 'UQSSV')</t>
+          <t>(25958, 'AUWAK')</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>(39812, 'PGUSY')</t>
+          <t>(63502, 'HADTM')</t>
         </is>
       </c>
     </row>
@@ -21680,7 +21680,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>(37751, 'CUTJM')</t>
+          <t>(41181, 'FOMCD')</t>
         </is>
       </c>
     </row>
@@ -21690,7 +21690,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>(27554, 'JHBIR')</t>
+          <t>(64852, 'FOMSI')</t>
         </is>
       </c>
     </row>
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>(82335, 'ZNJTO')</t>
+          <t>(16616, 'TPMRZ')</t>
         </is>
       </c>
     </row>
@@ -21710,7 +21710,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>(64818, 'GDGGK')</t>
+          <t>(22312, 'TOPDT')</t>
         </is>
       </c>
     </row>
@@ -21720,7 +21720,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>(80242, 'FIKOL')</t>
+          <t>(25686, 'ZNANX')</t>
         </is>
       </c>
     </row>
@@ -21730,7 +21730,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>(73149, 'JQVQR')</t>
+          <t>(12782, 'LAYHS')</t>
         </is>
       </c>
     </row>
@@ -21740,7 +21740,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>(94726, 'ENLSX')</t>
+          <t>(91499, 'KRGXI')</t>
         </is>
       </c>
     </row>
@@ -21750,7 +21750,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>(42954, 'YSQKM')</t>
+          <t>(72268, 'OMLNH')</t>
         </is>
       </c>
     </row>
@@ -21760,7 +21760,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>(64613, 'HXHEF')</t>
+          <t>(58312, 'MZANA')</t>
         </is>
       </c>
     </row>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>(55724, 'NRAIM')</t>
+          <t>(73889, 'UYYHQ')</t>
         </is>
       </c>
     </row>
@@ -21780,7 +21780,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>(58738, 'UWFJE')</t>
+          <t>(95089, 'CETJE')</t>
         </is>
       </c>
     </row>
@@ -21790,7 +21790,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>(25037, 'GCCFV')</t>
+          <t>(71458, 'TDJEW')</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>(59218, 'RKQJA')</t>
+          <t>(68059, 'GVOSZ')</t>
         </is>
       </c>
     </row>
@@ -21810,7 +21810,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>(53347, 'TEFLZ')</t>
+          <t>(13054, 'AIHIT')</t>
         </is>
       </c>
     </row>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>(69632, 'JRNGT')</t>
+          <t>(66956, 'VFYBP')</t>
         </is>
       </c>
     </row>
@@ -21830,7 +21830,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>(95741, 'LZNZS')</t>
+          <t>(43004, 'CZDDO')</t>
         </is>
       </c>
     </row>
@@ -21840,7 +21840,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>(28647, 'VUYRH')</t>
+          <t>(27488, 'QVPZT')</t>
         </is>
       </c>
     </row>
@@ -21850,7 +21850,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>(89255, 'YZUZW')</t>
+          <t>(87588, 'FUQPC')</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>(19424, 'OTIKT')</t>
+          <t>(52879, 'LQJKR')</t>
         </is>
       </c>
     </row>
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>(98241, 'MGVNU')</t>
+          <t>(50253, 'GUFLV')</t>
         </is>
       </c>
     </row>
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>(27530, 'NTUZV')</t>
+          <t>(20307, 'MUSMK')</t>
         </is>
       </c>
     </row>
@@ -21890,7 +21890,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>(96558, 'FNGFN')</t>
+          <t>(52472, 'TDMGD')</t>
         </is>
       </c>
     </row>
@@ -21900,7 +21900,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>(99202, 'XAXGV')</t>
+          <t>(66755, 'JJVNP')</t>
         </is>
       </c>
     </row>
@@ -21910,7 +21910,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>(64987, 'RZVUH')</t>
+          <t>(62011, 'MRQAS')</t>
         </is>
       </c>
     </row>
@@ -21920,7 +21920,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>(41948, 'AGGTG')</t>
+          <t>(48173, 'XWTGK')</t>
         </is>
       </c>
     </row>
@@ -21930,7 +21930,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>(61122, 'SUFMR')</t>
+          <t>(32707, 'QPXWH')</t>
         </is>
       </c>
     </row>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>(40789, 'WOGBZ')</t>
+          <t>(50217, 'HWXGR')</t>
         </is>
       </c>
     </row>
@@ -21950,7 +21950,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>(40722, 'XRRKH')</t>
+          <t>(32133, 'YIWVA')</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>(40352, 'FDEQO')</t>
+          <t>(17673, 'ODHVW')</t>
         </is>
       </c>
     </row>
@@ -21970,7 +21970,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>(28001, 'RFENS')</t>
+          <t>(52428, 'GYUFB')</t>
         </is>
       </c>
     </row>
@@ -21980,7 +21980,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>(35632, 'PXEMS')</t>
+          <t>(59902, 'QNCVJ')</t>
         </is>
       </c>
     </row>
@@ -21990,7 +21990,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>(81014, 'UDRCJ')</t>
+          <t>(54763, 'XNLAZ')</t>
         </is>
       </c>
     </row>
@@ -22000,7 +22000,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>(67133, 'KYQYB')</t>
+          <t>(10922, 'LXYMG')</t>
         </is>
       </c>
     </row>
@@ -22010,7 +22010,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>(43566, 'IXHOA')</t>
+          <t>(33757, 'ZTZIU')</t>
         </is>
       </c>
     </row>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>(71148, 'XSVYR')</t>
+          <t>(46052, 'HLZIT')</t>
         </is>
       </c>
     </row>
@@ -22030,7 +22030,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>(44948, 'UGZZM')</t>
+          <t>(50952, 'TWXWN')</t>
         </is>
       </c>
     </row>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>(82804, 'WUYAI')</t>
+          <t>(28815, 'AIRJZ')</t>
         </is>
       </c>
     </row>
@@ -22050,7 +22050,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>(25124, 'CYBFN')</t>
+          <t>(77432, 'GAEXZ')</t>
         </is>
       </c>
     </row>
@@ -22060,7 +22060,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>(71495, 'OBQUS')</t>
+          <t>(73594, 'DIGHX')</t>
         </is>
       </c>
     </row>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>(38828, 'NMTSU')</t>
+          <t>(99197, 'MLRNR')</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>(93839, 'BWIRS')</t>
+          <t>(47759, 'SUFWJ')</t>
         </is>
       </c>
     </row>
@@ -22090,7 +22090,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>(95151, 'XMUIM')</t>
+          <t>(84436, 'LITKM')</t>
         </is>
       </c>
     </row>
@@ -22100,7 +22100,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>(71354, 'RCLEX')</t>
+          <t>(78763, 'JBUYT')</t>
         </is>
       </c>
     </row>
@@ -22110,7 +22110,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>(15124, 'YNTBD')</t>
+          <t>(56381, 'BSVWL')</t>
         </is>
       </c>
     </row>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>(18362, 'JRUMK')</t>
+          <t>(79695, 'CYWCB')</t>
         </is>
       </c>
     </row>
@@ -22130,7 +22130,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>(72804, 'LAINI')</t>
+          <t>(10241, 'VWHRE')</t>
         </is>
       </c>
     </row>
@@ -22140,7 +22140,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>(27935, 'KHYFP')</t>
+          <t>(21849, 'FPUIY')</t>
         </is>
       </c>
     </row>
@@ -22150,7 +22150,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>(62001, 'JCGSI')</t>
+          <t>(76306, 'BIOAS')</t>
         </is>
       </c>
     </row>
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>(92791, 'BKABM')</t>
+          <t>(83203, 'ZFIQH')</t>
         </is>
       </c>
     </row>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>(33414, 'BGTBU')</t>
+          <t>(58886, 'ERCAU')</t>
         </is>
       </c>
     </row>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>(59719, 'PKVSP')</t>
+          <t>(73117, 'JONPI')</t>
         </is>
       </c>
     </row>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>(65145, 'KHFIY')</t>
+          <t>(80105, 'OXCIF')</t>
         </is>
       </c>
     </row>
@@ -22200,7 +22200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>(28274, 'FHLBF')</t>
+          <t>(60051, 'CDRWX')</t>
         </is>
       </c>
     </row>
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>(17665, 'KVFVE')</t>
+          <t>(45246, 'AXAYJ')</t>
         </is>
       </c>
     </row>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>(27831, 'LEONO')</t>
+          <t>(47424, 'KLOML')</t>
         </is>
       </c>
     </row>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>(15966, 'LGCRM')</t>
+          <t>(72808, 'BFRBM')</t>
         </is>
       </c>
     </row>
@@ -22240,7 +22240,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>(49962, 'EXPTF')</t>
+          <t>(55238, 'FNTRB')</t>
         </is>
       </c>
     </row>
@@ -22250,7 +22250,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>(17477, 'AJHKA')</t>
+          <t>(31723, 'TDKGD')</t>
         </is>
       </c>
     </row>
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>(72118, 'WFNXM')</t>
+          <t>(45257, 'BIGTD')</t>
         </is>
       </c>
     </row>
@@ -22270,7 +22270,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>(27947, 'IIMCK')</t>
+          <t>(89578, 'WUXML')</t>
         </is>
       </c>
     </row>
@@ -22280,7 +22280,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>(45961, 'BWFYU')</t>
+          <t>(19122, 'NYBFC')</t>
         </is>
       </c>
     </row>
@@ -22290,7 +22290,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>(31785, 'AKHRF')</t>
+          <t>(33623, 'RMUZA')</t>
         </is>
       </c>
     </row>
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>(21118, 'XNYTB')</t>
+          <t>(91930, 'EWSFP')</t>
         </is>
       </c>
     </row>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>(88910, 'FDCAX')</t>
+          <t>(78430, 'PGQZN')</t>
         </is>
       </c>
     </row>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>(88263, 'VFFKZ')</t>
+          <t>(19337, 'MOFND')</t>
         </is>
       </c>
     </row>
@@ -22330,7 +22330,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>(14453, 'FLTZA')</t>
+          <t>(91576, 'NSKAR')</t>
         </is>
       </c>
     </row>
@@ -22340,7 +22340,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>(45383, 'AXDOX')</t>
+          <t>(68142, 'ZLRHW')</t>
         </is>
       </c>
     </row>
@@ -22350,7 +22350,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>(71954, 'TXBDA')</t>
+          <t>(41737, 'LDLEF')</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>(40604, 'VKZAH')</t>
+          <t>(37639, 'FJHTK')</t>
         </is>
       </c>
     </row>
@@ -22370,7 +22370,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>(57917, 'DSDAU')</t>
+          <t>(91691, 'WXSHU')</t>
         </is>
       </c>
     </row>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>(99153, 'UYUKQ')</t>
+          <t>(62895, 'KNYLE')</t>
         </is>
       </c>
     </row>
@@ -22390,7 +22390,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>(88013, 'UMOKT')</t>
+          <t>(91179, 'JOUGS')</t>
         </is>
       </c>
     </row>
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>(37144, 'ODZQB')</t>
+          <t>(16792, 'MCHAU')</t>
         </is>
       </c>
     </row>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>(99273, 'IMVLT')</t>
+          <t>(44360, 'QXKXL')</t>
         </is>
       </c>
     </row>
@@ -22420,7 +22420,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>(97148, 'REJXE')</t>
+          <t>(85703, 'SPUVD')</t>
         </is>
       </c>
     </row>
@@ -22430,7 +22430,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>(34131, 'HQYAC')</t>
+          <t>(31075, 'VTMRX')</t>
         </is>
       </c>
     </row>
@@ -22440,7 +22440,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>(84288, 'YKHEZ')</t>
+          <t>(13336, 'FKIKD')</t>
         </is>
       </c>
     </row>
@@ -22450,7 +22450,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>(21855, 'DLDWB')</t>
+          <t>(84441, 'PZPZW')</t>
         </is>
       </c>
     </row>
@@ -22460,7 +22460,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>(33131, 'NWCAG')</t>
+          <t>(30479, 'ITZSS')</t>
         </is>
       </c>
     </row>
@@ -22470,7 +22470,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>(13533, 'ADTUR')</t>
+          <t>(92014, 'KKGFR')</t>
         </is>
       </c>
     </row>
@@ -22480,7 +22480,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>(68358, 'ZGGQZ')</t>
+          <t>(39141, 'ZTWSF')</t>
         </is>
       </c>
     </row>
@@ -22490,7 +22490,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>(37277, 'KWUNS')</t>
+          <t>(12329, 'DPMMK')</t>
         </is>
       </c>
     </row>
@@ -22500,7 +22500,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>(99907, 'GYGDR')</t>
+          <t>(93222, 'CRYBH')</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>(70492, 'QRHWP')</t>
+          <t>(61824, 'LLIJW')</t>
         </is>
       </c>
     </row>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>(85679, 'DXXKF')</t>
+          <t>(54972, 'AMMLF')</t>
         </is>
       </c>
     </row>
@@ -22530,7 +22530,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>(42777, 'MHBCL')</t>
+          <t>(93283, 'QVEHQ')</t>
         </is>
       </c>
     </row>
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>(45856, 'JITLJ')</t>
+          <t>(21220, 'GSLBJ')</t>
         </is>
       </c>
     </row>
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>(28272, 'LKPPF')</t>
+          <t>(71603, 'PAQIZ')</t>
         </is>
       </c>
     </row>
@@ -22560,7 +22560,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>(68371, 'PHOLQ')</t>
+          <t>(90303, 'FWZHU')</t>
         </is>
       </c>
     </row>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>(11370, 'SCOOY')</t>
+          <t>(80423, 'VZCKC')</t>
         </is>
       </c>
     </row>
@@ -22580,7 +22580,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>(12853, 'AMZDZ')</t>
+          <t>(28311, 'MFZHI')</t>
         </is>
       </c>
     </row>
@@ -22590,7 +22590,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>(30891, 'GKTRJ')</t>
+          <t>(25257, 'HDWTJ')</t>
         </is>
       </c>
     </row>
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>(49183, 'ZHUCU')</t>
+          <t>(20732, 'OWYZL')</t>
         </is>
       </c>
     </row>
@@ -22610,7 +22610,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>(41936, 'PDZGN')</t>
+          <t>(18856, 'NRKWH')</t>
         </is>
       </c>
     </row>
@@ -22620,7 +22620,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>(37713, 'CIWQN')</t>
+          <t>(54730, 'NJOUA')</t>
         </is>
       </c>
     </row>
@@ -22630,7 +22630,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>(31563, 'XIKMN')</t>
+          <t>(62790, 'RIIHV')</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>(59615, 'NDHHX')</t>
+          <t>(63207, 'KOMIG')</t>
         </is>
       </c>
     </row>
@@ -22650,7 +22650,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>(61289, 'PDMBA')</t>
+          <t>(29458, 'WXWDN')</t>
         </is>
       </c>
     </row>
@@ -22660,7 +22660,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>(45206, 'IXKKZ')</t>
+          <t>(20863, 'MUJAW')</t>
         </is>
       </c>
     </row>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>(15417, 'YHZYL')</t>
+          <t>(90630, 'CHCVH')</t>
         </is>
       </c>
     </row>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>(91809, 'KUKXI')</t>
+          <t>(39298, 'AQPVQ')</t>
         </is>
       </c>
     </row>
@@ -22690,7 +22690,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>(34502, 'STKPH')</t>
+          <t>(31288, 'ZVEKK')</t>
         </is>
       </c>
     </row>
@@ -22700,7 +22700,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>(54125, 'YTUPL')</t>
+          <t>(13856, 'UFNDO')</t>
         </is>
       </c>
     </row>
@@ -22710,7 +22710,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>(38554, 'DMVVT')</t>
+          <t>(22381, 'ANOSB')</t>
         </is>
       </c>
     </row>
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>(70243, 'USZAH')</t>
+          <t>(71956, 'ZQNSY')</t>
         </is>
       </c>
     </row>
@@ -22730,7 +22730,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>(95043, 'KUYPC')</t>
+          <t>(19736, 'JNBKG')</t>
         </is>
       </c>
     </row>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>(31637, 'EQEHG')</t>
+          <t>(81008, 'NCZMW')</t>
         </is>
       </c>
     </row>
@@ -22750,7 +22750,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>(44892, 'WXCEF')</t>
+          <t>(11893, 'KIJZM')</t>
         </is>
       </c>
     </row>
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>(89017, 'CJZEU')</t>
+          <t>(63956, 'GSOQH')</t>
         </is>
       </c>
     </row>
@@ -22770,7 +22770,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>(22430, 'KBIPK')</t>
+          <t>(76845, 'OTERZ')</t>
         </is>
       </c>
     </row>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>(44966, 'GFFCQ')</t>
+          <t>(64051, 'RDUFQ')</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>(76731, 'NNCRR')</t>
+          <t>(22617, 'BRRPU')</t>
         </is>
       </c>
     </row>
@@ -22800,7 +22800,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>(24572, 'KHHRY')</t>
+          <t>(99204, 'CZWGR')</t>
         </is>
       </c>
     </row>
@@ -22810,7 +22810,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>(29678, 'PHQZO')</t>
+          <t>(97472, 'LJCDO')</t>
         </is>
       </c>
     </row>
@@ -22820,7 +22820,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>(84300, 'DTEUS')</t>
+          <t>(98423, 'FHKFL')</t>
         </is>
       </c>
     </row>
@@ -22830,7 +22830,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>(21456, 'GJUSM')</t>
+          <t>(45855, 'FBXUN')</t>
         </is>
       </c>
     </row>
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>(75036, 'TMRZC')</t>
+          <t>(10418, 'WDJEE')</t>
         </is>
       </c>
     </row>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>(87969, 'FBYTJ')</t>
+          <t>(34153, 'CGDEM')</t>
         </is>
       </c>
     </row>
@@ -22860,7 +22860,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>(77896, 'YBQXD')</t>
+          <t>(72984, 'KNEID')</t>
         </is>
       </c>
     </row>
@@ -22870,7 +22870,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>(18376, 'XPCWC')</t>
+          <t>(38599, 'BBAPM')</t>
         </is>
       </c>
     </row>
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>(64087, 'ABYBI')</t>
+          <t>(52847, 'ZPPFD')</t>
         </is>
       </c>
     </row>
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>(85549, 'KSUGL')</t>
+          <t>(50696, 'PADBK')</t>
         </is>
       </c>
     </row>
@@ -22900,7 +22900,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>(89447, 'BUMSQ')</t>
+          <t>(30191, 'EMRFR')</t>
         </is>
       </c>
     </row>
@@ -22910,7 +22910,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>(56859, 'RKWDX')</t>
+          <t>(99943, 'PSLXA')</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>(75028, 'JTDGF')</t>
+          <t>(21232, 'MTDZU')</t>
         </is>
       </c>
     </row>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>(16155, 'FZGJF')</t>
+          <t>(11230, 'XHBWB')</t>
         </is>
       </c>
     </row>
@@ -22940,7 +22940,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>(70761, 'XXJVJ')</t>
+          <t>(73529, 'OTDQP')</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22950,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>(13175, 'AUWVE')</t>
+          <t>(74993, 'BZIPX')</t>
         </is>
       </c>
     </row>
@@ -22960,7 +22960,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>(22668, 'KBURJ')</t>
+          <t>(44053, 'QPNGO')</t>
         </is>
       </c>
     </row>
@@ -22970,7 +22970,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>(91102, 'ATHAN')</t>
+          <t>(17217, 'ESFYI')</t>
         </is>
       </c>
     </row>
@@ -22980,7 +22980,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>(91502, 'OPBMX')</t>
+          <t>(35150, 'ULTWD')</t>
         </is>
       </c>
     </row>
@@ -22990,7 +22990,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>(66060, 'PUJGP')</t>
+          <t>(93662, 'LMXBY')</t>
         </is>
       </c>
     </row>
@@ -23000,7 +23000,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>(69916, 'DGILE')</t>
+          <t>(30148, 'HNLMQ')</t>
         </is>
       </c>
     </row>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>(72726, 'JSFTQ')</t>
+          <t>(55450, 'NXSVK')</t>
         </is>
       </c>
     </row>
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>(78462, 'XRXHP')</t>
+          <t>(63954, 'GNONF')</t>
         </is>
       </c>
     </row>
@@ -23030,7 +23030,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>(75088, 'XPDSG')</t>
+          <t>(95611, 'CAQDD')</t>
         </is>
       </c>
     </row>
@@ -23040,7 +23040,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>(48597, 'FMUAM')</t>
+          <t>(70087, 'JBIDB')</t>
         </is>
       </c>
     </row>
@@ -23050,7 +23050,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>(43770, 'ZOEJU')</t>
+          <t>(77996, 'TTTBY')</t>
         </is>
       </c>
     </row>
@@ -23060,7 +23060,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>(53339, 'OXHBH')</t>
+          <t>(37104, 'FFDFM')</t>
         </is>
       </c>
     </row>
@@ -23070,7 +23070,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>(54233, 'QEMJD')</t>
+          <t>(92530, 'XGNKZ')</t>
         </is>
       </c>
     </row>
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>(25845, 'GURGI')</t>
+          <t>(78988, 'TCTHE')</t>
         </is>
       </c>
     </row>
@@ -23090,7 +23090,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>(50579, 'RJWXW')</t>
+          <t>(13501, 'DPGKP')</t>
         </is>
       </c>
     </row>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>(58981, 'OVNCS')</t>
+          <t>(97814, 'WLIMA')</t>
         </is>
       </c>
     </row>
@@ -23110,7 +23110,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>(54166, 'ERZMW')</t>
+          <t>(65358, 'PAEIA')</t>
         </is>
       </c>
     </row>
@@ -23120,7 +23120,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>(66624, 'AGKIA')</t>
+          <t>(93886, 'HTOZZ')</t>
         </is>
       </c>
     </row>
@@ -23130,7 +23130,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>(37092, 'YIZPE')</t>
+          <t>(36996, 'CGXQV')</t>
         </is>
       </c>
     </row>
@@ -23140,7 +23140,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>(52956, 'JFZRU')</t>
+          <t>(64270, 'TCCDQ')</t>
         </is>
       </c>
     </row>
@@ -23150,7 +23150,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>(53196, 'XDZHF')</t>
+          <t>(60899, 'EYRDG')</t>
         </is>
       </c>
     </row>
@@ -23160,7 +23160,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>(83327, 'RBVWS')</t>
+          <t>(87384, 'TGMVH')</t>
         </is>
       </c>
     </row>
@@ -23170,7 +23170,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>(19871, 'YDTAH')</t>
+          <t>(16095, 'UNIZQ')</t>
         </is>
       </c>
     </row>
@@ -23180,7 +23180,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>(28397, 'IPRLX')</t>
+          <t>(28242, 'GLYVT')</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>(64256, 'XGFIZ')</t>
+          <t>(35723, 'XWMBK')</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>(78962, 'JUHUB')</t>
+          <t>(42576, 'ZSCEF')</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>(77866, 'YEJSM')</t>
+          <t>(55504, 'NIAVT')</t>
         </is>
       </c>
     </row>
@@ -23220,7 +23220,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>(54833, 'QKPLR')</t>
+          <t>(29536, 'HQHGR')</t>
         </is>
       </c>
     </row>
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>(32879, 'UJNOW')</t>
+          <t>(77387, 'ZDTJM')</t>
         </is>
       </c>
     </row>
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>(71055, 'EZCFC')</t>
+          <t>(89159, 'TBNTM')</t>
         </is>
       </c>
     </row>
@@ -23250,7 +23250,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>(22209, 'VPMRX')</t>
+          <t>(63752, 'AJGWE')</t>
         </is>
       </c>
     </row>
@@ -23260,7 +23260,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>(90586, 'VSMVY')</t>
+          <t>(49152, 'TFJAP')</t>
         </is>
       </c>
     </row>
@@ -23270,7 +23270,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>(25703, 'YBWYH')</t>
+          <t>(94398, 'HFOSJ')</t>
         </is>
       </c>
     </row>
@@ -23280,7 +23280,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>(69852, 'CAVMH')</t>
+          <t>(41796, 'HMGII')</t>
         </is>
       </c>
     </row>
@@ -23290,7 +23290,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>(75549, 'FPVFE')</t>
+          <t>(60890, 'PNVPA')</t>
         </is>
       </c>
     </row>
@@ -23300,7 +23300,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>(62060, 'URYKH')</t>
+          <t>(61084, 'FXXLH')</t>
         </is>
       </c>
     </row>
@@ -23310,7 +23310,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>(78061, 'BPJJA')</t>
+          <t>(82872, 'HICGD')</t>
         </is>
       </c>
     </row>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>(31082, 'AOKYZ')</t>
+          <t>(38680, 'IKRFY')</t>
         </is>
       </c>
     </row>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>(83864, 'OGCQK')</t>
+          <t>(58613, 'MHWVW')</t>
         </is>
       </c>
     </row>
@@ -23340,7 +23340,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>(15658, 'UBIJE')</t>
+          <t>(26441, 'APQVC')</t>
         </is>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>(80358, 'KQRUJ')</t>
+          <t>(47564, 'DHUDC')</t>
         </is>
       </c>
     </row>
@@ -23360,7 +23360,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>(85415, 'GMCFC')</t>
+          <t>(65707, 'EGGPA')</t>
         </is>
       </c>
     </row>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>(31506, 'UUBTC')</t>
+          <t>(87101, 'UVOJK')</t>
         </is>
       </c>
     </row>
@@ -23380,7 +23380,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>(16760, 'CVPLY')</t>
+          <t>(79232, 'ARNOC')</t>
         </is>
       </c>
     </row>
@@ -23390,7 +23390,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>(10006, 'VOBHR')</t>
+          <t>(79182, 'EPTIV')</t>
         </is>
       </c>
     </row>
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>(15011, 'CHHMG')</t>
+          <t>(28429, 'LZCSL')</t>
         </is>
       </c>
     </row>
@@ -23410,7 +23410,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>(97782, 'ZXWYU')</t>
+          <t>(49865, 'KNOFK')</t>
         </is>
       </c>
     </row>
@@ -23420,7 +23420,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>(29907, 'FILLB')</t>
+          <t>(72493, 'TPLQU')</t>
         </is>
       </c>
     </row>
@@ -23430,7 +23430,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>(49646, 'DFBBY')</t>
+          <t>(81903, 'BNCOZ')</t>
         </is>
       </c>
     </row>
@@ -23440,7 +23440,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>(18558, 'UHEOF')</t>
+          <t>(29617, 'DOQZT')</t>
         </is>
       </c>
     </row>
@@ -23450,7 +23450,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>(50842, 'YXJYN')</t>
+          <t>(95034, 'ZHEEW')</t>
         </is>
       </c>
     </row>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>(38267, 'WBYKC')</t>
+          <t>(60677, 'OGGRI')</t>
         </is>
       </c>
     </row>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>(21936, 'JCBZM')</t>
+          <t>(26234, 'WMOUC')</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>(51439, 'OKEOQ')</t>
+          <t>(33232, 'OKJPI')</t>
         </is>
       </c>
     </row>
@@ -23490,7 +23490,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>(40057, 'GEVQI')</t>
+          <t>(38757, 'LGLBD')</t>
         </is>
       </c>
     </row>
@@ -23500,7 +23500,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>(42825, 'HQQTX')</t>
+          <t>(26249, 'GQWZO')</t>
         </is>
       </c>
     </row>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>(73299, 'PERTV')</t>
+          <t>(51603, 'VRJMP')</t>
         </is>
       </c>
     </row>
@@ -23520,7 +23520,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>(40355, 'UNHEG')</t>
+          <t>(39105, 'QNMFE')</t>
         </is>
       </c>
     </row>
@@ -23530,7 +23530,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>(44239, 'VNXIY')</t>
+          <t>(43836, 'COIBI')</t>
         </is>
       </c>
     </row>
@@ -23540,7 +23540,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>(15878, 'FKBBI')</t>
+          <t>(20161, 'SQNXP')</t>
         </is>
       </c>
     </row>
@@ -23550,7 +23550,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>(27315, 'ISZLN')</t>
+          <t>(26959, 'OQMZJ')</t>
         </is>
       </c>
     </row>
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>(71257, 'HSFBT')</t>
+          <t>(72381, 'LFIZG')</t>
         </is>
       </c>
     </row>
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>(24449, 'GKXFL')</t>
+          <t>(44862, 'HSHWY')</t>
         </is>
       </c>
     </row>
@@ -23580,7 +23580,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>(12504, 'KWZDJ')</t>
+          <t>(89939, 'QJDVX')</t>
         </is>
       </c>
     </row>
@@ -23590,7 +23590,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>(48312, 'YDQPX')</t>
+          <t>(91041, 'QLXBH')</t>
         </is>
       </c>
     </row>
@@ -23600,7 +23600,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>(74040, 'IURQU')</t>
+          <t>(24472, 'CCPYZ')</t>
         </is>
       </c>
     </row>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>(80695, 'MAKQK')</t>
+          <t>(27384, 'UVABL')</t>
         </is>
       </c>
     </row>
@@ -23620,7 +23620,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>(27876, 'TMGNS')</t>
+          <t>(64797, 'HPKLI')</t>
         </is>
       </c>
     </row>
@@ -23630,7 +23630,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>(81401, 'CMWZN')</t>
+          <t>(30679, 'BNVQF')</t>
         </is>
       </c>
     </row>
@@ -23640,7 +23640,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>(99919, 'PXYUY')</t>
+          <t>(91820, 'ULMLK')</t>
         </is>
       </c>
     </row>
@@ -23650,7 +23650,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>(48089, 'QMGZI')</t>
+          <t>(99378, 'YIAHC')</t>
         </is>
       </c>
     </row>
@@ -23660,7 +23660,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>(57615, 'GIRHV')</t>
+          <t>(67169, 'PYEAF')</t>
         </is>
       </c>
     </row>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>(51448, 'KGZRW')</t>
+          <t>(51478, 'WFFRC')</t>
         </is>
       </c>
     </row>
@@ -23680,7 +23680,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>(65277, 'LTTRU')</t>
+          <t>(92087, 'JDWHL')</t>
         </is>
       </c>
     </row>
@@ -23690,7 +23690,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>(84214, 'WVHCK')</t>
+          <t>(86510, 'DMOFF')</t>
         </is>
       </c>
     </row>
@@ -23700,7 +23700,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>(35119, 'AFHXF')</t>
+          <t>(70299, 'ASCCF')</t>
         </is>
       </c>
     </row>
@@ -23710,7 +23710,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>(29398, 'SSQRA')</t>
+          <t>(27074, 'ROENC')</t>
         </is>
       </c>
     </row>
@@ -23720,7 +23720,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>(33323, 'YRMSW')</t>
+          <t>(49093, 'DIDOG')</t>
         </is>
       </c>
     </row>
@@ -23730,7 +23730,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>(66840, 'TPRTC')</t>
+          <t>(43932, 'LWIVH')</t>
         </is>
       </c>
     </row>
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>(19492, 'UKUMX')</t>
+          <t>(36344, 'UEGCV')</t>
         </is>
       </c>
     </row>
@@ -23750,7 +23750,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>(39188, 'MYWUE')</t>
+          <t>(40088, 'BWWZP')</t>
         </is>
       </c>
     </row>
@@ -23760,7 +23760,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>(99882, 'UUAMX')</t>
+          <t>(67892, 'OKIXP')</t>
         </is>
       </c>
     </row>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>(98531, 'WIPQI')</t>
+          <t>(59130, 'JMRKQ')</t>
         </is>
       </c>
     </row>
@@ -23780,7 +23780,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>(91422, 'PHSXJ')</t>
+          <t>(33333, 'TDDFD')</t>
         </is>
       </c>
     </row>
@@ -23790,7 +23790,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>(12785, 'SJFYW')</t>
+          <t>(51745, 'SJHVZ')</t>
         </is>
       </c>
     </row>
@@ -23800,7 +23800,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>(82373, 'TIOOB')</t>
+          <t>(21528, 'LZAGD')</t>
         </is>
       </c>
     </row>
@@ -23810,7 +23810,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>(41576, 'NHRCP')</t>
+          <t>(96379, 'WCXUP')</t>
         </is>
       </c>
     </row>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>(14372, 'SVYPI')</t>
+          <t>(46656, 'VWERZ')</t>
         </is>
       </c>
     </row>
@@ -23830,7 +23830,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>(50872, 'LXFYS')</t>
+          <t>(53382, 'TAUNP')</t>
         </is>
       </c>
     </row>
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>(26715, 'DAPAS')</t>
+          <t>(79161, 'NATTP')</t>
         </is>
       </c>
     </row>
@@ -23850,7 +23850,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>(19316, 'WDZZG')</t>
+          <t>(54524, 'IMUEC')</t>
         </is>
       </c>
     </row>
@@ -23860,7 +23860,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>(96390, 'SYQKG')</t>
+          <t>(44655, 'NUXEQ')</t>
         </is>
       </c>
     </row>
@@ -23870,7 +23870,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>(22992, 'MLZDJ')</t>
+          <t>(49119, 'HVQXA')</t>
         </is>
       </c>
     </row>
@@ -23880,7 +23880,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>(39549, 'EHGZF')</t>
+          <t>(60614, 'ILYVO')</t>
         </is>
       </c>
     </row>
@@ -23890,7 +23890,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>(44448, 'AJHWS')</t>
+          <t>(65840, 'AVRWA')</t>
         </is>
       </c>
     </row>
@@ -23900,7 +23900,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>(44963, 'BCQEL')</t>
+          <t>(77238, 'PCDTI')</t>
         </is>
       </c>
     </row>
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>(49430, 'WWESM')</t>
+          <t>(17765, 'OBNCA')</t>
         </is>
       </c>
     </row>
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>(79518, 'EBPCC')</t>
+          <t>(85423, 'KCBRL')</t>
         </is>
       </c>
     </row>
@@ -23930,7 +23930,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>(98515, 'LUPYY')</t>
+          <t>(73048, 'WPUYQ')</t>
         </is>
       </c>
     </row>
@@ -23940,7 +23940,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>(30511, 'TOWDV')</t>
+          <t>(95768, 'WZPAF')</t>
         </is>
       </c>
     </row>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>(91080, 'OZLZR')</t>
+          <t>(77185, 'NPAVG')</t>
         </is>
       </c>
     </row>
@@ -23960,7 +23960,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>(96984, 'ZGJUH')</t>
+          <t>(75483, 'RFYDH')</t>
         </is>
       </c>
     </row>
@@ -23970,7 +23970,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>(26696, 'BSZNK')</t>
+          <t>(61821, 'OWRQS')</t>
         </is>
       </c>
     </row>
@@ -23980,7 +23980,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>(11879, 'RPSVO')</t>
+          <t>(59693, 'UJGID')</t>
         </is>
       </c>
     </row>
@@ -23990,7 +23990,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>(26003, 'BRCOW')</t>
+          <t>(26348, 'UJZEU')</t>
         </is>
       </c>
     </row>
@@ -24000,7 +24000,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>(73574, 'NWTIT')</t>
+          <t>(91796, 'MEFFD')</t>
         </is>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>(12211, 'IJJOJ')</t>
+          <t>(10576, 'UOZRL')</t>
         </is>
       </c>
     </row>
@@ -24020,7 +24020,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>(81122, 'ZYQKV')</t>
+          <t>(68770, 'LUIJZ')</t>
         </is>
       </c>
     </row>
@@ -24030,7 +24030,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>(63102, 'ZLOYD')</t>
+          <t>(75286, 'HWBYB')</t>
         </is>
       </c>
     </row>
@@ -24040,7 +24040,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>(57958, 'QOMUR')</t>
+          <t>(95192, 'HJFGT')</t>
         </is>
       </c>
     </row>
@@ -24050,7 +24050,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>(96691, 'HFZPX')</t>
+          <t>(98707, 'WVYGM')</t>
         </is>
       </c>
     </row>
@@ -24060,7 +24060,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>(56699, 'VHZNB')</t>
+          <t>(11901, 'VORBF')</t>
         </is>
       </c>
     </row>
@@ -24070,7 +24070,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>(68517, 'PABFL')</t>
+          <t>(73989, 'KDFUO')</t>
         </is>
       </c>
     </row>
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>(53406, 'ZKAQV')</t>
+          <t>(71287, 'HOHDC')</t>
         </is>
       </c>
     </row>
@@ -24090,7 +24090,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>(98418, 'CQKWP')</t>
+          <t>(69902, 'PDWRV')</t>
         </is>
       </c>
     </row>
@@ -24100,7 +24100,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>(48653, 'HPZDI')</t>
+          <t>(73941, 'MORBN')</t>
         </is>
       </c>
     </row>
@@ -24110,7 +24110,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>(69576, 'CUBAZ')</t>
+          <t>(93289, 'EPHIA')</t>
         </is>
       </c>
     </row>
@@ -24120,7 +24120,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>(27616, 'FPMYP')</t>
+          <t>(17768, 'CINKW')</t>
         </is>
       </c>
     </row>
@@ -24130,7 +24130,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>(45079, 'EUHFH')</t>
+          <t>(57426, 'WAEZZ')</t>
         </is>
       </c>
     </row>
@@ -24140,7 +24140,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>(27880, 'XVEDA')</t>
+          <t>(75248, 'YGKOB')</t>
         </is>
       </c>
     </row>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>(55835, 'VJEYH')</t>
+          <t>(23556, 'RLKUT')</t>
         </is>
       </c>
     </row>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>(13592, 'IOSGC')</t>
+          <t>(45111, 'JBSTI')</t>
         </is>
       </c>
     </row>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>(24217, 'JWFNN')</t>
+          <t>(16951, 'VUUTB')</t>
         </is>
       </c>
     </row>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>(85248, 'BDOUV')</t>
+          <t>(78928, 'TGTFF')</t>
         </is>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>(79678, 'IVTCY')</t>
+          <t>(49018, 'VXENC')</t>
         </is>
       </c>
     </row>
@@ -24200,7 +24200,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>(22745, 'LFNHI')</t>
+          <t>(89794, 'UTTVH')</t>
         </is>
       </c>
     </row>
@@ -24210,7 +24210,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>(21738, 'MKUBZ')</t>
+          <t>(55791, 'RKKOB')</t>
         </is>
       </c>
     </row>
@@ -24220,7 +24220,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>(71616, 'IDUCP')</t>
+          <t>(12202, 'UZFDC')</t>
         </is>
       </c>
     </row>
@@ -24230,7 +24230,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>(69996, 'EYMLJ')</t>
+          <t>(53141, 'ICDUN')</t>
         </is>
       </c>
     </row>
@@ -24240,7 +24240,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>(39289, 'MBOTW')</t>
+          <t>(69306, 'NGZNV')</t>
         </is>
       </c>
     </row>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>(41747, 'NOLZW')</t>
+          <t>(93690, 'KUDAD')</t>
         </is>
       </c>
     </row>
@@ -24260,7 +24260,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>(98537, 'RSOYI')</t>
+          <t>(15755, 'AVMDL')</t>
         </is>
       </c>
     </row>
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>(69293, 'GOVTO')</t>
+          <t>(10640, 'ZIXKK')</t>
         </is>
       </c>
     </row>
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>(61375, 'HEHOK')</t>
+          <t>(30450, 'ZQRSN')</t>
         </is>
       </c>
     </row>
@@ -24290,7 +24290,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>(96170, 'XCTEH')</t>
+          <t>(87550, 'TOIXC')</t>
         </is>
       </c>
     </row>
@@ -24300,7 +24300,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>(50640, 'YGYSL')</t>
+          <t>(41534, 'CMVFE')</t>
         </is>
       </c>
     </row>
@@ -24310,7 +24310,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>(64836, 'QFHRF')</t>
+          <t>(50143, 'TUTKW')</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>(15545, 'COWSG')</t>
+          <t>(91553, 'QZKXN')</t>
         </is>
       </c>
     </row>
@@ -24330,7 +24330,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>(17978, 'ASBLP')</t>
+          <t>(33016, 'WXLAE')</t>
         </is>
       </c>
     </row>
@@ -24340,7 +24340,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>(52860, 'NBJAX')</t>
+          <t>(52594, 'ECQAR')</t>
         </is>
       </c>
     </row>
@@ -24350,7 +24350,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>(39195, 'JQURM')</t>
+          <t>(66610, 'YRCQT')</t>
         </is>
       </c>
     </row>
@@ -24360,7 +24360,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>(26920, 'GSMAY')</t>
+          <t>(97017, 'HKCQG')</t>
         </is>
       </c>
     </row>
@@ -24370,7 +24370,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>(48691, 'THIQA')</t>
+          <t>(57063, 'NVNKW')</t>
         </is>
       </c>
     </row>
@@ -24380,7 +24380,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>(27867, 'RCYTR')</t>
+          <t>(78569, 'ANYRA')</t>
         </is>
       </c>
     </row>
@@ -24390,7 +24390,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>(32218, 'DIUZR')</t>
+          <t>(62253, 'SKZJD')</t>
         </is>
       </c>
     </row>
@@ -24400,7 +24400,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>(84028, 'MOIYN')</t>
+          <t>(81626, 'XAQYT')</t>
         </is>
       </c>
     </row>
@@ -24410,7 +24410,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>(44578, 'ZLHCN')</t>
+          <t>(55055, 'RNVLE')</t>
         </is>
       </c>
     </row>
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>(72669, 'NRZWV')</t>
+          <t>(79718, 'LJSOU')</t>
         </is>
       </c>
     </row>
@@ -24430,7 +24430,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>(24703, 'FLFVG')</t>
+          <t>(46621, 'ZOXRM')</t>
         </is>
       </c>
     </row>
@@ -24440,7 +24440,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>(95425, 'SCRJU')</t>
+          <t>(90799, 'VAOKZ')</t>
         </is>
       </c>
     </row>
@@ -24450,7 +24450,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>(84081, 'PGJIA')</t>
+          <t>(44248, 'JFUGJ')</t>
         </is>
       </c>
     </row>
@@ -24460,7 +24460,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>(77528, 'BVVJV')</t>
+          <t>(73454, 'YFDHX')</t>
         </is>
       </c>
     </row>
@@ -24470,7 +24470,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>(34684, 'DWCXX')</t>
+          <t>(14632, 'PNAHQ')</t>
         </is>
       </c>
     </row>
@@ -24480,7 +24480,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>(87316, 'ADOVD')</t>
+          <t>(43617, 'VQYIX')</t>
         </is>
       </c>
     </row>
@@ -24490,7 +24490,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>(72635, 'CAFSK')</t>
+          <t>(17550, 'OONGS')</t>
         </is>
       </c>
     </row>
@@ -24500,7 +24500,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>(83551, 'YSNIH')</t>
+          <t>(55217, 'CVBBD')</t>
         </is>
       </c>
     </row>
@@ -24510,7 +24510,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>(62798, 'GHCHQ')</t>
+          <t>(88395, 'BPRUL')</t>
         </is>
       </c>
     </row>
@@ -24520,7 +24520,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>(25726, 'ZZQTF')</t>
+          <t>(85502, 'IVUZS')</t>
         </is>
       </c>
     </row>
@@ -24530,7 +24530,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>(60486, 'OFUKW')</t>
+          <t>(38674, 'RXJJY')</t>
         </is>
       </c>
     </row>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>(49708, 'LENXP')</t>
+          <t>(46499, 'BTSIZ')</t>
         </is>
       </c>
     </row>
@@ -24550,7 +24550,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>(30325, 'TQDVS')</t>
+          <t>(79000, 'QOCXF')</t>
         </is>
       </c>
     </row>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>(75558, 'AUKAQ')</t>
+          <t>(67097, 'XJSKR')</t>
         </is>
       </c>
     </row>
@@ -24570,7 +24570,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>(82083, 'QNPWE')</t>
+          <t>(91229, 'PSUCS')</t>
         </is>
       </c>
     </row>
@@ -24580,7 +24580,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>(54349, 'EWAEX')</t>
+          <t>(33484, 'IPNRC')</t>
         </is>
       </c>
     </row>
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>(20448, 'YZYHI')</t>
+          <t>(31434, 'TPQEY')</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>(19851, 'BIXEZ')</t>
+          <t>(66350, 'WZRZX')</t>
         </is>
       </c>
     </row>
@@ -24610,7 +24610,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>(58443, 'EILIG')</t>
+          <t>(47130, 'XXJYB')</t>
         </is>
       </c>
     </row>
@@ -24620,7 +24620,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>(71774, 'BNJUJ')</t>
+          <t>(24655, 'QKHMS')</t>
         </is>
       </c>
     </row>
@@ -24630,7 +24630,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>(79936, 'ACPLD')</t>
+          <t>(21961, 'QTVBQ')</t>
         </is>
       </c>
     </row>
@@ -24640,7 +24640,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>(43527, 'LJRGH')</t>
+          <t>(96401, 'XJGJG')</t>
         </is>
       </c>
     </row>
@@ -24650,7 +24650,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>(91568, 'RRJAI')</t>
+          <t>(86988, 'KFBOY')</t>
         </is>
       </c>
     </row>
@@ -24660,7 +24660,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>(52788, 'MSVAB')</t>
+          <t>(42420, 'QMBBT')</t>
         </is>
       </c>
     </row>
@@ -24670,7 +24670,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>(59661, 'QWHPP')</t>
+          <t>(82248, 'VZKCS')</t>
         </is>
       </c>
     </row>
@@ -24680,7 +24680,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>(70988, 'YMXMV')</t>
+          <t>(21557, 'HKBMW')</t>
         </is>
       </c>
     </row>
@@ -24690,7 +24690,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>(26543, 'HVAAT')</t>
+          <t>(76483, 'OWCFS')</t>
         </is>
       </c>
     </row>
@@ -24700,7 +24700,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>(17486, 'FOUWE')</t>
+          <t>(61559, 'BDRZM')</t>
         </is>
       </c>
     </row>
@@ -24710,7 +24710,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>(98163, 'YBBRS')</t>
+          <t>(52646, 'SKVHP')</t>
         </is>
       </c>
     </row>
@@ -24720,7 +24720,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>(45657, 'TPQJG')</t>
+          <t>(84287, 'XCXZQ')</t>
         </is>
       </c>
     </row>
@@ -24730,7 +24730,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>(76051, 'OHDKS')</t>
+          <t>(87975, 'BMQWJ')</t>
         </is>
       </c>
     </row>
@@ -24740,7 +24740,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>(31915, 'YBTXI')</t>
+          <t>(74287, 'DBGLX')</t>
         </is>
       </c>
     </row>
@@ -24750,7 +24750,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>(38506, 'GRMUO')</t>
+          <t>(90111, 'POSOA')</t>
         </is>
       </c>
     </row>
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>(71615, 'OIXDG')</t>
+          <t>(22605, 'IVWXW')</t>
         </is>
       </c>
     </row>
@@ -24770,7 +24770,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>(69797, 'QZGCN')</t>
+          <t>(89074, 'PBYIL')</t>
         </is>
       </c>
     </row>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>(86967, 'LDYJN')</t>
+          <t>(66121, 'MFQVF')</t>
         </is>
       </c>
     </row>
@@ -24790,7 +24790,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>(18155, 'MGCQM')</t>
+          <t>(47695, 'PHAPG')</t>
         </is>
       </c>
     </row>
@@ -24800,7 +24800,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>(82256, 'DOZNX')</t>
+          <t>(62262, 'IJSKB')</t>
         </is>
       </c>
     </row>
@@ -24810,7 +24810,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>(31619, 'ZKXLG')</t>
+          <t>(85370, 'YITYO')</t>
         </is>
       </c>
     </row>
@@ -24820,7 +24820,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>(94274, 'BGETK')</t>
+          <t>(62460, 'LGZBE')</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>(58266, 'WKCVZ')</t>
+          <t>(26670, 'EQJZG')</t>
         </is>
       </c>
     </row>
@@ -24840,7 +24840,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>(38754, 'CRMWU')</t>
+          <t>(70688, 'TSTFX')</t>
         </is>
       </c>
     </row>
@@ -24850,7 +24850,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>(49484, 'MOQIF')</t>
+          <t>(70311, 'LUAMT')</t>
         </is>
       </c>
     </row>
@@ -24860,7 +24860,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>(37446, 'XLWDC')</t>
+          <t>(65249, 'ZJNAK')</t>
         </is>
       </c>
     </row>
@@ -24870,7 +24870,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>(26539, 'FTWTA')</t>
+          <t>(82808, 'FNREP')</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>(89720, 'MWFHL')</t>
+          <t>(78616, 'BJXCL')</t>
         </is>
       </c>
     </row>
@@ -24890,7 +24890,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>(82729, 'AHOWM')</t>
+          <t>(58220, 'BEKCU')</t>
         </is>
       </c>
     </row>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>(65938, 'BZIDE')</t>
+          <t>(28438, 'IUFTP')</t>
         </is>
       </c>
     </row>
@@ -24910,7 +24910,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>(29005, 'YVWUU')</t>
+          <t>(83073, 'TPYLC')</t>
         </is>
       </c>
     </row>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>(84849, 'MPSXY')</t>
+          <t>(82569, 'SCKGE')</t>
         </is>
       </c>
     </row>
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>(33398, 'OUTMX')</t>
+          <t>(85445, 'NJLVN')</t>
         </is>
       </c>
     </row>
@@ -24940,7 +24940,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>(16815, 'XBUEJ')</t>
+          <t>(41431, 'ADMQJ')</t>
         </is>
       </c>
     </row>
@@ -24950,7 +24950,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>(59677, 'CZRXC')</t>
+          <t>(36534, 'KLLKP')</t>
         </is>
       </c>
     </row>
@@ -24960,7 +24960,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>(62440, 'RYAXN')</t>
+          <t>(38863, 'GNDNS')</t>
         </is>
       </c>
     </row>
@@ -24970,7 +24970,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>(27464, 'PEVTT')</t>
+          <t>(99209, 'SLBWE')</t>
         </is>
       </c>
     </row>
@@ -24980,7 +24980,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>(33115, 'RMXEC')</t>
+          <t>(58260, 'PAILJ')</t>
         </is>
       </c>
     </row>
@@ -24990,7 +24990,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>(31463, 'CIRZY')</t>
+          <t>(44300, 'SSXDZ')</t>
         </is>
       </c>
     </row>
@@ -25000,7 +25000,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>(63495, 'RFREI')</t>
+          <t>(36793, 'PGCQG')</t>
         </is>
       </c>
     </row>
@@ -25010,7 +25010,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>(57271, 'JGMIB')</t>
+          <t>(91534, 'IURFF')</t>
         </is>
       </c>
     </row>
@@ -25020,7 +25020,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>(18571, 'FMWYR')</t>
+          <t>(19319, 'JXUSQ')</t>
         </is>
       </c>
     </row>
@@ -25030,7 +25030,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>(73856, 'RZTNJ')</t>
+          <t>(18264, 'MPCAJ')</t>
         </is>
       </c>
     </row>
@@ -25040,7 +25040,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>(90928, 'ZFCSW')</t>
+          <t>(72780, 'KWXEY')</t>
         </is>
       </c>
     </row>
@@ -25050,7 +25050,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>(50198, 'XHMYH')</t>
+          <t>(71893, 'FPGFI')</t>
         </is>
       </c>
     </row>
@@ -25060,7 +25060,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>(51784, 'XOODO')</t>
+          <t>(44200, 'COFGZ')</t>
         </is>
       </c>
     </row>
@@ -25070,7 +25070,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>(68305, 'DVJTG')</t>
+          <t>(59631, 'UUVTR')</t>
         </is>
       </c>
     </row>
@@ -25080,7 +25080,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>(94190, 'JLXYH')</t>
+          <t>(92817, 'OWXFD')</t>
         </is>
       </c>
     </row>
@@ -25090,7 +25090,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>(67738, 'LSTFM')</t>
+          <t>(27434, 'TBLUA')</t>
         </is>
       </c>
     </row>
@@ -25100,7 +25100,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>(88954, 'BVCWJ')</t>
+          <t>(84034, 'XKTUD')</t>
         </is>
       </c>
     </row>
@@ -25110,7 +25110,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>(44431, 'FIDGI')</t>
+          <t>(64289, 'PJRSG')</t>
         </is>
       </c>
     </row>
@@ -25120,7 +25120,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>(32179, 'RUUKI')</t>
+          <t>(77867, 'OLHJR')</t>
         </is>
       </c>
     </row>
@@ -25130,7 +25130,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>(66633, 'PYJOS')</t>
+          <t>(49532, 'DKPUY')</t>
         </is>
       </c>
     </row>
@@ -25140,7 +25140,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>(19140, 'UJUJK')</t>
+          <t>(62305, 'FCZFG')</t>
         </is>
       </c>
     </row>
@@ -25150,7 +25150,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>(39533, 'ZUVDM')</t>
+          <t>(92941, 'QIPDE')</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>(10436, 'SYIPE')</t>
+          <t>(15921, 'NZGVH')</t>
         </is>
       </c>
     </row>
@@ -25170,7 +25170,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>(13601, 'LISTO')</t>
+          <t>(54279, 'VSVZX')</t>
         </is>
       </c>
     </row>
@@ -25180,7 +25180,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>(90014, 'AIVQY')</t>
+          <t>(91397, 'NJXCK')</t>
         </is>
       </c>
     </row>
@@ -25190,7 +25190,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>(73127, 'WHUFM')</t>
+          <t>(72650, 'LFIYS')</t>
         </is>
       </c>
     </row>
@@ -25200,7 +25200,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>(70129, 'VJRRK')</t>
+          <t>(59197, 'GKPYS')</t>
         </is>
       </c>
     </row>
@@ -25210,7 +25210,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>(55911, 'CDLSC')</t>
+          <t>(64663, 'WPXZD')</t>
         </is>
       </c>
     </row>
@@ -25220,7 +25220,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>(94464, 'KLLHC')</t>
+          <t>(58908, 'OYMXV')</t>
         </is>
       </c>
     </row>
@@ -25230,7 +25230,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>(56015, 'SIJDO')</t>
+          <t>(73256, 'OHLLH')</t>
         </is>
       </c>
     </row>
@@ -25240,7 +25240,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>(39050, 'VKIPK')</t>
+          <t>(21044, 'HNMEB')</t>
         </is>
       </c>
     </row>
@@ -25250,7 +25250,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>(13967, 'SITWK')</t>
+          <t>(82538, 'DWNJJ')</t>
         </is>
       </c>
     </row>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>(58905, 'RDPJW')</t>
+          <t>(32084, 'MQUFO')</t>
         </is>
       </c>
     </row>
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>(93238, 'AXGBX')</t>
+          <t>(13492, 'KFMGL')</t>
         </is>
       </c>
     </row>
@@ -25280,7 +25280,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>(73037, 'XINCL')</t>
+          <t>(55919, 'QUNVC')</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>(71559, 'WBIDF')</t>
+          <t>(66458, 'EXQRZ')</t>
         </is>
       </c>
     </row>
@@ -25300,7 +25300,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>(61272, 'IJJKQ')</t>
+          <t>(61757, 'NIFER')</t>
         </is>
       </c>
     </row>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>(79007, 'VTYLR')</t>
+          <t>(56021, 'WBWBP')</t>
         </is>
       </c>
     </row>
@@ -25320,7 +25320,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>(11142, 'ARWSL')</t>
+          <t>(67985, 'WGYQK')</t>
         </is>
       </c>
     </row>
@@ -25330,7 +25330,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>(72815, 'ZTCQZ')</t>
+          <t>(97438, 'RGNUP')</t>
         </is>
       </c>
     </row>
@@ -25340,7 +25340,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>(28504, 'JUJYV')</t>
+          <t>(70407, 'CSAOQ')</t>
         </is>
       </c>
     </row>
@@ -25350,7 +25350,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>(73510, 'TPOSR')</t>
+          <t>(49723, 'FQJIP')</t>
         </is>
       </c>
     </row>
@@ -25360,7 +25360,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>(67125, 'BWTLD')</t>
+          <t>(97928, 'GDKDS')</t>
         </is>
       </c>
     </row>
@@ -25370,7 +25370,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>(72141, 'ZLWYS')</t>
+          <t>(21482, 'ITPPZ')</t>
         </is>
       </c>
     </row>
@@ -25380,7 +25380,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>(44668, 'LXZRY')</t>
+          <t>(66316, 'TJYUO')</t>
         </is>
       </c>
     </row>
@@ -25390,7 +25390,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>(17123, 'ICUZP')</t>
+          <t>(35820, 'SHCAG')</t>
         </is>
       </c>
     </row>
@@ -25400,7 +25400,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>(11638, 'SKOEQ')</t>
+          <t>(25666, 'VYSQH')</t>
         </is>
       </c>
     </row>
@@ -25410,7 +25410,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>(23963, 'OSEWP')</t>
+          <t>(23259, 'CCPZO')</t>
         </is>
       </c>
     </row>
@@ -25420,7 +25420,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>(70168, 'EFMWI')</t>
+          <t>(10204, 'LJYOR')</t>
         </is>
       </c>
     </row>
@@ -25430,7 +25430,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>(93876, 'GJJNS')</t>
+          <t>(59723, 'UTOLB')</t>
         </is>
       </c>
     </row>
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>(41976, 'ZONXO')</t>
+          <t>(56429, 'ZBJNC')</t>
         </is>
       </c>
     </row>
@@ -25450,7 +25450,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>(51396, 'LXNWH')</t>
+          <t>(89013, 'XMIZO')</t>
         </is>
       </c>
     </row>
@@ -25460,7 +25460,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>(91282, 'JHQCW')</t>
+          <t>(99801, 'OGDRU')</t>
         </is>
       </c>
     </row>
@@ -25470,7 +25470,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>(49705, 'TBSYR')</t>
+          <t>(70686, 'HZICC')</t>
         </is>
       </c>
     </row>
@@ -25480,7 +25480,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>(96244, 'BHTKA')</t>
+          <t>(48482, 'JQWHW')</t>
         </is>
       </c>
     </row>
@@ -25490,7 +25490,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>(17130, 'XWFNU')</t>
+          <t>(45481, 'ZTQCB')</t>
         </is>
       </c>
     </row>
@@ -25500,7 +25500,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>(17020, 'BTLPY')</t>
+          <t>(70187, 'EGSFU')</t>
         </is>
       </c>
     </row>
@@ -25510,7 +25510,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>(85728, 'SDCQI')</t>
+          <t>(84825, 'JROEC')</t>
         </is>
       </c>
     </row>
@@ -25520,7 +25520,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>(11041, 'JWLQJ')</t>
+          <t>(50688, 'NNOBM')</t>
         </is>
       </c>
     </row>
@@ -25530,7 +25530,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>(31634, 'TKEBC')</t>
+          <t>(88754, 'CRNKX')</t>
         </is>
       </c>
     </row>
@@ -25540,7 +25540,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>(32976, 'CFQMY')</t>
+          <t>(40385, 'GQHMM')</t>
         </is>
       </c>
     </row>
@@ -25550,7 +25550,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>(72677, 'UYPHC')</t>
+          <t>(16935, 'HEXHG')</t>
         </is>
       </c>
     </row>
@@ -25560,7 +25560,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>(49915, 'ZZSGA')</t>
+          <t>(55788, 'GAIPO')</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>(86970, 'DSDPG')</t>
+          <t>(86074, 'VBAYH')</t>
         </is>
       </c>
     </row>
@@ -25580,7 +25580,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>(71448, 'DWOOL')</t>
+          <t>(50424, 'OHEOK')</t>
         </is>
       </c>
     </row>
@@ -25590,7 +25590,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>(78747, 'EYLUU')</t>
+          <t>(24102, 'LURSD')</t>
         </is>
       </c>
     </row>
@@ -25600,7 +25600,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>(85545, 'SNDMO')</t>
+          <t>(55729, 'DMKUU')</t>
         </is>
       </c>
     </row>
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>(25345, 'UIQET')</t>
+          <t>(43353, 'UGWRQ')</t>
         </is>
       </c>
     </row>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>(73501, 'WICZV')</t>
+          <t>(55524, 'QJUVY')</t>
         </is>
       </c>
     </row>
@@ -25630,7 +25630,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>(90503, 'GSNBH')</t>
+          <t>(99631, 'BFRUO')</t>
         </is>
       </c>
     </row>
@@ -25640,7 +25640,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>(58748, 'KIRND')</t>
+          <t>(71196, 'ILDGY')</t>
         </is>
       </c>
     </row>
@@ -25650,7 +25650,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>(59223, 'DSFUL')</t>
+          <t>(88870, 'LAULU')</t>
         </is>
       </c>
     </row>
@@ -25660,7 +25660,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>(23176, 'NSIJX')</t>
+          <t>(48541, 'NKAWG')</t>
         </is>
       </c>
     </row>
@@ -25670,7 +25670,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>(78300, 'OWGMK')</t>
+          <t>(52675, 'WBUAO')</t>
         </is>
       </c>
     </row>
@@ -25680,7 +25680,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>(78635, 'RWHSO')</t>
+          <t>(27176, 'GJSFM')</t>
         </is>
       </c>
     </row>
@@ -25690,7 +25690,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>(13469, 'HQQSC')</t>
+          <t>(15623, 'ZDYCR')</t>
         </is>
       </c>
     </row>
@@ -25700,7 +25700,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>(81527, 'MGMJN')</t>
+          <t>(88177, 'RWFPM')</t>
         </is>
       </c>
     </row>
@@ -25710,7 +25710,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>(10102, 'BFSYJ')</t>
+          <t>(69879, 'VKZQA')</t>
         </is>
       </c>
     </row>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>(66598, 'BSZSX')</t>
+          <t>(64975, 'XQNWE')</t>
         </is>
       </c>
     </row>
@@ -25730,7 +25730,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>(85445, 'DNEZD')</t>
+          <t>(94506, 'AYWNH')</t>
         </is>
       </c>
     </row>
@@ -25740,7 +25740,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>(84757, 'RJJLT')</t>
+          <t>(18984, 'UJQQW')</t>
         </is>
       </c>
     </row>
@@ -25750,7 +25750,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>(22240, 'IKVLN')</t>
+          <t>(54088, 'DWAXB')</t>
         </is>
       </c>
     </row>
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>(67108, 'FNNMS')</t>
+          <t>(11929, 'MOKPT')</t>
         </is>
       </c>
     </row>
@@ -25770,7 +25770,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>(76750, 'NYBDY')</t>
+          <t>(76853, 'FQDJO')</t>
         </is>
       </c>
     </row>
@@ -25780,7 +25780,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>(40600, 'NVQRG')</t>
+          <t>(49626, 'KZGXW')</t>
         </is>
       </c>
     </row>
@@ -25790,7 +25790,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>(59600, 'AOBVG')</t>
+          <t>(11744, 'OEWFH')</t>
         </is>
       </c>
     </row>
@@ -25800,7 +25800,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>(53076, 'MLNXD')</t>
+          <t>(17704, 'LXIWQ')</t>
         </is>
       </c>
     </row>
@@ -25810,7 +25810,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>(50824, 'URKPO')</t>
+          <t>(42873, 'UZMRB')</t>
         </is>
       </c>
     </row>
@@ -25820,7 +25820,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>(15751, 'EVPNI')</t>
+          <t>(57069, 'LVAOD')</t>
         </is>
       </c>
     </row>
@@ -25830,7 +25830,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>(54558, 'PWDSI')</t>
+          <t>(58087, 'YNLPG')</t>
         </is>
       </c>
     </row>
@@ -25840,7 +25840,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>(85840, 'NQKHM')</t>
+          <t>(60854, 'XVUDL')</t>
         </is>
       </c>
     </row>
@@ -25850,7 +25850,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>(34137, 'WUMDN')</t>
+          <t>(72484, 'OLHFQ')</t>
         </is>
       </c>
     </row>
@@ -25860,7 +25860,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>(64138, 'INYEN')</t>
+          <t>(70062, 'AAFUP')</t>
         </is>
       </c>
     </row>
@@ -25870,7 +25870,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>(75982, 'JJMZY')</t>
+          <t>(70505, 'HMOGK')</t>
         </is>
       </c>
     </row>
@@ -25880,7 +25880,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>(37309, 'DEFCU')</t>
+          <t>(90522, 'RTKWC')</t>
         </is>
       </c>
     </row>
@@ -25890,7 +25890,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>(47074, 'OSEOZ')</t>
+          <t>(17881, 'RIBNX')</t>
         </is>
       </c>
     </row>
@@ -25900,7 +25900,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>(63461, 'XLTXA')</t>
+          <t>(14991, 'IHGOT')</t>
         </is>
       </c>
     </row>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>(87862, 'GTCAQ')</t>
+          <t>(23568, 'IZMJA')</t>
         </is>
       </c>
     </row>
@@ -25920,7 +25920,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>(83118, 'NICVS')</t>
+          <t>(96761, 'PDELU')</t>
         </is>
       </c>
     </row>
@@ -25930,7 +25930,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>(27146, 'UGZXH')</t>
+          <t>(44650, 'YDHDP')</t>
         </is>
       </c>
     </row>
@@ -25940,7 +25940,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>(28082, 'CAAFE')</t>
+          <t>(79424, 'UDORB')</t>
         </is>
       </c>
     </row>
@@ -25950,7 +25950,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>(54624, 'EXKHO')</t>
+          <t>(81824, 'DHFGK')</t>
         </is>
       </c>
     </row>
@@ -25960,7 +25960,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>(72031, 'SBGKQ')</t>
+          <t>(64612, 'SSQYF')</t>
         </is>
       </c>
     </row>
@@ -25970,7 +25970,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>(22151, 'ZEUHY')</t>
+          <t>(89132, 'SFHAZ')</t>
         </is>
       </c>
     </row>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>(13616, 'POBAM')</t>
+          <t>(91843, 'PSEWX')</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>(78556, 'YOWIR')</t>
+          <t>(56855, 'JJWXQ')</t>
         </is>
       </c>
     </row>
@@ -26000,7 +26000,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>(50770, 'INNGW')</t>
+          <t>(36219, 'RMHZQ')</t>
         </is>
       </c>
     </row>
@@ -26010,7 +26010,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>(22967, 'TMJNO')</t>
+          <t>(19059, 'PJCOE')</t>
         </is>
       </c>
     </row>
@@ -26020,7 +26020,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>(11874, 'DLETY')</t>
+          <t>(54797, 'LXSBR')</t>
         </is>
       </c>
     </row>
@@ -26030,7 +26030,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>(12160, 'QZFWS')</t>
+          <t>(48685, 'LBXMR')</t>
         </is>
       </c>
     </row>
@@ -26040,7 +26040,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>(98512, 'PNWYR')</t>
+          <t>(49142, 'UCRTB')</t>
         </is>
       </c>
     </row>
@@ -26050,7 +26050,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>(58823, 'CZZSN')</t>
+          <t>(70336, 'QJSCO')</t>
         </is>
       </c>
     </row>
@@ -26060,7 +26060,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>(56960, 'VPTHQ')</t>
+          <t>(17278, 'HKPYJ')</t>
         </is>
       </c>
     </row>
@@ -26070,7 +26070,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>(42807, 'TEWLW')</t>
+          <t>(60907, 'QEVOT')</t>
         </is>
       </c>
     </row>
@@ -26080,7 +26080,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>(31261, 'DGEQV')</t>
+          <t>(58460, 'FEAJZ')</t>
         </is>
       </c>
     </row>
@@ -26090,7 +26090,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>(48244, 'TGFBL')</t>
+          <t>(75094, 'ZFKOG')</t>
         </is>
       </c>
     </row>
@@ -26100,7 +26100,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>(83884, 'WVRIO')</t>
+          <t>(54977, 'KGRXV')</t>
         </is>
       </c>
     </row>
@@ -26110,7 +26110,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>(39507, 'MVBRJ')</t>
+          <t>(40708, 'MUOYU')</t>
         </is>
       </c>
     </row>
@@ -26120,7 +26120,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>(39117, 'RCYLO')</t>
+          <t>(96589, 'MYKXB')</t>
         </is>
       </c>
     </row>
@@ -26130,7 +26130,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>(49946, 'BBTGM')</t>
+          <t>(49236, 'PDAGT')</t>
         </is>
       </c>
     </row>
@@ -26140,7 +26140,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>(83935, 'YIHYF')</t>
+          <t>(27039, 'GYHKK')</t>
         </is>
       </c>
     </row>
@@ -26150,7 +26150,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>(17346, 'TTXKI')</t>
+          <t>(25318, 'XABCY')</t>
         </is>
       </c>
     </row>
@@ -26160,7 +26160,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>(27029, 'MMBZO')</t>
+          <t>(97750, 'UVWFF')</t>
         </is>
       </c>
     </row>
@@ -26170,7 +26170,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>(59046, 'FLJCT')</t>
+          <t>(22828, 'EQITL')</t>
         </is>
       </c>
     </row>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>(78647, 'RTGJD')</t>
+          <t>(47246, 'PCDWT')</t>
         </is>
       </c>
     </row>
@@ -26190,7 +26190,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>(17766, 'WFDVM')</t>
+          <t>(14049, 'ELICS')</t>
         </is>
       </c>
     </row>
@@ -26200,7 +26200,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>(18348, 'BVSFG')</t>
+          <t>(43181, 'TSIRB')</t>
         </is>
       </c>
     </row>
@@ -26210,7 +26210,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>(91354, 'TCFYJ')</t>
+          <t>(16310, 'OQFKJ')</t>
         </is>
       </c>
     </row>
@@ -26220,7 +26220,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>(49874, 'CREJZ')</t>
+          <t>(74257, 'NSEMK')</t>
         </is>
       </c>
     </row>
@@ -26230,7 +26230,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>(20250, 'WTLXC')</t>
+          <t>(50767, 'TKZFC')</t>
         </is>
       </c>
     </row>
@@ -26240,7 +26240,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>(91677, 'FZNFM')</t>
+          <t>(20728, 'VVIUD')</t>
         </is>
       </c>
     </row>
@@ -26250,7 +26250,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>(11475, 'HZZTJ')</t>
+          <t>(64837, 'GVQRZ')</t>
         </is>
       </c>
     </row>
@@ -26260,7 +26260,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>(77118, 'SLLBN')</t>
+          <t>(46431, 'ZDHZJ')</t>
         </is>
       </c>
     </row>
@@ -26270,7 +26270,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>(21770, 'CYRNB')</t>
+          <t>(19030, 'VYAVI')</t>
         </is>
       </c>
     </row>
@@ -26280,7 +26280,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>(24187, 'TPXTE')</t>
+          <t>(42293, 'SXYHX')</t>
         </is>
       </c>
     </row>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>(99584, 'RNYOJ')</t>
+          <t>(48203, 'CTOGW')</t>
         </is>
       </c>
     </row>
@@ -26300,7 +26300,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>(20281, 'RVVBF')</t>
+          <t>(67126, 'CVFJJ')</t>
         </is>
       </c>
     </row>
@@ -26310,7 +26310,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>(31585, 'EECXY')</t>
+          <t>(41262, 'SAFMT')</t>
         </is>
       </c>
     </row>
@@ -26320,7 +26320,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>(91939, 'HBAAD')</t>
+          <t>(92723, 'EQAFD')</t>
         </is>
       </c>
     </row>
@@ -26330,7 +26330,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>(31552, 'GRGAY')</t>
+          <t>(84895, 'PQWSY')</t>
         </is>
       </c>
     </row>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>(44990, 'MRDZT')</t>
+          <t>(48568, 'PVABO')</t>
         </is>
       </c>
     </row>
@@ -26350,7 +26350,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>(99451, 'QQHAZ')</t>
+          <t>(99331, 'ISJJG')</t>
         </is>
       </c>
     </row>
@@ -26360,7 +26360,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>(38350, 'NSGHE')</t>
+          <t>(95328, 'PNRCJ')</t>
         </is>
       </c>
     </row>
@@ -26370,7 +26370,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>(21074, 'PWLPR')</t>
+          <t>(16706, 'HFIOB')</t>
         </is>
       </c>
     </row>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>(13842, 'GJKKV')</t>
+          <t>(60612, 'HAHZV')</t>
         </is>
       </c>
     </row>
@@ -26390,7 +26390,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>(14055, 'RKCHL')</t>
+          <t>(68004, 'BMOPW')</t>
         </is>
       </c>
     </row>
@@ -26400,7 +26400,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>(41919, 'WBFWN')</t>
+          <t>(52660, 'HYGSG')</t>
         </is>
       </c>
     </row>
@@ -26410,7 +26410,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>(47257, 'MTIUG')</t>
+          <t>(95234, 'HLCZW')</t>
         </is>
       </c>
     </row>
@@ -26420,7 +26420,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>(38186, 'RWXTN')</t>
+          <t>(83093, 'OBVNG')</t>
         </is>
       </c>
     </row>
@@ -26430,7 +26430,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>(25870, 'IEKKP')</t>
+          <t>(36255, 'LZELD')</t>
         </is>
       </c>
     </row>
@@ -26440,7 +26440,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>(71700, 'SQMTD')</t>
+          <t>(37165, 'VMGTU')</t>
         </is>
       </c>
     </row>
@@ -26450,7 +26450,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>(59921, 'LILCU')</t>
+          <t>(69049, 'KNCWH')</t>
         </is>
       </c>
     </row>
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>(40149, 'EFCYO')</t>
+          <t>(21773, 'CWRKJ')</t>
         </is>
       </c>
     </row>
@@ -26470,7 +26470,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>(28749, 'TEIHO')</t>
+          <t>(89412, 'NDVRB')</t>
         </is>
       </c>
     </row>
@@ -26480,7 +26480,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>(39481, 'BFZUP')</t>
+          <t>(94106, 'IAWSY')</t>
         </is>
       </c>
     </row>
@@ -26490,7 +26490,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>(67405, 'LYNQB')</t>
+          <t>(69650, 'UMPPW')</t>
         </is>
       </c>
     </row>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>(19867, 'FHXRA')</t>
+          <t>(19495, 'YWHCS')</t>
         </is>
       </c>
     </row>
@@ -26510,7 +26510,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>(89168, 'YBHYN')</t>
+          <t>(87335, 'RPGOE')</t>
         </is>
       </c>
     </row>
@@ -26520,7 +26520,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>(67275, 'GZFTL')</t>
+          <t>(87516, 'YMKYL')</t>
         </is>
       </c>
     </row>
@@ -26530,7 +26530,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>(27966, 'UUKKL')</t>
+          <t>(29848, 'BOTAV')</t>
         </is>
       </c>
     </row>
@@ -26540,7 +26540,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>(69019, 'PYLKT')</t>
+          <t>(50929, 'GMHGY')</t>
         </is>
       </c>
     </row>
@@ -26550,7 +26550,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>(43532, 'FMMJH')</t>
+          <t>(46661, 'IQFRZ')</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>(94900, 'OKKFT')</t>
+          <t>(90460, 'XLTQL')</t>
         </is>
       </c>
     </row>
@@ -26570,7 +26570,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>(30143, 'XBSBF')</t>
+          <t>(77159, 'VKQGN')</t>
         </is>
       </c>
     </row>
@@ -26580,7 +26580,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>(74033, 'YHEBR')</t>
+          <t>(87104, 'XOJEU')</t>
         </is>
       </c>
     </row>
@@ -26590,7 +26590,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>(55483, 'YSBQN')</t>
+          <t>(26907, 'BQNBR')</t>
         </is>
       </c>
     </row>
@@ -26600,7 +26600,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>(84212, 'YQYFI')</t>
+          <t>(75129, 'VDPLV')</t>
         </is>
       </c>
     </row>
@@ -26610,7 +26610,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>(45586, 'KZEVH')</t>
+          <t>(26733, 'ULTBR')</t>
         </is>
       </c>
     </row>
@@ -26620,7 +26620,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>(28723, 'PHMNJ')</t>
+          <t>(25996, 'XVDBE')</t>
         </is>
       </c>
     </row>
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>(97618, 'HJWRJ')</t>
+          <t>(91747, 'EDULY')</t>
         </is>
       </c>
     </row>
@@ -26640,7 +26640,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>(75021, 'CLMSW')</t>
+          <t>(12382, 'GMAAE')</t>
         </is>
       </c>
     </row>
@@ -26650,7 +26650,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>(84082, 'AUUNS')</t>
+          <t>(50282, 'TNTDH')</t>
         </is>
       </c>
     </row>
@@ -26660,7 +26660,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>(39243, 'XSGRG')</t>
+          <t>(39174, 'NQVWX')</t>
         </is>
       </c>
     </row>
@@ -26670,7 +26670,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>(76384, 'EGDRH')</t>
+          <t>(19359, 'PGGCX')</t>
         </is>
       </c>
     </row>
@@ -26680,7 +26680,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>(64727, 'EOTRI')</t>
+          <t>(17227, 'PVYJT')</t>
         </is>
       </c>
     </row>
@@ -26690,7 +26690,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>(53633, 'HHURM')</t>
+          <t>(56276, 'XWYQB')</t>
         </is>
       </c>
     </row>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>(87744, 'TFJRX')</t>
+          <t>(38543, 'YIGBM')</t>
         </is>
       </c>
     </row>
@@ -26710,7 +26710,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>(98946, 'CGUFP')</t>
+          <t>(41773, 'PNNKC')</t>
         </is>
       </c>
     </row>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>(57954, 'VUZXJ')</t>
+          <t>(14012, 'IEKUZ')</t>
         </is>
       </c>
     </row>
@@ -26730,7 +26730,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>(38384, 'GDOHA')</t>
+          <t>(34855, 'DBAPU')</t>
         </is>
       </c>
     </row>
@@ -26740,7 +26740,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>(68611, 'NVSNP')</t>
+          <t>(13292, 'SSZMB')</t>
         </is>
       </c>
     </row>
@@ -26750,7 +26750,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>(26939, 'BTOWH')</t>
+          <t>(77322, 'SIZBX')</t>
         </is>
       </c>
     </row>
@@ -26760,7 +26760,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>(13049, 'QNFZU')</t>
+          <t>(11594, 'PLYWJ')</t>
         </is>
       </c>
     </row>
@@ -26770,7 +26770,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>(72379, 'UCDNK')</t>
+          <t>(96720, 'NWSYH')</t>
         </is>
       </c>
     </row>
@@ -26780,7 +26780,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>(77604, 'WUUGM')</t>
+          <t>(28434, 'WDAIR')</t>
         </is>
       </c>
     </row>
@@ -26790,7 +26790,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>(49424, 'AKWSX')</t>
+          <t>(23643, 'UQSJS')</t>
         </is>
       </c>
     </row>
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>(66829, 'ORCPP')</t>
+          <t>(63329, 'RZRPA')</t>
         </is>
       </c>
     </row>
@@ -26810,7 +26810,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>(77223, 'XEQHU')</t>
+          <t>(11304, 'GABKP')</t>
         </is>
       </c>
     </row>
@@ -26820,7 +26820,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>(42358, 'EEMTF')</t>
+          <t>(88287, 'MLPHJ')</t>
         </is>
       </c>
     </row>
@@ -26830,7 +26830,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>(22898, 'SPZPU')</t>
+          <t>(10810, 'DNRQB')</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>(38666, 'VLSKY')</t>
+          <t>(17181, 'NEPZA')</t>
         </is>
       </c>
     </row>
@@ -26850,7 +26850,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>(80441, 'QHCIT')</t>
+          <t>(52011, 'TAHKS')</t>
         </is>
       </c>
     </row>
@@ -26860,7 +26860,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>(97515, 'UEPXG')</t>
+          <t>(74543, 'UIBLV')</t>
         </is>
       </c>
     </row>
@@ -26870,7 +26870,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>(32392, 'WYSQP')</t>
+          <t>(62501, 'MSMWH')</t>
         </is>
       </c>
     </row>
@@ -26880,7 +26880,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>(80366, 'LBGLT')</t>
+          <t>(32731, 'JQNQD')</t>
         </is>
       </c>
     </row>
@@ -26890,7 +26890,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>(41929, 'ZNPQT')</t>
+          <t>(31374, 'LXHJB')</t>
         </is>
       </c>
     </row>
@@ -26900,7 +26900,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>(45659, 'PGSGZ')</t>
+          <t>(36650, 'BVHGJ')</t>
         </is>
       </c>
     </row>
@@ -26910,7 +26910,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>(92281, 'WEGKM')</t>
+          <t>(92908, 'LBKTY')</t>
         </is>
       </c>
     </row>
@@ -26920,7 +26920,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>(58349, 'OLIET')</t>
+          <t>(99489, 'IHIXZ')</t>
         </is>
       </c>
     </row>
@@ -26930,7 +26930,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>(44146, 'TIGGD')</t>
+          <t>(23431, 'PWFIA')</t>
         </is>
       </c>
     </row>
@@ -26940,7 +26940,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>(43469, 'WDACN')</t>
+          <t>(48065, 'PINZZ')</t>
         </is>
       </c>
     </row>
@@ -26950,7 +26950,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>(75791, 'VXGCE')</t>
+          <t>(30162, 'CJQHT')</t>
         </is>
       </c>
     </row>
@@ -26960,7 +26960,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>(55218, 'JLOKC')</t>
+          <t>(52951, 'NLOAY')</t>
         </is>
       </c>
     </row>
@@ -26970,7 +26970,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>(83121, 'HNDRH')</t>
+          <t>(65459, 'WECEC')</t>
         </is>
       </c>
     </row>
@@ -26980,7 +26980,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>(20986, 'GFOQZ')</t>
+          <t>(37808, 'OKNEX')</t>
         </is>
       </c>
     </row>
@@ -26990,7 +26990,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>(66982, 'HYJMJ')</t>
+          <t>(43999, 'TDVAZ')</t>
         </is>
       </c>
     </row>
@@ -27000,7 +27000,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>(85804, 'WQPRQ')</t>
+          <t>(25590, 'HJYJS')</t>
         </is>
       </c>
     </row>
@@ -27010,7 +27010,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>(43150, 'CWFNV')</t>
+          <t>(58509, 'BMZMZ')</t>
         </is>
       </c>
     </row>
@@ -27020,7 +27020,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>(91473, 'MCYJE')</t>
+          <t>(30143, 'VRKTL')</t>
         </is>
       </c>
     </row>
@@ -27030,7 +27030,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>(68105, 'UDSXE')</t>
+          <t>(78806, 'KGJVK')</t>
         </is>
       </c>
     </row>
@@ -27040,7 +27040,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>(12097, 'IEQQG')</t>
+          <t>(98251, 'DFVXF')</t>
         </is>
       </c>
     </row>
@@ -27050,7 +27050,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>(60634, 'DAVCE')</t>
+          <t>(91960, 'WMATH')</t>
         </is>
       </c>
     </row>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>(71672, 'KUHZA')</t>
+          <t>(98829, 'FSRFR')</t>
         </is>
       </c>
     </row>
@@ -27070,7 +27070,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>(89705, 'BPUSQ')</t>
+          <t>(40391, 'DCIRS')</t>
         </is>
       </c>
     </row>
@@ -27080,7 +27080,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>(67512, 'QXPAU')</t>
+          <t>(91286, 'DLCLM')</t>
         </is>
       </c>
     </row>
@@ -27090,7 +27090,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>(28187, 'HIITH')</t>
+          <t>(77205, 'AADLB')</t>
         </is>
       </c>
     </row>
@@ -27100,7 +27100,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>(91157, 'ILBJM')</t>
+          <t>(74900, 'WQOAC')</t>
         </is>
       </c>
     </row>
@@ -27110,7 +27110,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>(67405, 'LCJTN')</t>
+          <t>(43893, 'VNQVH')</t>
         </is>
       </c>
     </row>
@@ -27120,7 +27120,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>(82883, 'XEXGE')</t>
+          <t>(69078, 'GGKFT')</t>
         </is>
       </c>
     </row>
@@ -27130,7 +27130,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>(34857, 'ATVYG')</t>
+          <t>(85607, 'EBKVQ')</t>
         </is>
       </c>
     </row>
@@ -27140,7 +27140,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>(36115, 'MWKNG')</t>
+          <t>(17900, 'MDTEC')</t>
         </is>
       </c>
     </row>
@@ -27150,7 +27150,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>(52873, 'PUGWI')</t>
+          <t>(99672, 'YFCVJ')</t>
         </is>
       </c>
     </row>
@@ -27160,7 +27160,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>(36967, 'DJCNT')</t>
+          <t>(77600, 'MDBZB')</t>
         </is>
       </c>
     </row>
@@ -27170,7 +27170,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>(39211, 'NXTSZ')</t>
+          <t>(12605, 'BFVED')</t>
         </is>
       </c>
     </row>
@@ -27180,7 +27180,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>(20581, 'UKTBC')</t>
+          <t>(66339, 'QSIPJ')</t>
         </is>
       </c>
     </row>
@@ -27190,7 +27190,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>(75726, 'WOTJA')</t>
+          <t>(62055, 'JLAKA')</t>
         </is>
       </c>
     </row>
@@ -27200,7 +27200,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>(11730, 'JVOYT')</t>
+          <t>(78654, 'ECLEU')</t>
         </is>
       </c>
     </row>
@@ -27210,7 +27210,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>(39316, 'XNCMM')</t>
+          <t>(20463, 'LJGLS')</t>
         </is>
       </c>
     </row>
@@ -27220,7 +27220,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>(73093, 'GQQVC')</t>
+          <t>(94976, 'KNCFK')</t>
         </is>
       </c>
     </row>
@@ -27230,7 +27230,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>(82052, 'JARIL')</t>
+          <t>(31780, 'IGMCD')</t>
         </is>
       </c>
     </row>
@@ -27240,7 +27240,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>(47804, 'ZESZM')</t>
+          <t>(12228, 'KQPFJ')</t>
         </is>
       </c>
     </row>
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>(18434, 'HPBEX')</t>
+          <t>(59557, 'RFOYI')</t>
         </is>
       </c>
     </row>
@@ -27260,7 +27260,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>(11307, 'ISGQX')</t>
+          <t>(40248, 'GXPDI')</t>
         </is>
       </c>
     </row>
@@ -27270,7 +27270,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>(47734, 'VBROE')</t>
+          <t>(43075, 'CLRVD')</t>
         </is>
       </c>
     </row>
@@ -27280,7 +27280,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>(21063, 'FRJVF')</t>
+          <t>(32469, 'JCMGU')</t>
         </is>
       </c>
     </row>
@@ -27290,7 +27290,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>(85790, 'HMJNG')</t>
+          <t>(22634, 'JPIAH')</t>
         </is>
       </c>
     </row>
@@ -27300,7 +27300,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>(56117, 'JPIFA')</t>
+          <t>(26956, 'SUJYV')</t>
         </is>
       </c>
     </row>
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>(50150, 'VAGTB')</t>
+          <t>(33726, 'HMMVK')</t>
         </is>
       </c>
     </row>
@@ -27320,7 +27320,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>(47784, 'WYZWV')</t>
+          <t>(84717, 'OPIFK')</t>
         </is>
       </c>
     </row>
@@ -27330,7 +27330,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>(74928, 'RHCJL')</t>
+          <t>(57522, 'ZLPRB')</t>
         </is>
       </c>
     </row>
@@ -27340,7 +27340,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>(70437, 'DBZPT')</t>
+          <t>(97835, 'VHYGZ')</t>
         </is>
       </c>
     </row>
@@ -27350,7 +27350,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>(65201, 'OXPQF')</t>
+          <t>(85733, 'VWACV')</t>
         </is>
       </c>
     </row>
@@ -27360,7 +27360,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>(84338, 'JVJJO')</t>
+          <t>(35190, 'HKAXR')</t>
         </is>
       </c>
     </row>
@@ -27370,7 +27370,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>(58554, 'HKAHZ')</t>
+          <t>(79820, 'XSQDF')</t>
         </is>
       </c>
     </row>
@@ -27380,7 +27380,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>(10367, 'YWQRZ')</t>
+          <t>(99569, 'RTXZS')</t>
         </is>
       </c>
     </row>
@@ -27390,7 +27390,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>(34638, 'WJGWN')</t>
+          <t>(35485, 'FICKV')</t>
         </is>
       </c>
     </row>
@@ -27400,7 +27400,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>(63747, 'CFEDJ')</t>
+          <t>(86813, 'VTKJY')</t>
         </is>
       </c>
     </row>
@@ -27410,7 +27410,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>(87531, 'AHLVC')</t>
+          <t>(93853, 'JKQTN')</t>
         </is>
       </c>
     </row>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>(37820, 'LWYPQ')</t>
+          <t>(71594, 'RTGZA')</t>
         </is>
       </c>
     </row>
@@ -27430,7 +27430,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>(11392, 'KWCEC')</t>
+          <t>(89002, 'XFLFM')</t>
         </is>
       </c>
     </row>
@@ -27440,7 +27440,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>(30110, 'TOJMS')</t>
+          <t>(93100, 'EWFYK')</t>
         </is>
       </c>
     </row>
@@ -27450,7 +27450,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>(84279, 'BLQZI')</t>
+          <t>(14752, 'RBHTX')</t>
         </is>
       </c>
     </row>
@@ -27460,7 +27460,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>(52025, 'VQCGB')</t>
+          <t>(11048, 'RFFXT')</t>
         </is>
       </c>
     </row>
@@ -27470,7 +27470,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>(78311, 'JFNRD')</t>
+          <t>(77956, 'ITKIE')</t>
         </is>
       </c>
     </row>
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>(32021, 'ZNDYT')</t>
+          <t>(96132, 'NMBZV')</t>
         </is>
       </c>
     </row>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>(36878, 'UZGGE')</t>
+          <t>(72731, 'XOWCU')</t>
         </is>
       </c>
     </row>
@@ -27500,7 +27500,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>(11699, 'NPCMX')</t>
+          <t>(66353, 'HMRZU')</t>
         </is>
       </c>
     </row>
@@ -27510,7 +27510,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>(38817, 'ARZXT')</t>
+          <t>(35611, 'IDJDR')</t>
         </is>
       </c>
     </row>
@@ -27520,7 +27520,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>(75900, 'YXYZB')</t>
+          <t>(63632, 'MFZAS')</t>
         </is>
       </c>
     </row>
@@ -27530,7 +27530,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>(16604, 'SIDJJ')</t>
+          <t>(80799, 'XETES')</t>
         </is>
       </c>
     </row>
@@ -27540,7 +27540,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>(45458, 'RTNHY')</t>
+          <t>(83566, 'VOFGM')</t>
         </is>
       </c>
     </row>
@@ -27550,7 +27550,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>(77733, 'XDNHJ')</t>
+          <t>(15246, 'VCHAU')</t>
         </is>
       </c>
     </row>
@@ -27560,7 +27560,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>(92368, 'WKAUC')</t>
+          <t>(24364, 'VEHHY')</t>
         </is>
       </c>
     </row>
@@ -27570,7 +27570,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>(16016, 'JXYFN')</t>
+          <t>(40561, 'KVGPD')</t>
         </is>
       </c>
     </row>
@@ -27580,7 +27580,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>(45644, 'OYOOT')</t>
+          <t>(85461, 'VBLRR')</t>
         </is>
       </c>
     </row>
@@ -27590,7 +27590,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>(67622, 'BQBJF')</t>
+          <t>(72040, 'YCPQE')</t>
         </is>
       </c>
     </row>
@@ -27600,7 +27600,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>(12161, 'HXOAL')</t>
+          <t>(84600, 'XPIDB')</t>
         </is>
       </c>
     </row>
@@ -27610,7 +27610,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>(45787, 'NZHKT')</t>
+          <t>(22103, 'SLNMN')</t>
         </is>
       </c>
     </row>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>(86184, 'MIDJP')</t>
+          <t>(50080, 'ARXMC')</t>
         </is>
       </c>
     </row>
@@ -27630,7 +27630,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>(28858, 'ZJRXG')</t>
+          <t>(34484, 'KQCBX')</t>
         </is>
       </c>
     </row>
@@ -27640,7 +27640,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>(58567, 'UKOVB')</t>
+          <t>(34167, 'YWWTE')</t>
         </is>
       </c>
     </row>
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>(25471, 'TJRQF')</t>
+          <t>(31865, 'BGXQV')</t>
         </is>
       </c>
     </row>
@@ -27660,7 +27660,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>(46773, 'BTDMZ')</t>
+          <t>(44076, 'NVFZE')</t>
         </is>
       </c>
     </row>
@@ -27670,7 +27670,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>(75572, 'LZPLZ')</t>
+          <t>(53106, 'NQJZL')</t>
         </is>
       </c>
     </row>
@@ -27680,7 +27680,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>(57523, 'LDEPF')</t>
+          <t>(86212, 'ODBFH')</t>
         </is>
       </c>
     </row>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>(63888, 'KVPGN')</t>
+          <t>(82578, 'RZNJN')</t>
         </is>
       </c>
     </row>
@@ -27700,7 +27700,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>(57668, 'GWHXQ')</t>
+          <t>(57193, 'SVILD')</t>
         </is>
       </c>
     </row>
@@ -27710,7 +27710,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>(43391, 'WNFFM')</t>
+          <t>(27406, 'UOQSP')</t>
         </is>
       </c>
     </row>
@@ -27720,7 +27720,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>(55168, 'OYKBL')</t>
+          <t>(43142, 'PXDUC')</t>
         </is>
       </c>
     </row>
@@ -27730,7 +27730,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>(13153, 'GWQIU')</t>
+          <t>(37591, 'AOVWU')</t>
         </is>
       </c>
     </row>
@@ -27740,7 +27740,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>(75968, 'CHKWX')</t>
+          <t>(35830, 'WUWWO')</t>
         </is>
       </c>
     </row>
@@ -27750,7 +27750,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>(45970, 'TKIUB')</t>
+          <t>(49181, 'LYSCU')</t>
         </is>
       </c>
     </row>
@@ -27760,7 +27760,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>(65383, 'KLIAP')</t>
+          <t>(36571, 'YMJPL')</t>
         </is>
       </c>
     </row>
@@ -27770,7 +27770,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>(97045, 'SPZUU')</t>
+          <t>(78926, 'MDQUZ')</t>
         </is>
       </c>
     </row>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>(89904, 'SIUEM')</t>
+          <t>(79981, 'CQKHC')</t>
         </is>
       </c>
     </row>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>(16105, 'CYNZT')</t>
+          <t>(52305, 'BVYQZ')</t>
         </is>
       </c>
     </row>
@@ -27800,7 +27800,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>(38115, 'UIIGP')</t>
+          <t>(38873, 'LOTLI')</t>
         </is>
       </c>
     </row>
@@ -27810,7 +27810,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>(80525, 'YOBJN')</t>
+          <t>(43376, 'MIXGD')</t>
         </is>
       </c>
     </row>
@@ -27820,7 +27820,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>(87048, 'FFFNW')</t>
+          <t>(84152, 'AMLZP')</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>(86444, 'WKZOV')</t>
+          <t>(22381, 'ESVXK')</t>
         </is>
       </c>
     </row>
@@ -27840,7 +27840,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>(67794, 'NOLTM')</t>
+          <t>(25516, 'VMOKW')</t>
         </is>
       </c>
     </row>
@@ -27850,7 +27850,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>(28549, 'LODYU')</t>
+          <t>(69150, 'JHZBP')</t>
         </is>
       </c>
     </row>
@@ -27860,7 +27860,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>(54213, 'YFVQK')</t>
+          <t>(47871, 'NRKXR')</t>
         </is>
       </c>
     </row>
@@ -27870,7 +27870,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>(85289, 'DGQBT')</t>
+          <t>(83266, 'QKCAG')</t>
         </is>
       </c>
     </row>
@@ -27880,7 +27880,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>(18505, 'FBYLA')</t>
+          <t>(17076, 'CHYWT')</t>
         </is>
       </c>
     </row>
@@ -27890,7 +27890,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>(30286, 'CCHNZ')</t>
+          <t>(81846, 'PNLJT')</t>
         </is>
       </c>
     </row>
@@ -27900,7 +27900,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>(93951, 'EBJXR')</t>
+          <t>(51194, 'VGVEU')</t>
         </is>
       </c>
     </row>
@@ -27910,7 +27910,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>(67348, 'CPXCO')</t>
+          <t>(22492, 'IXBNC')</t>
         </is>
       </c>
     </row>
@@ -27920,7 +27920,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>(78296, 'ISKEI')</t>
+          <t>(82630, 'XPAAH')</t>
         </is>
       </c>
     </row>
@@ -27930,7 +27930,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>(12705, 'ZCUCH')</t>
+          <t>(57708, 'YQLFC')</t>
         </is>
       </c>
     </row>
@@ -27940,7 +27940,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>(13408, 'ZKXXJ')</t>
+          <t>(59486, 'LVFST')</t>
         </is>
       </c>
     </row>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>(49524, 'QRAWD')</t>
+          <t>(83968, 'KJVUO')</t>
         </is>
       </c>
     </row>
@@ -27960,7 +27960,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>(48539, 'VJVCL')</t>
+          <t>(60196, 'CIJRJ')</t>
         </is>
       </c>
     </row>
@@ -27970,7 +27970,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>(86487, 'XQAHK')</t>
+          <t>(70690, 'AGGNR')</t>
         </is>
       </c>
     </row>
@@ -27980,7 +27980,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>(51331, 'XRKAZ')</t>
+          <t>(78936, 'ATXMJ')</t>
         </is>
       </c>
     </row>
@@ -27990,7 +27990,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>(96601, 'SYNLG')</t>
+          <t>(54283, 'MGGGT')</t>
         </is>
       </c>
     </row>
@@ -28000,7 +28000,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>(21317, 'DIJIF')</t>
+          <t>(72435, 'RGKRP')</t>
         </is>
       </c>
     </row>
@@ -28010,7 +28010,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>(88091, 'UIADT')</t>
+          <t>(99729, 'ODXNK')</t>
         </is>
       </c>
     </row>
@@ -28020,7 +28020,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>(87888, 'MLDEG')</t>
+          <t>(33496, 'OGLPB')</t>
         </is>
       </c>
     </row>
@@ -28030,7 +28030,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>(35251, 'TSHAG')</t>
+          <t>(26835, 'WOCXB')</t>
         </is>
       </c>
     </row>
@@ -28040,7 +28040,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>(10707, 'AVMVF')</t>
+          <t>(83637, 'WERVV')</t>
         </is>
       </c>
     </row>
@@ -28050,7 +28050,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>(88879, 'BVDEV')</t>
+          <t>(63758, 'CZZNL')</t>
         </is>
       </c>
     </row>
@@ -28060,7 +28060,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>(59923, 'OALMP')</t>
+          <t>(52262, 'DNUYZ')</t>
         </is>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>(11211, 'WPNEA')</t>
+          <t>(45712, 'TJVUO')</t>
         </is>
       </c>
     </row>
@@ -28080,7 +28080,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>(60869, 'LGTLX')</t>
+          <t>(31494, 'ZKGBW')</t>
         </is>
       </c>
     </row>
@@ -28090,7 +28090,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>(37156, 'ROEWM')</t>
+          <t>(17542, 'PKCUF')</t>
         </is>
       </c>
     </row>
@@ -28100,7 +28100,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>(99726, 'PUSAM')</t>
+          <t>(41816, 'YDUJN')</t>
         </is>
       </c>
     </row>
@@ -28110,7 +28110,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>(16131, 'VAPNO')</t>
+          <t>(64534, 'LWQZN')</t>
         </is>
       </c>
     </row>
@@ -28120,7 +28120,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>(59490, 'MBWTO')</t>
+          <t>(31777, 'XQFRQ')</t>
         </is>
       </c>
     </row>
@@ -28130,7 +28130,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>(17210, 'UHYTM')</t>
+          <t>(76043, 'UCNUQ')</t>
         </is>
       </c>
     </row>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>(63632, 'APFER')</t>
+          <t>(60988, 'YFBKQ')</t>
         </is>
       </c>
     </row>
@@ -28150,7 +28150,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>(11568, 'HVMGK')</t>
+          <t>(43198, 'WXWPF')</t>
         </is>
       </c>
     </row>
@@ -28160,7 +28160,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>(59661, 'MGNJM')</t>
+          <t>(81844, 'MEGBH')</t>
         </is>
       </c>
     </row>
@@ -28170,7 +28170,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>(15536, 'MUDVA')</t>
+          <t>(91688, 'PSUDL')</t>
         </is>
       </c>
     </row>
@@ -28180,7 +28180,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>(18057, 'EFYAI')</t>
+          <t>(39512, 'XRQFG')</t>
         </is>
       </c>
     </row>
@@ -28190,7 +28190,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>(76546, 'VEOOH')</t>
+          <t>(84144, 'EUYND')</t>
         </is>
       </c>
     </row>
@@ -28200,7 +28200,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>(37796, 'QYDWF')</t>
+          <t>(45455, 'PLHKU')</t>
         </is>
       </c>
     </row>
@@ -28210,7 +28210,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>(10667, 'DORUO')</t>
+          <t>(85232, 'TBCLL')</t>
         </is>
       </c>
     </row>
@@ -28220,7 +28220,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>(46458, 'LLJYG')</t>
+          <t>(34961, 'KITAA')</t>
         </is>
       </c>
     </row>
@@ -28230,7 +28230,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>(91846, 'XKOLZ')</t>
+          <t>(82227, 'TOWAP')</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>(65424, 'LWIJX')</t>
+          <t>(53584, 'THMIQ')</t>
         </is>
       </c>
     </row>
@@ -28250,7 +28250,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>(65528, 'AJKIE')</t>
+          <t>(49930, 'PZCWB')</t>
         </is>
       </c>
     </row>
@@ -28260,7 +28260,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>(38227, 'PCVKJ')</t>
+          <t>(44569, 'EOJJF')</t>
         </is>
       </c>
     </row>
@@ -28270,7 +28270,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>(87720, 'DMUYT')</t>
+          <t>(70215, 'XJUUN')</t>
         </is>
       </c>
     </row>
@@ -28280,7 +28280,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>(59949, 'GSTCG')</t>
+          <t>(80219, 'YLUIB')</t>
         </is>
       </c>
     </row>
@@ -28290,7 +28290,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>(39882, 'ITDKQ')</t>
+          <t>(34044, 'IEIDE')</t>
         </is>
       </c>
     </row>
@@ -28300,7 +28300,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>(18778, 'AIHWE')</t>
+          <t>(26029, 'DLMHG')</t>
         </is>
       </c>
     </row>
@@ -28310,7 +28310,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>(86899, 'LFAKP')</t>
+          <t>(58669, 'WRJQM')</t>
         </is>
       </c>
     </row>
@@ -28320,7 +28320,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>(49954, 'NBIXA')</t>
+          <t>(16572, 'GAKEU')</t>
         </is>
       </c>
     </row>
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>(70691, 'QWITW')</t>
+          <t>(30877, 'NZTMD')</t>
         </is>
       </c>
     </row>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>(65557, 'ANRQQ')</t>
+          <t>(25442, 'XOBGD')</t>
         </is>
       </c>
     </row>
@@ -28350,7 +28350,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>(64157, 'CWWXN')</t>
+          <t>(51506, 'LMWZR')</t>
         </is>
       </c>
     </row>
@@ -28360,7 +28360,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>(55578, 'OSLGF')</t>
+          <t>(76964, 'NLXWL')</t>
         </is>
       </c>
     </row>
@@ -28370,7 +28370,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>(23641, 'JETXM')</t>
+          <t>(56278, 'HHALE')</t>
         </is>
       </c>
     </row>
@@ -28380,7 +28380,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>(36671, 'FBYXC')</t>
+          <t>(83450, 'KKQGW')</t>
         </is>
       </c>
     </row>
@@ -28390,7 +28390,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>(84219, 'ZJPEV')</t>
+          <t>(34952, 'COORK')</t>
         </is>
       </c>
     </row>
@@ -28400,7 +28400,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>(18540, 'EZALP')</t>
+          <t>(95416, 'PWVHM')</t>
         </is>
       </c>
     </row>
@@ -28410,7 +28410,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>(90550, 'CIFQU')</t>
+          <t>(49739, 'OEOKG')</t>
         </is>
       </c>
     </row>
@@ -28420,7 +28420,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>(93283, 'POFXK')</t>
+          <t>(71819, 'GNWLE')</t>
         </is>
       </c>
     </row>
@@ -28430,7 +28430,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>(14622, 'PFLRM')</t>
+          <t>(62043, 'XNTUD')</t>
         </is>
       </c>
     </row>
@@ -28440,7 +28440,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>(44744, 'PETQN')</t>
+          <t>(29941, 'UXMLX')</t>
         </is>
       </c>
     </row>
@@ -28450,7 +28450,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>(45218, 'FYSXL')</t>
+          <t>(17795, 'KHJGT')</t>
         </is>
       </c>
     </row>
@@ -28460,7 +28460,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>(73817, 'JOQSO')</t>
+          <t>(71175, 'HAGWR')</t>
         </is>
       </c>
     </row>
@@ -28470,7 +28470,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>(27534, 'DNORH')</t>
+          <t>(78229, 'QOQLW')</t>
         </is>
       </c>
     </row>
@@ -28480,7 +28480,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>(25661, 'HJMWG')</t>
+          <t>(57462, 'ARKVW')</t>
         </is>
       </c>
     </row>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>(71684, 'DSTGG')</t>
+          <t>(25051, 'ZLKEM')</t>
         </is>
       </c>
     </row>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>(68610, 'NHMOZ')</t>
+          <t>(63602, 'TYWDM')</t>
         </is>
       </c>
     </row>
@@ -28510,7 +28510,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>(32297, 'OFSLI')</t>
+          <t>(46748, 'EHEJP')</t>
         </is>
       </c>
     </row>
@@ -28520,7 +28520,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>(11730, 'JHDFI')</t>
+          <t>(62014, 'VCJBZ')</t>
         </is>
       </c>
     </row>
@@ -28530,7 +28530,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>(57484, 'CPNAD')</t>
+          <t>(21547, 'JINMX')</t>
         </is>
       </c>
     </row>
@@ -28540,7 +28540,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>(53459, 'GZDMA')</t>
+          <t>(93535, 'ZXQAK')</t>
         </is>
       </c>
     </row>
@@ -28550,7 +28550,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>(24213, 'OIGDU')</t>
+          <t>(14730, 'OAWJQ')</t>
         </is>
       </c>
     </row>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>(28331, 'GDEVU')</t>
+          <t>(26074, 'FFBPE')</t>
         </is>
       </c>
     </row>
@@ -28570,7 +28570,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>(75064, 'SNSVN')</t>
+          <t>(66289, 'GJAXJ')</t>
         </is>
       </c>
     </row>
@@ -28580,7 +28580,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>(96258, 'IXMHZ')</t>
+          <t>(24154, 'BVRYC')</t>
         </is>
       </c>
     </row>
@@ -28590,7 +28590,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>(13952, 'YBKNR')</t>
+          <t>(10528, 'HXTQR')</t>
         </is>
       </c>
     </row>
@@ -28600,7 +28600,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>(41807, 'CPCQI')</t>
+          <t>(96827, 'FOOFI')</t>
         </is>
       </c>
     </row>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>(89882, 'TYSPX')</t>
+          <t>(44484, 'HIZHE')</t>
         </is>
       </c>
     </row>
@@ -28620,7 +28620,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>(45195, 'RXHBU')</t>
+          <t>(25766, 'NUUFD')</t>
         </is>
       </c>
     </row>
@@ -28630,7 +28630,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>(43721, 'UUOVK')</t>
+          <t>(49531, 'IMEWF')</t>
         </is>
       </c>
     </row>
@@ -28640,7 +28640,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>(96120, 'XLWDB')</t>
+          <t>(92963, 'RFDHH')</t>
         </is>
       </c>
     </row>
@@ -28650,7 +28650,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>(98587, 'HVHVZ')</t>
+          <t>(25076, 'TRCRW')</t>
         </is>
       </c>
     </row>
@@ -28660,7 +28660,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>(55667, 'ACRMN')</t>
+          <t>(90492, 'VWQIJ')</t>
         </is>
       </c>
     </row>
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>(65662, 'JAQIM')</t>
+          <t>(69438, 'HMAVB')</t>
         </is>
       </c>
     </row>
@@ -28680,7 +28680,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>(46968, 'CRVKN')</t>
+          <t>(88463, 'HPBII')</t>
         </is>
       </c>
     </row>
@@ -28690,7 +28690,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>(30090, 'RTVJJ')</t>
+          <t>(43714, 'EMNVX')</t>
         </is>
       </c>
     </row>
@@ -28700,7 +28700,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>(10094, 'WCCGP')</t>
+          <t>(18017, 'CWISY')</t>
         </is>
       </c>
     </row>
@@ -28710,7 +28710,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>(42407, 'MTWOC')</t>
+          <t>(12321, 'UKTND')</t>
         </is>
       </c>
     </row>
@@ -28720,7 +28720,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>(61212, 'PESUB')</t>
+          <t>(83341, 'JWSVQ')</t>
         </is>
       </c>
     </row>
@@ -28730,7 +28730,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>(86305, 'MTYYC')</t>
+          <t>(15400, 'RVZBW')</t>
         </is>
       </c>
     </row>
@@ -28740,7 +28740,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>(56659, 'KPNSG')</t>
+          <t>(44163, 'TLJGZ')</t>
         </is>
       </c>
     </row>
@@ -28750,7 +28750,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>(68539, 'QDPKN')</t>
+          <t>(87622, 'KJNEB')</t>
         </is>
       </c>
     </row>
@@ -28760,7 +28760,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>(10675, 'PXPVC')</t>
+          <t>(25350, 'NOHGT')</t>
         </is>
       </c>
     </row>
@@ -28770,7 +28770,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>(91505, 'VDFMF')</t>
+          <t>(44402, 'IALYN')</t>
         </is>
       </c>
     </row>
@@ -28780,7 +28780,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>(89182, 'IPXHG')</t>
+          <t>(43254, 'IWCVP')</t>
         </is>
       </c>
     </row>
@@ -28790,7 +28790,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>(20050, 'LXECX')</t>
+          <t>(21695, 'RGFCY')</t>
         </is>
       </c>
     </row>
@@ -28800,7 +28800,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>(99828, 'YQWCT')</t>
+          <t>(71139, 'QHCWR')</t>
         </is>
       </c>
     </row>
@@ -28810,7 +28810,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>(79082, 'BNFEM')</t>
+          <t>(28006, 'SZCKF')</t>
         </is>
       </c>
     </row>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>(56720, 'DDAVP')</t>
+          <t>(73411, 'FDWTJ')</t>
         </is>
       </c>
     </row>
@@ -28830,7 +28830,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>(19140, 'DVEBT')</t>
+          <t>(82691, 'PFVLG')</t>
         </is>
       </c>
     </row>
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>(10797, 'FYWDR')</t>
+          <t>(89167, 'IJIKO')</t>
         </is>
       </c>
     </row>
@@ -28850,7 +28850,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>(93054, 'SOYUH')</t>
+          <t>(46620, 'TQMJV')</t>
         </is>
       </c>
     </row>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>(69349, 'UZXSA')</t>
+          <t>(73461, 'JOFQZ')</t>
         </is>
       </c>
     </row>
@@ -28870,7 +28870,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>(68569, 'TTPVH')</t>
+          <t>(36931, 'AAZVW')</t>
         </is>
       </c>
     </row>
@@ -28880,7 +28880,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>(23447, 'GPBZW')</t>
+          <t>(50380, 'NFKFJ')</t>
         </is>
       </c>
     </row>
@@ -28890,7 +28890,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>(91278, 'BTRVD')</t>
+          <t>(25685, 'UGJZI')</t>
         </is>
       </c>
     </row>
@@ -28900,7 +28900,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>(67021, 'CALTA')</t>
+          <t>(66285, 'QOGUA')</t>
         </is>
       </c>
     </row>
@@ -28910,7 +28910,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>(62629, 'GZQBG')</t>
+          <t>(53670, 'UKIRQ')</t>
         </is>
       </c>
     </row>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>(72986, 'QZCDZ')</t>
+          <t>(38758, 'DXPKH')</t>
         </is>
       </c>
     </row>
@@ -28930,7 +28930,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>(25491, 'KXVYC')</t>
+          <t>(82224, 'CJTZR')</t>
         </is>
       </c>
     </row>
@@ -28940,7 +28940,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>(74100, 'QIDGD')</t>
+          <t>(91845, 'TIJMV')</t>
         </is>
       </c>
     </row>
@@ -28950,7 +28950,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>(25194, 'OTKOZ')</t>
+          <t>(28789, 'PVPCA')</t>
         </is>
       </c>
     </row>
@@ -28960,7 +28960,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>(18706, 'LQOCF')</t>
+          <t>(64094, 'BKWHM')</t>
         </is>
       </c>
     </row>
@@ -28970,7 +28970,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>(69864, 'PRFFA')</t>
+          <t>(73706, 'EZNAW')</t>
         </is>
       </c>
     </row>
@@ -28980,7 +28980,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>(29817, 'HWUNM')</t>
+          <t>(18009, 'PIRZL')</t>
         </is>
       </c>
     </row>
@@ -28990,7 +28990,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>(69067, 'TZMCL')</t>
+          <t>(47346, 'JWKIT')</t>
         </is>
       </c>
     </row>
@@ -29000,7 +29000,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>(68435, 'DDCPA')</t>
+          <t>(94546, 'SVFVP')</t>
         </is>
       </c>
     </row>
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>(86637, 'IXSXP')</t>
+          <t>(22663, 'CNVYD')</t>
         </is>
       </c>
     </row>
@@ -29020,7 +29020,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>(68814, 'KITKF')</t>
+          <t>(89498, 'WUNIV')</t>
         </is>
       </c>
     </row>
@@ -29030,7 +29030,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>(69137, 'QTXQL')</t>
+          <t>(73281, 'NHLHP')</t>
         </is>
       </c>
     </row>
@@ -29040,7 +29040,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>(84959, 'PXNHM')</t>
+          <t>(84000, 'ZHOCJ')</t>
         </is>
       </c>
     </row>
@@ -29050,7 +29050,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>(71352, 'DELNA')</t>
+          <t>(97345, 'LQQCB')</t>
         </is>
       </c>
     </row>
@@ -29060,7 +29060,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>(89034, 'PBUKX')</t>
+          <t>(50635, 'SWGPH')</t>
         </is>
       </c>
     </row>
@@ -29070,7 +29070,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>(19192, 'JWQDH')</t>
+          <t>(66023, 'LUMKS')</t>
         </is>
       </c>
     </row>
@@ -29080,7 +29080,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>(75394, 'JFUOT')</t>
+          <t>(70372, 'QBKCA')</t>
         </is>
       </c>
     </row>
@@ -29090,7 +29090,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>(62125, 'RUGSZ')</t>
+          <t>(69022, 'UCAFR')</t>
         </is>
       </c>
     </row>
@@ -29100,7 +29100,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>(48016, 'OCRMY')</t>
+          <t>(83479, 'JUAMA')</t>
         </is>
       </c>
     </row>
@@ -29110,7 +29110,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>(86373, 'FZJKQ')</t>
+          <t>(39237, 'CEPMA')</t>
         </is>
       </c>
     </row>
@@ -29120,7 +29120,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>(89453, 'GAEEK')</t>
+          <t>(15786, 'NIPGO')</t>
         </is>
       </c>
     </row>
@@ -29130,7 +29130,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>(90848, 'HKTNE')</t>
+          <t>(89827, 'EHWQE')</t>
         </is>
       </c>
     </row>
@@ -29140,7 +29140,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>(54072, 'GMAPD')</t>
+          <t>(24254, 'PDDRU')</t>
         </is>
       </c>
     </row>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>(59376, 'PLVFM')</t>
+          <t>(53002, 'AVPTS')</t>
         </is>
       </c>
     </row>
@@ -29160,7 +29160,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>(99392, 'QMKDM')</t>
+          <t>(70942, 'FEVBB')</t>
         </is>
       </c>
     </row>
@@ -29170,7 +29170,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>(36748, 'XHOJW')</t>
+          <t>(84749, 'IWBMS')</t>
         </is>
       </c>
     </row>
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>(25530, 'HUZAR')</t>
+          <t>(86868, 'PWAFP')</t>
         </is>
       </c>
     </row>
@@ -29190,7 +29190,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>(61392, 'TMHDS')</t>
+          <t>(85149, 'VBIOI')</t>
         </is>
       </c>
     </row>
@@ -29200,7 +29200,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>(35781, 'ISXFL')</t>
+          <t>(88762, 'WZREH')</t>
         </is>
       </c>
     </row>
@@ -29210,7 +29210,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>(53015, 'NVPTS')</t>
+          <t>(26936, 'HAARO')</t>
         </is>
       </c>
     </row>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>(54495, 'SEETE')</t>
+          <t>(89614, 'BISJN')</t>
         </is>
       </c>
     </row>
@@ -29230,7 +29230,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>(61827, 'HQHLY')</t>
+          <t>(51027, 'UREOL')</t>
         </is>
       </c>
     </row>
@@ -29240,7 +29240,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>(24772, 'UKOAK')</t>
+          <t>(18260, 'VOKHQ')</t>
         </is>
       </c>
     </row>
@@ -29250,7 +29250,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>(49333, 'IYSJV')</t>
+          <t>(51522, 'RDJYK')</t>
         </is>
       </c>
     </row>
@@ -29260,7 +29260,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>(10247, 'ZRAFY')</t>
+          <t>(73448, 'MSTKD')</t>
         </is>
       </c>
     </row>
@@ -29270,7 +29270,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>(44219, 'HZZPV')</t>
+          <t>(72282, 'IEPEG')</t>
         </is>
       </c>
     </row>
@@ -29280,7 +29280,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>(72751, 'IDFNX')</t>
+          <t>(45598, 'JZZIB')</t>
         </is>
       </c>
     </row>
@@ -29290,7 +29290,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>(28711, 'BUFUB')</t>
+          <t>(57894, 'ZFSCJ')</t>
         </is>
       </c>
     </row>
@@ -29300,7 +29300,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>(73314, 'LGSFU')</t>
+          <t>(66918, 'UIXYC')</t>
         </is>
       </c>
     </row>
@@ -29310,7 +29310,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>(31414, 'RMJWV')</t>
+          <t>(48900, 'UTKKA')</t>
         </is>
       </c>
     </row>
@@ -29320,7 +29320,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>(50813, 'QCNGC')</t>
+          <t>(90860, 'MKXJX')</t>
         </is>
       </c>
     </row>
@@ -29330,7 +29330,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>(83956, 'HHPVL')</t>
+          <t>(56591, 'HJFIG')</t>
         </is>
       </c>
     </row>
@@ -29340,7 +29340,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>(42724, 'LIOMH')</t>
+          <t>(96884, 'AZONO')</t>
         </is>
       </c>
     </row>
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>(32610, 'QKHCB')</t>
+          <t>(13618, 'TOVKD')</t>
         </is>
       </c>
     </row>
@@ -29360,7 +29360,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>(82654, 'UMVFA')</t>
+          <t>(57408, 'SXASF')</t>
         </is>
       </c>
     </row>
@@ -29370,7 +29370,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>(60990, 'GWWLW')</t>
+          <t>(74605, 'AQQRN')</t>
         </is>
       </c>
     </row>
@@ -29380,7 +29380,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>(91997, 'JYQSE')</t>
+          <t>(91292, 'VXHSI')</t>
         </is>
       </c>
     </row>
@@ -29390,7 +29390,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>(13489, 'LFTZT')</t>
+          <t>(75914, 'MPTCU')</t>
         </is>
       </c>
     </row>
@@ -29400,7 +29400,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>(26276, 'WHCFV')</t>
+          <t>(64102, 'KTDJY')</t>
         </is>
       </c>
     </row>
@@ -29410,7 +29410,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>(46068, 'QUAXI')</t>
+          <t>(29757, 'JTMLQ')</t>
         </is>
       </c>
     </row>
@@ -29420,7 +29420,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>(23728, 'OJCQA')</t>
+          <t>(53798, 'XFIUR')</t>
         </is>
       </c>
     </row>
@@ -29430,7 +29430,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>(45751, 'DFJDB')</t>
+          <t>(59399, 'HEOWL')</t>
         </is>
       </c>
     </row>
@@ -29440,7 +29440,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>(93424, 'HTZCK')</t>
+          <t>(19795, 'WPOOP')</t>
         </is>
       </c>
     </row>
@@ -29450,7 +29450,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>(87651, 'VIIBT')</t>
+          <t>(35353, 'ZDAUT')</t>
         </is>
       </c>
     </row>
@@ -29460,7 +29460,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>(72409, 'SSEYS')</t>
+          <t>(14672, 'DULNA')</t>
         </is>
       </c>
     </row>
@@ -29470,7 +29470,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>(79711, 'ABULI')</t>
+          <t>(82111, 'UFBVD')</t>
         </is>
       </c>
     </row>
@@ -29480,7 +29480,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>(23485, 'CFWPW')</t>
+          <t>(44215, 'GOVPO')</t>
         </is>
       </c>
     </row>
@@ -29490,7 +29490,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>(68708, 'JWSQX')</t>
+          <t>(56781, 'WDQNF')</t>
         </is>
       </c>
     </row>
@@ -29500,7 +29500,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>(34145, 'JHGFF')</t>
+          <t>(31322, 'AKICK')</t>
         </is>
       </c>
     </row>
@@ -29510,7 +29510,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>(79313, 'GKFVC')</t>
+          <t>(78745, 'ICAUH')</t>
         </is>
       </c>
     </row>
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>(61963, 'WSDBE')</t>
+          <t>(58248, 'SMNPD')</t>
         </is>
       </c>
     </row>
@@ -29530,7 +29530,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>(34790, 'FLLVR')</t>
+          <t>(80472, 'AHEEE')</t>
         </is>
       </c>
     </row>
@@ -29540,7 +29540,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>(85689, 'XSBPF')</t>
+          <t>(18366, 'MKLUB')</t>
         </is>
       </c>
     </row>
@@ -29550,7 +29550,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>(54574, 'TKVOP')</t>
+          <t>(19502, 'VLYPQ')</t>
         </is>
       </c>
     </row>
@@ -29560,7 +29560,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>(32808, 'DKVLO')</t>
+          <t>(36680, 'VWJUY')</t>
         </is>
       </c>
     </row>
@@ -29570,7 +29570,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>(92467, 'QZLOR')</t>
+          <t>(42533, 'URQMZ')</t>
         </is>
       </c>
     </row>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>(93480, 'TVOAP')</t>
+          <t>(94721, 'QBHFH')</t>
         </is>
       </c>
     </row>
@@ -29590,7 +29590,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>(23886, 'PZRTY')</t>
+          <t>(14495, 'URQPS')</t>
         </is>
       </c>
     </row>
@@ -29600,7 +29600,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>(18120, 'OIRAN')</t>
+          <t>(30467, 'HWQAY')</t>
         </is>
       </c>
     </row>
@@ -29610,7 +29610,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>(97636, 'JCYUN')</t>
+          <t>(33561, 'GHSJM')</t>
         </is>
       </c>
     </row>
@@ -29620,7 +29620,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>(89583, 'LAZQL')</t>
+          <t>(84608, 'AGEDY')</t>
         </is>
       </c>
     </row>
@@ -29630,7 +29630,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>(80160, 'MACTM')</t>
+          <t>(98253, 'NUQKR')</t>
         </is>
       </c>
     </row>
@@ -29640,7 +29640,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>(56531, 'WHTKA')</t>
+          <t>(89626, 'BDIPF')</t>
         </is>
       </c>
     </row>
@@ -29650,7 +29650,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>(68859, 'FSFJR')</t>
+          <t>(26314, 'ZPRKK')</t>
         </is>
       </c>
     </row>
@@ -29660,7 +29660,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>(36129, 'DIUXY')</t>
+          <t>(36446, 'BBBGN')</t>
         </is>
       </c>
     </row>
@@ -29670,7 +29670,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>(26113, 'EMOXC')</t>
+          <t>(45020, 'CJUTO')</t>
         </is>
       </c>
     </row>
@@ -29680,7 +29680,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>(69637, 'BSBZG')</t>
+          <t>(66347, 'OHLZD')</t>
         </is>
       </c>
     </row>
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>(32318, 'NDXOS')</t>
+          <t>(18555, 'JZXLI')</t>
         </is>
       </c>
     </row>
@@ -29700,7 +29700,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>(55646, 'XQDSJ')</t>
+          <t>(72359, 'QKRVT')</t>
         </is>
       </c>
     </row>
@@ -29710,7 +29710,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>(85954, 'ZQXNJ')</t>
+          <t>(14936, 'NSNSY')</t>
         </is>
       </c>
     </row>
@@ -29720,7 +29720,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>(36123, 'VVNOK')</t>
+          <t>(57882, 'FXWCU')</t>
         </is>
       </c>
     </row>
@@ -29730,7 +29730,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>(26852, 'HKITE')</t>
+          <t>(44310, 'HHVQT')</t>
         </is>
       </c>
     </row>
@@ -29740,7 +29740,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>(16599, 'ZDHUI')</t>
+          <t>(36995, 'NJTSA')</t>
         </is>
       </c>
     </row>
@@ -29750,7 +29750,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>(97502, 'WOXXP')</t>
+          <t>(49867, 'PBTWG')</t>
         </is>
       </c>
     </row>
@@ -29760,7 +29760,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>(75061, 'VBYDM')</t>
+          <t>(37493, 'WPEAX')</t>
         </is>
       </c>
     </row>
@@ -29770,7 +29770,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>(34109, 'YPEKW')</t>
+          <t>(77241, 'ECMPO')</t>
         </is>
       </c>
     </row>
@@ -29780,7 +29780,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>(39664, 'MMZAO')</t>
+          <t>(61855, 'UPRRB')</t>
         </is>
       </c>
     </row>
@@ -29790,7 +29790,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>(12335, 'MROUJ')</t>
+          <t>(78484, 'ZOTOQ')</t>
         </is>
       </c>
     </row>
@@ -29800,7 +29800,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>(22583, 'KZFZH')</t>
+          <t>(27640, 'WVWFQ')</t>
         </is>
       </c>
     </row>
@@ -29810,7 +29810,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>(34232, 'XTVGG')</t>
+          <t>(87479, 'SQHKF')</t>
         </is>
       </c>
     </row>
@@ -29820,7 +29820,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>(34617, 'AGVCW')</t>
+          <t>(65356, 'GNVQE')</t>
         </is>
       </c>
     </row>
@@ -29830,7 +29830,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>(52365, 'QSEVH')</t>
+          <t>(82442, 'CFCEW')</t>
         </is>
       </c>
     </row>
@@ -29840,7 +29840,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>(97102, 'KKQEF')</t>
+          <t>(45851, 'SJTJQ')</t>
         </is>
       </c>
     </row>
@@ -29850,7 +29850,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>(87372, 'HTAHA')</t>
+          <t>(22933, 'NEGKU')</t>
         </is>
       </c>
     </row>
@@ -29860,7 +29860,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>(42004, 'XHXVL')</t>
+          <t>(70867, 'RGELN')</t>
         </is>
       </c>
     </row>
@@ -29870,7 +29870,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>(29609, 'ZFZKJ')</t>
+          <t>(35366, 'LQEAL')</t>
         </is>
       </c>
     </row>
@@ -29880,7 +29880,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>(60119, 'EVFUA')</t>
+          <t>(73241, 'YCCVX')</t>
         </is>
       </c>
     </row>
@@ -29890,7 +29890,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>(26136, 'UAWDX')</t>
+          <t>(29670, 'HGQXF')</t>
         </is>
       </c>
     </row>
@@ -29900,7 +29900,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>(86563, 'BWQEB')</t>
+          <t>(95730, 'NJFVB')</t>
         </is>
       </c>
     </row>
@@ -29910,7 +29910,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>(85295, 'BVUAS')</t>
+          <t>(80356, 'VGOVM')</t>
         </is>
       </c>
     </row>
@@ -29920,7 +29920,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>(45853, 'LPTPV')</t>
+          <t>(39443, 'RABOZ')</t>
         </is>
       </c>
     </row>
@@ -29930,7 +29930,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>(49225, 'TXVSP')</t>
+          <t>(27854, 'PWYMU')</t>
         </is>
       </c>
     </row>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>(49229, 'ZMEHJ')</t>
+          <t>(74248, 'LIIIN')</t>
         </is>
       </c>
     </row>
@@ -29950,7 +29950,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>(66032, 'XXWPN')</t>
+          <t>(27362, 'KWBVL')</t>
         </is>
       </c>
     </row>
@@ -29960,7 +29960,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>(23503, 'IHDBU')</t>
+          <t>(98778, 'DGUYA')</t>
         </is>
       </c>
     </row>
@@ -29970,7 +29970,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>(58730, 'SCYGD')</t>
+          <t>(77307, 'ZSTBU')</t>
         </is>
       </c>
     </row>
@@ -29980,7 +29980,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>(30274, 'XGXIJ')</t>
+          <t>(52301, 'WXGLL')</t>
         </is>
       </c>
     </row>
@@ -29990,7 +29990,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>(78589, 'JLQMM')</t>
+          <t>(15488, 'IZYXX')</t>
         </is>
       </c>
     </row>
@@ -30000,7 +30000,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>(56717, 'DBILR')</t>
+          <t>(16647, 'JWTHZ')</t>
         </is>
       </c>
     </row>
@@ -30010,7 +30010,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>(76038, 'ESAHF')</t>
+          <t>(14166, 'IOABG')</t>
         </is>
       </c>
     </row>
@@ -30020,7 +30020,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>(89862, 'QSSXU')</t>
+          <t>(31937, 'QMLUI')</t>
         </is>
       </c>
     </row>
@@ -30030,7 +30030,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>(44223, 'FCEEG')</t>
+          <t>(33542, 'DTWYA')</t>
         </is>
       </c>
     </row>
@@ -30040,7 +30040,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>(51686, 'VRKNY')</t>
+          <t>(60910, 'GNPUY')</t>
         </is>
       </c>
     </row>
@@ -30050,7 +30050,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>(66986, 'QWBFJ')</t>
+          <t>(96351, 'VQXLM')</t>
         </is>
       </c>
     </row>
@@ -30060,7 +30060,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>(89862, 'YTKUI')</t>
+          <t>(26868, 'GFOAL')</t>
         </is>
       </c>
     </row>
@@ -30070,7 +30070,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>(45305, 'ZRKGJ')</t>
+          <t>(48473, 'VOAJM')</t>
         </is>
       </c>
     </row>
@@ -30080,7 +30080,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>(62994, 'WKSGI')</t>
+          <t>(24585, 'DIHNI')</t>
         </is>
       </c>
     </row>
@@ -30090,7 +30090,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>(88655, 'RWEJW')</t>
+          <t>(64351, 'OXSXR')</t>
         </is>
       </c>
     </row>
@@ -30100,7 +30100,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>(73067, 'KDKXB')</t>
+          <t>(92692, 'KBDVI')</t>
         </is>
       </c>
     </row>
@@ -30110,7 +30110,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>(59925, 'DCDYZ')</t>
+          <t>(28415, 'BGGFK')</t>
         </is>
       </c>
     </row>
@@ -30120,7 +30120,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>(98773, 'TRRSC')</t>
+          <t>(83702, 'MXNON')</t>
         </is>
       </c>
     </row>
@@ -30130,7 +30130,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>(42659, 'VERVI')</t>
+          <t>(59573, 'CRBQJ')</t>
         </is>
       </c>
     </row>
@@ -30140,7 +30140,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>(32577, 'RVJFD')</t>
+          <t>(26463, 'GGFMY')</t>
         </is>
       </c>
     </row>
@@ -30150,7 +30150,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>(56184, 'FEGUJ')</t>
+          <t>(14346, 'QWLDP')</t>
         </is>
       </c>
     </row>
@@ -30160,7 +30160,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>(10093, 'VLMAK')</t>
+          <t>(71911, 'PPDHO')</t>
         </is>
       </c>
     </row>
@@ -30170,7 +30170,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>(35542, 'FJEGZ')</t>
+          <t>(52362, 'QBATW')</t>
         </is>
       </c>
     </row>
@@ -30180,7 +30180,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>(40644, 'TBDUL')</t>
+          <t>(41463, 'LTEYN')</t>
         </is>
       </c>
     </row>
@@ -30190,7 +30190,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>(26990, 'QMDWY')</t>
+          <t>(66013, 'TAZRK')</t>
         </is>
       </c>
     </row>
@@ -30200,7 +30200,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>(27197, 'EYZOC')</t>
+          <t>(38337, 'MXCYK')</t>
         </is>
       </c>
     </row>
@@ -30210,7 +30210,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>(68887, 'PRDGG')</t>
+          <t>(10361, 'WMGRG')</t>
         </is>
       </c>
     </row>
@@ -30220,7 +30220,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>(27776, 'FDKNS')</t>
+          <t>(33497, 'OGDAL')</t>
         </is>
       </c>
     </row>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>(21074, 'XTAIN')</t>
+          <t>(36685, 'KFDSN')</t>
         </is>
       </c>
     </row>
@@ -30240,7 +30240,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>(76014, 'NNZMM')</t>
+          <t>(72507, 'GWPQH')</t>
         </is>
       </c>
     </row>
@@ -30250,7 +30250,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>(53952, 'RPLAK')</t>
+          <t>(63818, 'EWBPO')</t>
         </is>
       </c>
     </row>
@@ -30260,7 +30260,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>(60426, 'ORVKT')</t>
+          <t>(14610, 'OFHHN')</t>
         </is>
       </c>
     </row>
@@ -30270,7 +30270,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>(10480, 'DJCMJ')</t>
+          <t>(26863, 'DCDPV')</t>
         </is>
       </c>
     </row>
@@ -30280,7 +30280,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>(66701, 'IKQNI')</t>
+          <t>(96004, 'CYJOK')</t>
         </is>
       </c>
     </row>
@@ -30290,7 +30290,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>(99737, 'KXLMX')</t>
+          <t>(32511, 'GIXVI')</t>
         </is>
       </c>
     </row>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>(98847, 'JQZMC')</t>
+          <t>(34610, 'EPHLL')</t>
         </is>
       </c>
     </row>
@@ -30310,7 +30310,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>(23393, 'XDPSF')</t>
+          <t>(74492, 'SILXL')</t>
         </is>
       </c>
     </row>
@@ -30320,7 +30320,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>(32097, 'XAXFV')</t>
+          <t>(57327, 'JWRPN')</t>
         </is>
       </c>
     </row>
@@ -30330,7 +30330,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>(76551, 'TKRAJ')</t>
+          <t>(33680, 'GGCVW')</t>
         </is>
       </c>
     </row>
@@ -30340,7 +30340,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>(84220, 'YDLPZ')</t>
+          <t>(47207, 'IJSAI')</t>
         </is>
       </c>
     </row>
@@ -30350,7 +30350,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>(49077, 'NWULJ')</t>
+          <t>(19651, 'JSOEI')</t>
         </is>
       </c>
     </row>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>(19264, 'QGKEB')</t>
+          <t>(33895, 'DDXNA')</t>
         </is>
       </c>
     </row>
@@ -30370,7 +30370,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>(33512, 'UKTYR')</t>
+          <t>(96651, 'EBICK')</t>
         </is>
       </c>
     </row>
@@ -30380,7 +30380,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>(42731, 'MKFYQ')</t>
+          <t>(76653, 'LWBZX')</t>
         </is>
       </c>
     </row>
@@ -30390,7 +30390,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>(47973, 'JJGJN')</t>
+          <t>(99160, 'PNGRO')</t>
         </is>
       </c>
     </row>
@@ -30400,7 +30400,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>(83076, 'VXZRP')</t>
+          <t>(22491, 'LMZYO')</t>
         </is>
       </c>
     </row>
@@ -30410,7 +30410,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>(42946, 'YFFQM')</t>
+          <t>(91586, 'NXNMR')</t>
         </is>
       </c>
     </row>
@@ -30420,7 +30420,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>(30074, 'RLCLL')</t>
+          <t>(50686, 'RKYFT')</t>
         </is>
       </c>
     </row>
@@ -30430,7 +30430,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>(90925, 'GTVRM')</t>
+          <t>(14428, 'JSRMK')</t>
         </is>
       </c>
     </row>
@@ -30440,7 +30440,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>(23841, 'PGSBL')</t>
+          <t>(53338, 'BTQEZ')</t>
         </is>
       </c>
     </row>
@@ -30450,7 +30450,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>(77239, 'ZGSZA')</t>
+          <t>(68360, 'VSGTF')</t>
         </is>
       </c>
     </row>
@@ -30460,7 +30460,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>(20478, 'PMZJP')</t>
+          <t>(39146, 'YHSDC')</t>
         </is>
       </c>
     </row>
@@ -30470,7 +30470,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>(12454, 'SGOHK')</t>
+          <t>(82960, 'XDFIA')</t>
         </is>
       </c>
     </row>
@@ -30480,7 +30480,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>(91260, 'OWJOL')</t>
+          <t>(27300, 'JEKTV')</t>
         </is>
       </c>
     </row>
@@ -30490,7 +30490,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>(82178, 'WZBIA')</t>
+          <t>(15433, 'SGOVA')</t>
         </is>
       </c>
     </row>
@@ -30500,7 +30500,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>(48549, 'TNFRG')</t>
+          <t>(90112, 'ZDSAX')</t>
         </is>
       </c>
     </row>
@@ -30510,7 +30510,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>(38204, 'QFRJW')</t>
+          <t>(79247, 'ZVWKJ')</t>
         </is>
       </c>
     </row>
@@ -30520,7 +30520,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>(44217, 'DSOMN')</t>
+          <t>(67335, 'VCQLP')</t>
         </is>
       </c>
     </row>
@@ -30530,7 +30530,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>(33335, 'UGIFA')</t>
+          <t>(36066, 'YCCDN')</t>
         </is>
       </c>
     </row>
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>(35465, 'FERXE')</t>
+          <t>(46471, 'FYOES')</t>
         </is>
       </c>
     </row>
@@ -30550,7 +30550,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>(67631, 'WDEIE')</t>
+          <t>(51765, 'HBPYW')</t>
         </is>
       </c>
     </row>
@@ -30560,7 +30560,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>(50245, 'TMZOU')</t>
+          <t>(79252, 'ZKJJN')</t>
         </is>
       </c>
     </row>
@@ -30570,7 +30570,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>(95400, 'PLOES')</t>
+          <t>(42175, 'FWDRU')</t>
         </is>
       </c>
     </row>
